--- a/bin/new管道材料等级索引表-等级表-备注内容.xlsx
+++ b/bin/new管道材料等级索引表-等级表-备注内容.xlsx
@@ -103,7 +103,7 @@
     <t>1氧气管道及其组成件与流体接触的表面应按HG 20202的规定进行脱脂。脱脂后应封闭管口并充入干燥氮气。</t>
   </si>
   <si>
-    <t>2016/08/22</t>
+    <t>2016/08/23</t>
   </si>
   <si>
     <t>注2</t>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" t="n">
-        <v>11549</v>
+        <v>3193</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -1013,7 +1013,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" t="n">
-        <v>11550</v>
+        <v>3194</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -1045,7 +1045,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" t="n">
-        <v>11551</v>
+        <v>3195</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -1077,7 +1077,7 @@
         <v>33</v>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" t="n">
-        <v>11552</v>
+        <v>3196</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -1109,7 +1109,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" t="n">
-        <v>11553</v>
+        <v>3197</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -1141,7 +1141,7 @@
         <v>37</v>
       </c>
       <c r="E6" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" t="n">
-        <v>11554</v>
+        <v>3198</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -1173,7 +1173,7 @@
         <v>39</v>
       </c>
       <c r="E7" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" t="n">
-        <v>11555</v>
+        <v>3199</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -1205,7 +1205,7 @@
         <v>41</v>
       </c>
       <c r="E8" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" t="n">
-        <v>11556</v>
+        <v>3200</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -1237,7 +1237,7 @@
         <v>43</v>
       </c>
       <c r="E9" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" t="n">
-        <v>11557</v>
+        <v>3201</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1269,7 +1269,7 @@
         <v>45</v>
       </c>
       <c r="E10" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" t="n">
-        <v>11558</v>
+        <v>3202</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1301,7 +1301,7 @@
         <v>47</v>
       </c>
       <c r="E11" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" t="n">
-        <v>11559</v>
+        <v>3203</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1333,7 +1333,7 @@
         <v>49</v>
       </c>
       <c r="E12" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" t="n">
-        <v>11560</v>
+        <v>3204</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1365,7 +1365,7 @@
         <v>51</v>
       </c>
       <c r="E13" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" t="n">
-        <v>11561</v>
+        <v>3205</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1397,7 +1397,7 @@
         <v>53</v>
       </c>
       <c r="E14" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" t="n">
-        <v>11562</v>
+        <v>3206</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
@@ -1429,7 +1429,7 @@
         <v>55</v>
       </c>
       <c r="E15" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" t="n">
-        <v>11563</v>
+        <v>3207</v>
       </c>
       <c r="B16" t="s">
         <v>54</v>
@@ -1461,7 +1461,7 @@
         <v>56</v>
       </c>
       <c r="E16" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" t="n">
-        <v>11564</v>
+        <v>3208</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -1493,7 +1493,7 @@
         <v>57</v>
       </c>
       <c r="E17" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" t="n">
-        <v>11565</v>
+        <v>3209</v>
       </c>
       <c r="B18" t="s">
         <v>54</v>
@@ -1525,7 +1525,7 @@
         <v>58</v>
       </c>
       <c r="E18" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" t="n">
-        <v>11566</v>
+        <v>3210</v>
       </c>
       <c r="B19" t="s">
         <v>54</v>
@@ -1557,7 +1557,7 @@
         <v>59</v>
       </c>
       <c r="E19" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" t="n">
-        <v>11567</v>
+        <v>3211</v>
       </c>
       <c r="B20" t="s">
         <v>54</v>
@@ -1589,7 +1589,7 @@
         <v>60</v>
       </c>
       <c r="E20" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" t="n">
-        <v>11568</v>
+        <v>3212</v>
       </c>
       <c r="B21" t="s">
         <v>61</v>
@@ -1621,7 +1621,7 @@
         <v>55</v>
       </c>
       <c r="E21" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" t="n">
-        <v>11569</v>
+        <v>3213</v>
       </c>
       <c r="B22" t="s">
         <v>61</v>
@@ -1653,7 +1653,7 @@
         <v>56</v>
       </c>
       <c r="E22" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" t="n">
-        <v>11570</v>
+        <v>3214</v>
       </c>
       <c r="B23" t="s">
         <v>61</v>
@@ -1685,7 +1685,7 @@
         <v>57</v>
       </c>
       <c r="E23" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" t="n">
-        <v>11571</v>
+        <v>3215</v>
       </c>
       <c r="B24" t="s">
         <v>61</v>
@@ -1717,7 +1717,7 @@
         <v>62</v>
       </c>
       <c r="E24" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="25" spans="1:26">
       <c r="A25" t="n">
-        <v>11572</v>
+        <v>3216</v>
       </c>
       <c r="B25" t="s">
         <v>63</v>
@@ -1749,7 +1749,7 @@
         <v>55</v>
       </c>
       <c r="E25" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26" t="n">
-        <v>11573</v>
+        <v>3217</v>
       </c>
       <c r="B26" t="s">
         <v>63</v>
@@ -1781,7 +1781,7 @@
         <v>57</v>
       </c>
       <c r="E26" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="27" spans="1:26">
       <c r="A27" t="n">
-        <v>11574</v>
+        <v>3218</v>
       </c>
       <c r="B27" t="s">
         <v>63</v>
@@ -1813,7 +1813,7 @@
         <v>58</v>
       </c>
       <c r="E27" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="28" spans="1:26">
       <c r="A28" t="n">
-        <v>11575</v>
+        <v>3219</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
@@ -1845,7 +1845,7 @@
         <v>64</v>
       </c>
       <c r="E28" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="29" spans="1:26">
       <c r="A29" t="n">
-        <v>11576</v>
+        <v>3220</v>
       </c>
       <c r="B29" t="s">
         <v>65</v>
@@ -1877,7 +1877,7 @@
         <v>66</v>
       </c>
       <c r="E29" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="30" spans="1:26">
       <c r="A30" t="n">
-        <v>11577</v>
+        <v>3221</v>
       </c>
       <c r="B30" t="s">
         <v>67</v>
@@ -1909,7 +1909,7 @@
         <v>55</v>
       </c>
       <c r="E30" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="31" spans="1:26">
       <c r="A31" t="n">
-        <v>11578</v>
+        <v>3222</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
@@ -1941,7 +1941,7 @@
         <v>68</v>
       </c>
       <c r="E31" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="32" spans="1:26">
       <c r="A32" t="n">
-        <v>11579</v>
+        <v>3223</v>
       </c>
       <c r="B32" t="s">
         <v>69</v>
@@ -1973,7 +1973,7 @@
         <v>55</v>
       </c>
       <c r="E32" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="33" spans="1:26">
       <c r="A33" t="n">
-        <v>11580</v>
+        <v>3224</v>
       </c>
       <c r="B33" t="s">
         <v>69</v>
@@ -2005,7 +2005,7 @@
         <v>56</v>
       </c>
       <c r="E33" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="34" spans="1:26">
       <c r="A34" t="n">
-        <v>11581</v>
+        <v>3225</v>
       </c>
       <c r="B34" t="s">
         <v>69</v>
@@ -2037,7 +2037,7 @@
         <v>70</v>
       </c>
       <c r="E34" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="35" spans="1:26">
       <c r="A35" t="n">
-        <v>11582</v>
+        <v>3226</v>
       </c>
       <c r="B35" t="s">
         <v>69</v>
@@ -2069,7 +2069,7 @@
         <v>71</v>
       </c>
       <c r="E35" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="36" spans="1:26">
       <c r="A36" t="n">
-        <v>11583</v>
+        <v>3227</v>
       </c>
       <c r="B36" t="s">
         <v>69</v>
@@ -2101,7 +2101,7 @@
         <v>72</v>
       </c>
       <c r="E36" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="37" spans="1:26">
       <c r="A37" t="n">
-        <v>11584</v>
+        <v>3228</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
@@ -2133,7 +2133,7 @@
         <v>55</v>
       </c>
       <c r="E37" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="38" spans="1:26">
       <c r="A38" t="n">
-        <v>11585</v>
+        <v>3229</v>
       </c>
       <c r="B38" t="s">
         <v>73</v>
@@ -2165,7 +2165,7 @@
         <v>56</v>
       </c>
       <c r="E38" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="39" spans="1:26">
       <c r="A39" t="n">
-        <v>11586</v>
+        <v>3230</v>
       </c>
       <c r="B39" t="s">
         <v>73</v>
@@ -2197,7 +2197,7 @@
         <v>74</v>
       </c>
       <c r="E39" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="40" spans="1:26">
       <c r="A40" t="n">
-        <v>11587</v>
+        <v>3231</v>
       </c>
       <c r="B40" t="s">
         <v>75</v>
@@ -2229,7 +2229,7 @@
         <v>55</v>
       </c>
       <c r="E40" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="41" spans="1:26">
       <c r="A41" t="n">
-        <v>11588</v>
+        <v>3232</v>
       </c>
       <c r="B41" t="s">
         <v>75</v>
@@ -2261,7 +2261,7 @@
         <v>56</v>
       </c>
       <c r="E41" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="42" spans="1:26">
       <c r="A42" t="n">
-        <v>11589</v>
+        <v>3233</v>
       </c>
       <c r="B42" t="s">
         <v>75</v>
@@ -2293,7 +2293,7 @@
         <v>70</v>
       </c>
       <c r="E42" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="43" spans="1:26">
       <c r="A43" t="n">
-        <v>11590</v>
+        <v>3234</v>
       </c>
       <c r="B43" t="s">
         <v>75</v>
@@ -2325,7 +2325,7 @@
         <v>74</v>
       </c>
       <c r="E43" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="44" spans="1:26">
       <c r="A44" t="n">
-        <v>11591</v>
+        <v>3235</v>
       </c>
       <c r="B44" t="s">
         <v>76</v>
@@ -2357,7 +2357,7 @@
         <v>55</v>
       </c>
       <c r="E44" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="45" spans="1:26">
       <c r="A45" t="n">
-        <v>11592</v>
+        <v>3236</v>
       </c>
       <c r="B45" t="s">
         <v>76</v>
@@ -2389,7 +2389,7 @@
         <v>70</v>
       </c>
       <c r="E45" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="46" spans="1:26">
       <c r="A46" t="n">
-        <v>11593</v>
+        <v>3237</v>
       </c>
       <c r="B46" t="s">
         <v>76</v>
@@ -2421,7 +2421,7 @@
         <v>74</v>
       </c>
       <c r="E46" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="47" spans="1:26">
       <c r="A47" t="n">
-        <v>11594</v>
+        <v>3238</v>
       </c>
       <c r="B47" t="s">
         <v>77</v>
@@ -2453,7 +2453,7 @@
         <v>55</v>
       </c>
       <c r="E47" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="48" spans="1:26">
       <c r="A48" t="n">
-        <v>11595</v>
+        <v>3239</v>
       </c>
       <c r="B48" t="s">
         <v>77</v>
@@ -2485,7 +2485,7 @@
         <v>56</v>
       </c>
       <c r="E48" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="49" spans="1:26">
       <c r="A49" t="n">
-        <v>11596</v>
+        <v>3240</v>
       </c>
       <c r="B49" t="s">
         <v>77</v>
@@ -2517,7 +2517,7 @@
         <v>57</v>
       </c>
       <c r="E49" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="50" spans="1:26">
       <c r="A50" t="n">
-        <v>11597</v>
+        <v>3241</v>
       </c>
       <c r="B50" t="s">
         <v>77</v>
@@ -2549,7 +2549,7 @@
         <v>62</v>
       </c>
       <c r="E50" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="51" spans="1:26">
       <c r="A51" t="n">
-        <v>11598</v>
+        <v>3242</v>
       </c>
       <c r="B51" t="s">
         <v>78</v>
@@ -2581,7 +2581,7 @@
         <v>55</v>
       </c>
       <c r="E51" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -2601,7 +2601,7 @@
     </row>
     <row r="52" spans="1:26">
       <c r="A52" t="n">
-        <v>11599</v>
+        <v>3243</v>
       </c>
       <c r="B52" t="s">
         <v>78</v>
@@ -2613,7 +2613,7 @@
         <v>56</v>
       </c>
       <c r="E52" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
     </row>
     <row r="53" spans="1:26">
       <c r="A53" t="n">
-        <v>11600</v>
+        <v>3244</v>
       </c>
       <c r="B53" t="s">
         <v>78</v>
@@ -2645,7 +2645,7 @@
         <v>70</v>
       </c>
       <c r="E53" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -2665,7 +2665,7 @@
     </row>
     <row r="54" spans="1:26">
       <c r="A54" t="n">
-        <v>11601</v>
+        <v>3245</v>
       </c>
       <c r="B54" t="s">
         <v>78</v>
@@ -2677,7 +2677,7 @@
         <v>71</v>
       </c>
       <c r="E54" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2697,7 +2697,7 @@
     </row>
     <row r="55" spans="1:26">
       <c r="A55" t="n">
-        <v>11602</v>
+        <v>3246</v>
       </c>
       <c r="B55" t="s">
         <v>78</v>
@@ -2709,7 +2709,7 @@
         <v>57</v>
       </c>
       <c r="E55" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2729,7 +2729,7 @@
     </row>
     <row r="56" spans="1:26">
       <c r="A56" t="n">
-        <v>11603</v>
+        <v>3247</v>
       </c>
       <c r="B56" t="s">
         <v>78</v>
@@ -2741,7 +2741,7 @@
         <v>62</v>
       </c>
       <c r="E56" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
     </row>
     <row r="57" spans="1:26">
       <c r="A57" t="n">
-        <v>11604</v>
+        <v>3248</v>
       </c>
       <c r="B57" t="s">
         <v>79</v>
@@ -2773,7 +2773,7 @@
         <v>55</v>
       </c>
       <c r="E57" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="58" spans="1:26">
       <c r="A58" t="n">
-        <v>11605</v>
+        <v>3249</v>
       </c>
       <c r="B58" t="s">
         <v>79</v>
@@ -2805,7 +2805,7 @@
         <v>56</v>
       </c>
       <c r="E58" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="59" spans="1:26">
       <c r="A59" t="n">
-        <v>11606</v>
+        <v>3250</v>
       </c>
       <c r="B59" t="s">
         <v>79</v>
@@ -2837,7 +2837,7 @@
         <v>70</v>
       </c>
       <c r="E59" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="60" spans="1:26">
       <c r="A60" t="n">
-        <v>11607</v>
+        <v>3251</v>
       </c>
       <c r="B60" t="s">
         <v>79</v>
@@ -2869,7 +2869,7 @@
         <v>80</v>
       </c>
       <c r="E60" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="61" spans="1:26">
       <c r="A61" t="n">
-        <v>11608</v>
+        <v>3252</v>
       </c>
       <c r="B61" t="s">
         <v>79</v>
@@ -2901,7 +2901,7 @@
         <v>74</v>
       </c>
       <c r="E61" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
     </row>
     <row r="62" spans="1:26">
       <c r="A62" t="n">
-        <v>11609</v>
+        <v>3253</v>
       </c>
       <c r="B62" t="s">
         <v>81</v>
@@ -2933,7 +2933,7 @@
         <v>55</v>
       </c>
       <c r="E62" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="63" spans="1:26">
       <c r="A63" t="n">
-        <v>11610</v>
+        <v>3254</v>
       </c>
       <c r="B63" t="s">
         <v>81</v>
@@ -2965,7 +2965,7 @@
         <v>68</v>
       </c>
       <c r="E63" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -2985,7 +2985,7 @@
     </row>
     <row r="64" spans="1:26">
       <c r="A64" t="n">
-        <v>11611</v>
+        <v>3255</v>
       </c>
       <c r="B64" t="s">
         <v>82</v>
@@ -2997,7 +2997,7 @@
         <v>55</v>
       </c>
       <c r="E64" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="65" spans="1:26">
       <c r="A65" t="n">
-        <v>11612</v>
+        <v>3256</v>
       </c>
       <c r="B65" t="s">
         <v>82</v>
@@ -3029,7 +3029,7 @@
         <v>56</v>
       </c>
       <c r="E65" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="66" spans="1:26">
       <c r="A66" t="n">
-        <v>11613</v>
+        <v>3257</v>
       </c>
       <c r="B66" t="s">
         <v>82</v>
@@ -3061,7 +3061,7 @@
         <v>70</v>
       </c>
       <c r="E66" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -3081,7 +3081,7 @@
     </row>
     <row r="67" spans="1:26">
       <c r="A67" t="n">
-        <v>11614</v>
+        <v>3258</v>
       </c>
       <c r="B67" t="s">
         <v>82</v>
@@ -3093,7 +3093,7 @@
         <v>74</v>
       </c>
       <c r="E67" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="68" spans="1:26">
       <c r="A68" t="n">
-        <v>11615</v>
+        <v>3259</v>
       </c>
       <c r="B68" t="s">
         <v>83</v>
@@ -3125,7 +3125,7 @@
         <v>55</v>
       </c>
       <c r="E68" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -3145,7 +3145,7 @@
     </row>
     <row r="69" spans="1:26">
       <c r="A69" t="n">
-        <v>11616</v>
+        <v>3260</v>
       </c>
       <c r="B69" t="s">
         <v>83</v>
@@ -3157,7 +3157,7 @@
         <v>57</v>
       </c>
       <c r="E69" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="70" spans="1:26">
       <c r="A70" t="n">
-        <v>11617</v>
+        <v>3261</v>
       </c>
       <c r="B70" t="s">
         <v>83</v>
@@ -3189,7 +3189,7 @@
         <v>62</v>
       </c>
       <c r="E70" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -3209,7 +3209,7 @@
     </row>
     <row r="71" spans="1:26">
       <c r="A71" t="n">
-        <v>11618</v>
+        <v>3262</v>
       </c>
       <c r="B71" t="s">
         <v>84</v>
@@ -3221,7 +3221,7 @@
         <v>66</v>
       </c>
       <c r="E71" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="72" spans="1:26">
       <c r="A72" t="n">
-        <v>11619</v>
+        <v>3263</v>
       </c>
       <c r="B72" t="s">
         <v>85</v>
@@ -3253,7 +3253,7 @@
         <v>66</v>
       </c>
       <c r="E72" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="73" spans="1:26">
       <c r="A73" t="n">
-        <v>11620</v>
+        <v>3264</v>
       </c>
       <c r="B73" t="s">
         <v>86</v>
@@ -3285,7 +3285,7 @@
         <v>55</v>
       </c>
       <c r="E73" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="74" spans="1:26">
       <c r="A74" t="n">
-        <v>11621</v>
+        <v>3265</v>
       </c>
       <c r="B74" t="s">
         <v>86</v>
@@ -3317,7 +3317,7 @@
         <v>56</v>
       </c>
       <c r="E74" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="75" spans="1:26">
       <c r="A75" t="n">
-        <v>11622</v>
+        <v>3266</v>
       </c>
       <c r="B75" t="s">
         <v>86</v>
@@ -3349,7 +3349,7 @@
         <v>70</v>
       </c>
       <c r="E75" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -3369,7 +3369,7 @@
     </row>
     <row r="76" spans="1:26">
       <c r="A76" t="n">
-        <v>11623</v>
+        <v>3267</v>
       </c>
       <c r="B76" t="s">
         <v>86</v>
@@ -3381,7 +3381,7 @@
         <v>74</v>
       </c>
       <c r="E76" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
     </row>
     <row r="77" spans="1:26">
       <c r="A77" t="n">
-        <v>11624</v>
+        <v>3268</v>
       </c>
       <c r="B77" t="s">
         <v>87</v>
@@ -3413,7 +3413,7 @@
         <v>68</v>
       </c>
       <c r="E77" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="78" spans="1:26">
       <c r="A78" t="n">
-        <v>11625</v>
+        <v>3269</v>
       </c>
       <c r="B78" t="s">
         <v>88</v>
@@ -3445,7 +3445,7 @@
         <v>70</v>
       </c>
       <c r="E78" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -3465,7 +3465,7 @@
     </row>
     <row r="79" spans="1:26">
       <c r="A79" t="n">
-        <v>11626</v>
+        <v>3270</v>
       </c>
       <c r="B79" t="s">
         <v>88</v>
@@ -3477,7 +3477,7 @@
         <v>80</v>
       </c>
       <c r="E79" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -3497,7 +3497,7 @@
     </row>
     <row r="80" spans="1:26">
       <c r="A80" t="n">
-        <v>11627</v>
+        <v>3271</v>
       </c>
       <c r="B80" t="s">
         <v>88</v>
@@ -3509,7 +3509,7 @@
         <v>74</v>
       </c>
       <c r="E80" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="81" spans="1:26">
       <c r="A81" t="n">
-        <v>11628</v>
+        <v>3272</v>
       </c>
       <c r="B81" t="s">
         <v>89</v>
@@ -3541,7 +3541,7 @@
         <v>80</v>
       </c>
       <c r="E81" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="82" spans="1:26">
       <c r="A82" t="n">
-        <v>11629</v>
+        <v>3273</v>
       </c>
       <c r="B82" t="s">
         <v>89</v>
@@ -3573,7 +3573,7 @@
         <v>74</v>
       </c>
       <c r="E82" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="83" spans="1:26">
       <c r="A83" t="n">
-        <v>11630</v>
+        <v>3274</v>
       </c>
       <c r="B83" t="s">
         <v>90</v>
@@ -3605,7 +3605,7 @@
         <v>55</v>
       </c>
       <c r="E83" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="84" spans="1:26">
       <c r="A84" t="n">
-        <v>11631</v>
+        <v>3275</v>
       </c>
       <c r="B84" t="s">
         <v>90</v>
@@ -3637,7 +3637,7 @@
         <v>80</v>
       </c>
       <c r="E84" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="85" spans="1:26">
       <c r="A85" t="n">
-        <v>11632</v>
+        <v>3276</v>
       </c>
       <c r="B85" t="s">
         <v>90</v>
@@ -3669,7 +3669,7 @@
         <v>74</v>
       </c>
       <c r="E85" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -3689,7 +3689,7 @@
     </row>
     <row r="86" spans="1:26">
       <c r="A86" t="n">
-        <v>11633</v>
+        <v>3277</v>
       </c>
       <c r="B86" t="s">
         <v>91</v>
@@ -3701,7 +3701,7 @@
         <v>74</v>
       </c>
       <c r="E86" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
     </row>
     <row r="87" spans="1:26">
       <c r="A87" t="n">
-        <v>11634</v>
+        <v>3278</v>
       </c>
       <c r="B87" t="s">
         <v>92</v>
@@ -3733,7 +3733,7 @@
         <v>74</v>
       </c>
       <c r="E87" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="88" spans="1:26">
       <c r="A88" t="n">
-        <v>11635</v>
+        <v>3279</v>
       </c>
       <c r="B88" t="s">
         <v>93</v>
@@ -3765,7 +3765,7 @@
         <v>80</v>
       </c>
       <c r="E88" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="89" spans="1:26">
       <c r="A89" t="n">
-        <v>11636</v>
+        <v>3280</v>
       </c>
       <c r="B89" t="s">
         <v>93</v>
@@ -3797,7 +3797,7 @@
         <v>74</v>
       </c>
       <c r="E89" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="90" spans="1:26">
       <c r="A90" t="n">
-        <v>11637</v>
+        <v>3281</v>
       </c>
       <c r="B90" t="s">
         <v>94</v>
@@ -3829,7 +3829,7 @@
         <v>55</v>
       </c>
       <c r="E90" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -3849,7 +3849,7 @@
     </row>
     <row r="91" spans="1:26">
       <c r="A91" t="n">
-        <v>11638</v>
+        <v>3282</v>
       </c>
       <c r="B91" t="s">
         <v>94</v>
@@ -3861,7 +3861,7 @@
         <v>74</v>
       </c>
       <c r="E91" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="92" spans="1:26">
       <c r="A92" t="n">
-        <v>11639</v>
+        <v>3283</v>
       </c>
       <c r="B92" t="s">
         <v>95</v>
@@ -3893,7 +3893,7 @@
         <v>55</v>
       </c>
       <c r="E92" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
     </row>
     <row r="93" spans="1:26">
       <c r="A93" t="n">
-        <v>11640</v>
+        <v>3284</v>
       </c>
       <c r="B93" t="s">
         <v>95</v>
@@ -3925,7 +3925,7 @@
         <v>96</v>
       </c>
       <c r="E93" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="94" spans="1:26">
       <c r="A94" t="n">
-        <v>11641</v>
+        <v>3285</v>
       </c>
       <c r="B94" t="s">
         <v>97</v>
@@ -3957,7 +3957,7 @@
         <v>80</v>
       </c>
       <c r="E94" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="95" spans="1:26">
       <c r="A95" t="n">
-        <v>11642</v>
+        <v>3286</v>
       </c>
       <c r="B95" t="s">
         <v>97</v>
@@ -3989,7 +3989,7 @@
         <v>74</v>
       </c>
       <c r="E95" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="96" spans="1:26">
       <c r="A96" t="n">
-        <v>11643</v>
+        <v>3287</v>
       </c>
       <c r="B96" t="s">
         <v>98</v>
@@ -4021,7 +4021,7 @@
         <v>74</v>
       </c>
       <c r="E96" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="97" spans="1:26">
       <c r="A97" t="n">
-        <v>11644</v>
+        <v>3288</v>
       </c>
       <c r="B97" t="s">
         <v>99</v>
@@ -4053,7 +4053,7 @@
         <v>55</v>
       </c>
       <c r="E97" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="98" spans="1:26">
       <c r="A98" t="n">
-        <v>11645</v>
+        <v>3289</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
@@ -4085,7 +4085,7 @@
         <v>80</v>
       </c>
       <c r="E98" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="99" spans="1:26">
       <c r="A99" t="n">
-        <v>11646</v>
+        <v>3290</v>
       </c>
       <c r="B99" t="s">
         <v>99</v>
@@ -4117,7 +4117,7 @@
         <v>74</v>
       </c>
       <c r="E99" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="100" spans="1:26">
       <c r="A100" t="n">
-        <v>11647</v>
+        <v>3291</v>
       </c>
       <c r="B100" t="s">
         <v>100</v>
@@ -4149,7 +4149,7 @@
         <v>66</v>
       </c>
       <c r="E100" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="101" spans="1:26">
       <c r="A101" t="n">
-        <v>11648</v>
+        <v>3292</v>
       </c>
       <c r="B101" t="s">
         <v>101</v>
@@ -4181,7 +4181,7 @@
         <v>55</v>
       </c>
       <c r="E101" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="102" spans="1:26">
       <c r="A102" t="n">
-        <v>11649</v>
+        <v>3293</v>
       </c>
       <c r="B102" t="s">
         <v>101</v>
@@ -4213,7 +4213,7 @@
         <v>56</v>
       </c>
       <c r="E102" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="103" spans="1:26">
       <c r="A103" t="n">
-        <v>11650</v>
+        <v>3294</v>
       </c>
       <c r="B103" t="s">
         <v>101</v>
@@ -4245,7 +4245,7 @@
         <v>70</v>
       </c>
       <c r="E103" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="104" spans="1:26">
       <c r="A104" t="n">
-        <v>11651</v>
+        <v>3295</v>
       </c>
       <c r="B104" t="s">
         <v>101</v>
@@ -4277,7 +4277,7 @@
         <v>71</v>
       </c>
       <c r="E104" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="105" spans="1:26">
       <c r="A105" t="n">
-        <v>11652</v>
+        <v>3296</v>
       </c>
       <c r="B105" t="s">
         <v>101</v>
@@ -4309,7 +4309,7 @@
         <v>72</v>
       </c>
       <c r="E105" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="106" spans="1:26">
       <c r="A106" t="n">
-        <v>11653</v>
+        <v>3297</v>
       </c>
       <c r="B106" t="s">
         <v>102</v>
@@ -4341,7 +4341,7 @@
         <v>55</v>
       </c>
       <c r="E106" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="107" spans="1:26">
       <c r="A107" t="n">
-        <v>11654</v>
+        <v>3298</v>
       </c>
       <c r="B107" t="s">
         <v>102</v>
@@ -4373,7 +4373,7 @@
         <v>68</v>
       </c>
       <c r="E107" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="108" spans="1:26">
       <c r="A108" t="n">
-        <v>11655</v>
+        <v>3299</v>
       </c>
       <c r="B108" t="s">
         <v>103</v>
@@ -4405,7 +4405,7 @@
         <v>66</v>
       </c>
       <c r="E108" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="109" spans="1:26">
       <c r="A109" t="n">
-        <v>11656</v>
+        <v>3300</v>
       </c>
       <c r="B109" t="s">
         <v>104</v>
@@ -4437,7 +4437,7 @@
         <v>55</v>
       </c>
       <c r="E109" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="110" spans="1:26">
       <c r="A110" t="n">
-        <v>11657</v>
+        <v>3301</v>
       </c>
       <c r="B110" t="s">
         <v>104</v>
@@ -4469,7 +4469,7 @@
         <v>56</v>
       </c>
       <c r="E110" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -4489,7 +4489,7 @@
     </row>
     <row r="111" spans="1:26">
       <c r="A111" t="n">
-        <v>11658</v>
+        <v>3302</v>
       </c>
       <c r="B111" t="s">
         <v>104</v>
@@ -4501,7 +4501,7 @@
         <v>70</v>
       </c>
       <c r="E111" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="112" spans="1:26">
       <c r="A112" t="n">
-        <v>11659</v>
+        <v>3303</v>
       </c>
       <c r="B112" t="s">
         <v>104</v>
@@ -4533,7 +4533,7 @@
         <v>74</v>
       </c>
       <c r="E112" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -4553,7 +4553,7 @@
     </row>
     <row r="113" spans="1:26">
       <c r="A113" t="n">
-        <v>11660</v>
+        <v>3304</v>
       </c>
       <c r="B113" t="s">
         <v>105</v>
@@ -4565,7 +4565,7 @@
         <v>55</v>
       </c>
       <c r="E113" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="114" spans="1:26">
       <c r="A114" t="n">
-        <v>11661</v>
+        <v>3305</v>
       </c>
       <c r="B114" t="s">
         <v>105</v>
@@ -4597,7 +4597,7 @@
         <v>56</v>
       </c>
       <c r="E114" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="115" spans="1:26">
       <c r="A115" t="n">
-        <v>11662</v>
+        <v>3306</v>
       </c>
       <c r="B115" t="s">
         <v>105</v>
@@ -4629,7 +4629,7 @@
         <v>70</v>
       </c>
       <c r="E115" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="116" spans="1:26">
       <c r="A116" t="n">
-        <v>11663</v>
+        <v>3307</v>
       </c>
       <c r="B116" t="s">
         <v>105</v>
@@ -4661,7 +4661,7 @@
         <v>80</v>
       </c>
       <c r="E116" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="117" spans="1:26">
       <c r="A117" t="n">
-        <v>11664</v>
+        <v>3308</v>
       </c>
       <c r="B117" t="s">
         <v>105</v>
@@ -4693,7 +4693,7 @@
         <v>74</v>
       </c>
       <c r="E117" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="118" spans="1:26">
       <c r="A118" t="n">
-        <v>11665</v>
+        <v>3309</v>
       </c>
       <c r="B118" t="s">
         <v>106</v>
@@ -4725,7 +4725,7 @@
         <v>55</v>
       </c>
       <c r="E118" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="119" spans="1:26">
       <c r="A119" t="n">
-        <v>11666</v>
+        <v>3310</v>
       </c>
       <c r="B119" t="s">
         <v>106</v>
@@ -4757,7 +4757,7 @@
         <v>68</v>
       </c>
       <c r="E119" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="120" spans="1:26">
       <c r="A120" t="n">
-        <v>11667</v>
+        <v>3311</v>
       </c>
       <c r="B120" t="s">
         <v>107</v>
@@ -4789,7 +4789,7 @@
         <v>55</v>
       </c>
       <c r="E120" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="121" spans="1:26">
       <c r="A121" t="n">
-        <v>11668</v>
+        <v>3312</v>
       </c>
       <c r="B121" t="s">
         <v>107</v>
@@ -4821,7 +4821,7 @@
         <v>68</v>
       </c>
       <c r="E121" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="122" spans="1:26">
       <c r="A122" t="n">
-        <v>11669</v>
+        <v>3313</v>
       </c>
       <c r="B122" t="s">
         <v>108</v>
@@ -4853,7 +4853,7 @@
         <v>55</v>
       </c>
       <c r="E122" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="123" spans="1:26">
       <c r="A123" t="n">
-        <v>11670</v>
+        <v>3314</v>
       </c>
       <c r="B123" t="s">
         <v>108</v>
@@ -4885,7 +4885,7 @@
         <v>70</v>
       </c>
       <c r="E123" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="124" spans="1:26">
       <c r="A124" t="n">
-        <v>11671</v>
+        <v>3315</v>
       </c>
       <c r="B124" t="s">
         <v>108</v>
@@ -4917,7 +4917,7 @@
         <v>74</v>
       </c>
       <c r="E124" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="125" spans="1:26">
       <c r="A125" t="n">
-        <v>11672</v>
+        <v>3316</v>
       </c>
       <c r="B125" t="s">
         <v>109</v>
@@ -4949,7 +4949,7 @@
         <v>55</v>
       </c>
       <c r="E125" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="126" spans="1:26">
       <c r="A126" t="n">
-        <v>11673</v>
+        <v>3317</v>
       </c>
       <c r="B126" t="s">
         <v>109</v>
@@ -4981,7 +4981,7 @@
         <v>56</v>
       </c>
       <c r="E126" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="127" spans="1:26">
       <c r="A127" t="n">
-        <v>11674</v>
+        <v>3318</v>
       </c>
       <c r="B127" t="s">
         <v>109</v>
@@ -5013,7 +5013,7 @@
         <v>70</v>
       </c>
       <c r="E127" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -5033,7 +5033,7 @@
     </row>
     <row r="128" spans="1:26">
       <c r="A128" t="n">
-        <v>11675</v>
+        <v>3319</v>
       </c>
       <c r="B128" t="s">
         <v>109</v>
@@ -5045,7 +5045,7 @@
         <v>74</v>
       </c>
       <c r="E128" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -5065,7 +5065,7 @@
     </row>
     <row r="129" spans="1:26">
       <c r="A129" t="n">
-        <v>11676</v>
+        <v>3320</v>
       </c>
       <c r="B129" t="s">
         <v>110</v>
@@ -5077,7 +5077,7 @@
         <v>55</v>
       </c>
       <c r="E129" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="130" spans="1:26">
       <c r="A130" t="n">
-        <v>11677</v>
+        <v>3321</v>
       </c>
       <c r="B130" t="s">
         <v>110</v>
@@ -5109,7 +5109,7 @@
         <v>68</v>
       </c>
       <c r="E130" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -5129,7 +5129,7 @@
     </row>
     <row r="131" spans="1:26">
       <c r="A131" t="n">
-        <v>11678</v>
+        <v>3322</v>
       </c>
       <c r="B131" t="s">
         <v>111</v>
@@ -5141,7 +5141,7 @@
         <v>55</v>
       </c>
       <c r="E131" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -5161,7 +5161,7 @@
     </row>
     <row r="132" spans="1:26">
       <c r="A132" t="n">
-        <v>11679</v>
+        <v>3323</v>
       </c>
       <c r="B132" t="s">
         <v>111</v>
@@ -5173,7 +5173,7 @@
         <v>68</v>
       </c>
       <c r="E132" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -5193,7 +5193,7 @@
     </row>
     <row r="133" spans="1:26">
       <c r="A133" t="n">
-        <v>11680</v>
+        <v>3324</v>
       </c>
       <c r="B133" t="s">
         <v>112</v>
@@ -5205,7 +5205,7 @@
         <v>55</v>
       </c>
       <c r="E133" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -5225,7 +5225,7 @@
     </row>
     <row r="134" spans="1:26">
       <c r="A134" t="n">
-        <v>11681</v>
+        <v>3325</v>
       </c>
       <c r="B134" t="s">
         <v>112</v>
@@ -5237,7 +5237,7 @@
         <v>68</v>
       </c>
       <c r="E134" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -5257,7 +5257,7 @@
     </row>
     <row r="135" spans="1:26">
       <c r="A135" t="n">
-        <v>11682</v>
+        <v>3326</v>
       </c>
       <c r="B135" t="s">
         <v>113</v>
@@ -5269,7 +5269,7 @@
         <v>55</v>
       </c>
       <c r="E135" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="136" spans="1:26">
       <c r="A136" t="n">
-        <v>11683</v>
+        <v>3327</v>
       </c>
       <c r="B136" t="s">
         <v>113</v>
@@ -5301,7 +5301,7 @@
         <v>56</v>
       </c>
       <c r="E136" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -5321,7 +5321,7 @@
     </row>
     <row r="137" spans="1:26">
       <c r="A137" t="n">
-        <v>11684</v>
+        <v>3328</v>
       </c>
       <c r="B137" t="s">
         <v>113</v>
@@ -5333,7 +5333,7 @@
         <v>74</v>
       </c>
       <c r="E137" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="138" spans="1:26">
       <c r="A138" t="n">
-        <v>11685</v>
+        <v>3329</v>
       </c>
       <c r="B138" t="s">
         <v>114</v>
@@ -5365,7 +5365,7 @@
         <v>55</v>
       </c>
       <c r="E138" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -5385,7 +5385,7 @@
     </row>
     <row r="139" spans="1:26">
       <c r="A139" t="n">
-        <v>11686</v>
+        <v>3330</v>
       </c>
       <c r="B139" t="s">
         <v>114</v>
@@ -5397,7 +5397,7 @@
         <v>56</v>
       </c>
       <c r="E139" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5417,7 +5417,7 @@
     </row>
     <row r="140" spans="1:26">
       <c r="A140" t="n">
-        <v>11687</v>
+        <v>3331</v>
       </c>
       <c r="B140" t="s">
         <v>114</v>
@@ -5429,7 +5429,7 @@
         <v>70</v>
       </c>
       <c r="E140" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5449,7 +5449,7 @@
     </row>
     <row r="141" spans="1:26">
       <c r="A141" t="n">
-        <v>11688</v>
+        <v>3332</v>
       </c>
       <c r="B141" t="s">
         <v>114</v>
@@ -5461,7 +5461,7 @@
         <v>74</v>
       </c>
       <c r="E141" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -5481,7 +5481,7 @@
     </row>
     <row r="142" spans="1:26">
       <c r="A142" t="n">
-        <v>11689</v>
+        <v>3333</v>
       </c>
       <c r="B142" t="s">
         <v>115</v>
@@ -5493,7 +5493,7 @@
         <v>55</v>
       </c>
       <c r="E142" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -5513,7 +5513,7 @@
     </row>
     <row r="143" spans="1:26">
       <c r="A143" t="n">
-        <v>11690</v>
+        <v>3334</v>
       </c>
       <c r="B143" t="s">
         <v>115</v>
@@ -5525,7 +5525,7 @@
         <v>56</v>
       </c>
       <c r="E143" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5545,7 +5545,7 @@
     </row>
     <row r="144" spans="1:26">
       <c r="A144" t="n">
-        <v>11691</v>
+        <v>3335</v>
       </c>
       <c r="B144" t="s">
         <v>115</v>
@@ -5557,7 +5557,7 @@
         <v>70</v>
       </c>
       <c r="E144" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -5577,7 +5577,7 @@
     </row>
     <row r="145" spans="1:26">
       <c r="A145" t="n">
-        <v>11692</v>
+        <v>3336</v>
       </c>
       <c r="B145" t="s">
         <v>115</v>
@@ -5589,7 +5589,7 @@
         <v>71</v>
       </c>
       <c r="E145" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -5609,7 +5609,7 @@
     </row>
     <row r="146" spans="1:26">
       <c r="A146" t="n">
-        <v>11693</v>
+        <v>3337</v>
       </c>
       <c r="B146" t="s">
         <v>115</v>
@@ -5621,7 +5621,7 @@
         <v>72</v>
       </c>
       <c r="E146" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -5641,7 +5641,7 @@
     </row>
     <row r="147" spans="1:26">
       <c r="A147" t="n">
-        <v>11694</v>
+        <v>3338</v>
       </c>
       <c r="B147" t="s">
         <v>116</v>
@@ -5653,7 +5653,7 @@
         <v>55</v>
       </c>
       <c r="E147" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -5673,7 +5673,7 @@
     </row>
     <row r="148" spans="1:26">
       <c r="A148" t="n">
-        <v>11695</v>
+        <v>3339</v>
       </c>
       <c r="B148" t="s">
         <v>116</v>
@@ -5685,7 +5685,7 @@
         <v>56</v>
       </c>
       <c r="E148" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -5705,7 +5705,7 @@
     </row>
     <row r="149" spans="1:26">
       <c r="A149" t="n">
-        <v>11696</v>
+        <v>3340</v>
       </c>
       <c r="B149" t="s">
         <v>116</v>
@@ -5717,7 +5717,7 @@
         <v>70</v>
       </c>
       <c r="E149" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -5737,7 +5737,7 @@
     </row>
     <row r="150" spans="1:26">
       <c r="A150" t="n">
-        <v>11697</v>
+        <v>3341</v>
       </c>
       <c r="B150" t="s">
         <v>116</v>
@@ -5749,7 +5749,7 @@
         <v>74</v>
       </c>
       <c r="E150" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -5769,7 +5769,7 @@
     </row>
     <row r="151" spans="1:26">
       <c r="A151" t="n">
-        <v>11698</v>
+        <v>3342</v>
       </c>
       <c r="B151" t="s">
         <v>117</v>
@@ -5781,7 +5781,7 @@
         <v>55</v>
       </c>
       <c r="E151" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -5801,7 +5801,7 @@
     </row>
     <row r="152" spans="1:26">
       <c r="A152" t="n">
-        <v>11699</v>
+        <v>3343</v>
       </c>
       <c r="B152" t="s">
         <v>117</v>
@@ -5813,7 +5813,7 @@
         <v>56</v>
       </c>
       <c r="E152" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="153" spans="1:26">
       <c r="A153" t="n">
-        <v>11700</v>
+        <v>3344</v>
       </c>
       <c r="B153" t="s">
         <v>117</v>
@@ -5845,7 +5845,7 @@
         <v>70</v>
       </c>
       <c r="E153" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -5865,7 +5865,7 @@
     </row>
     <row r="154" spans="1:26">
       <c r="A154" t="n">
-        <v>11701</v>
+        <v>3345</v>
       </c>
       <c r="B154" t="s">
         <v>117</v>
@@ -5877,7 +5877,7 @@
         <v>71</v>
       </c>
       <c r="E154" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -5897,7 +5897,7 @@
     </row>
     <row r="155" spans="1:26">
       <c r="A155" t="n">
-        <v>11702</v>
+        <v>3346</v>
       </c>
       <c r="B155" t="s">
         <v>117</v>
@@ -5909,7 +5909,7 @@
         <v>57</v>
       </c>
       <c r="E155" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -5929,7 +5929,7 @@
     </row>
     <row r="156" spans="1:26">
       <c r="A156" t="n">
-        <v>11703</v>
+        <v>3347</v>
       </c>
       <c r="B156" t="s">
         <v>117</v>
@@ -5941,7 +5941,7 @@
         <v>62</v>
       </c>
       <c r="E156" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5961,7 +5961,7 @@
     </row>
     <row r="157" spans="1:26">
       <c r="A157" t="n">
-        <v>11704</v>
+        <v>3348</v>
       </c>
       <c r="B157" t="s">
         <v>118</v>
@@ -5973,7 +5973,7 @@
         <v>55</v>
       </c>
       <c r="E157" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -5993,7 +5993,7 @@
     </row>
     <row r="158" spans="1:26">
       <c r="A158" t="n">
-        <v>11705</v>
+        <v>3349</v>
       </c>
       <c r="B158" t="s">
         <v>118</v>
@@ -6005,7 +6005,7 @@
         <v>56</v>
       </c>
       <c r="E158" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -6025,7 +6025,7 @@
     </row>
     <row r="159" spans="1:26">
       <c r="A159" t="n">
-        <v>11706</v>
+        <v>3350</v>
       </c>
       <c r="B159" t="s">
         <v>118</v>
@@ -6037,7 +6037,7 @@
         <v>70</v>
       </c>
       <c r="E159" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -6057,7 +6057,7 @@
     </row>
     <row r="160" spans="1:26">
       <c r="A160" t="n">
-        <v>11707</v>
+        <v>3351</v>
       </c>
       <c r="B160" t="s">
         <v>118</v>
@@ -6069,7 +6069,7 @@
         <v>74</v>
       </c>
       <c r="E160" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6089,7 +6089,7 @@
     </row>
     <row r="161" spans="1:26">
       <c r="A161" t="n">
-        <v>11708</v>
+        <v>3352</v>
       </c>
       <c r="B161" t="s">
         <v>119</v>
@@ -6101,7 +6101,7 @@
         <v>55</v>
       </c>
       <c r="E161" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6121,7 +6121,7 @@
     </row>
     <row r="162" spans="1:26">
       <c r="A162" t="n">
-        <v>11709</v>
+        <v>3353</v>
       </c>
       <c r="B162" t="s">
         <v>119</v>
@@ -6133,7 +6133,7 @@
         <v>56</v>
       </c>
       <c r="E162" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6153,7 +6153,7 @@
     </row>
     <row r="163" spans="1:26">
       <c r="A163" t="n">
-        <v>11710</v>
+        <v>3354</v>
       </c>
       <c r="B163" t="s">
         <v>119</v>
@@ -6165,7 +6165,7 @@
         <v>70</v>
       </c>
       <c r="E163" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
@@ -6185,7 +6185,7 @@
     </row>
     <row r="164" spans="1:26">
       <c r="A164" t="n">
-        <v>11711</v>
+        <v>3355</v>
       </c>
       <c r="B164" t="s">
         <v>119</v>
@@ -6197,7 +6197,7 @@
         <v>74</v>
       </c>
       <c r="E164" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -6217,7 +6217,7 @@
     </row>
     <row r="165" spans="1:26">
       <c r="A165" t="n">
-        <v>11712</v>
+        <v>3356</v>
       </c>
       <c r="B165" t="s">
         <v>120</v>
@@ -6229,7 +6229,7 @@
         <v>55</v>
       </c>
       <c r="E165" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
@@ -6249,7 +6249,7 @@
     </row>
     <row r="166" spans="1:26">
       <c r="A166" t="n">
-        <v>11713</v>
+        <v>3357</v>
       </c>
       <c r="B166" t="s">
         <v>120</v>
@@ -6261,7 +6261,7 @@
         <v>70</v>
       </c>
       <c r="E166" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -6281,7 +6281,7 @@
     </row>
     <row r="167" spans="1:26">
       <c r="A167" t="n">
-        <v>11714</v>
+        <v>3358</v>
       </c>
       <c r="B167" t="s">
         <v>120</v>
@@ -6293,7 +6293,7 @@
         <v>74</v>
       </c>
       <c r="E167" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
@@ -6313,7 +6313,7 @@
     </row>
     <row r="168" spans="1:26">
       <c r="A168" t="n">
-        <v>11715</v>
+        <v>3359</v>
       </c>
       <c r="B168" t="s">
         <v>121</v>
@@ -6325,7 +6325,7 @@
         <v>55</v>
       </c>
       <c r="E168" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -6345,7 +6345,7 @@
     </row>
     <row r="169" spans="1:26">
       <c r="A169" t="n">
-        <v>11716</v>
+        <v>3360</v>
       </c>
       <c r="B169" t="s">
         <v>121</v>
@@ -6357,7 +6357,7 @@
         <v>56</v>
       </c>
       <c r="E169" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
@@ -6377,7 +6377,7 @@
     </row>
     <row r="170" spans="1:26">
       <c r="A170" t="n">
-        <v>11717</v>
+        <v>3361</v>
       </c>
       <c r="B170" t="s">
         <v>121</v>
@@ -6389,7 +6389,7 @@
         <v>70</v>
       </c>
       <c r="E170" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
@@ -6409,7 +6409,7 @@
     </row>
     <row r="171" spans="1:26">
       <c r="A171" t="n">
-        <v>11718</v>
+        <v>3362</v>
       </c>
       <c r="B171" t="s">
         <v>121</v>
@@ -6421,7 +6421,7 @@
         <v>71</v>
       </c>
       <c r="E171" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F171" t="n">
         <v>0</v>
@@ -6441,7 +6441,7 @@
     </row>
     <row r="172" spans="1:26">
       <c r="A172" t="n">
-        <v>11719</v>
+        <v>3363</v>
       </c>
       <c r="B172" t="s">
         <v>121</v>
@@ -6453,7 +6453,7 @@
         <v>57</v>
       </c>
       <c r="E172" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F172" t="n">
         <v>0</v>
@@ -6473,7 +6473,7 @@
     </row>
     <row r="173" spans="1:26">
       <c r="A173" t="n">
-        <v>11720</v>
+        <v>3364</v>
       </c>
       <c r="B173" t="s">
         <v>121</v>
@@ -6485,7 +6485,7 @@
         <v>62</v>
       </c>
       <c r="E173" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F173" t="n">
         <v>0</v>
@@ -6505,7 +6505,7 @@
     </row>
     <row r="174" spans="1:26">
       <c r="A174" t="n">
-        <v>11721</v>
+        <v>3365</v>
       </c>
       <c r="B174" t="s">
         <v>122</v>
@@ -6517,7 +6517,7 @@
         <v>55</v>
       </c>
       <c r="E174" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
     </row>
     <row r="175" spans="1:26">
       <c r="A175" t="n">
-        <v>11722</v>
+        <v>3366</v>
       </c>
       <c r="B175" t="s">
         <v>122</v>
@@ -6549,7 +6549,7 @@
         <v>56</v>
       </c>
       <c r="E175" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
@@ -6569,7 +6569,7 @@
     </row>
     <row r="176" spans="1:26">
       <c r="A176" t="n">
-        <v>11723</v>
+        <v>3367</v>
       </c>
       <c r="B176" t="s">
         <v>122</v>
@@ -6581,7 +6581,7 @@
         <v>70</v>
       </c>
       <c r="E176" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6601,7 +6601,7 @@
     </row>
     <row r="177" spans="1:26">
       <c r="A177" t="n">
-        <v>11724</v>
+        <v>3368</v>
       </c>
       <c r="B177" t="s">
         <v>122</v>
@@ -6613,7 +6613,7 @@
         <v>74</v>
       </c>
       <c r="E177" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
@@ -6633,7 +6633,7 @@
     </row>
     <row r="178" spans="1:26">
       <c r="A178" t="n">
-        <v>11725</v>
+        <v>3369</v>
       </c>
       <c r="B178" t="s">
         <v>123</v>
@@ -6645,7 +6645,7 @@
         <v>55</v>
       </c>
       <c r="E178" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
@@ -6665,7 +6665,7 @@
     </row>
     <row r="179" spans="1:26">
       <c r="A179" t="n">
-        <v>11726</v>
+        <v>3370</v>
       </c>
       <c r="B179" t="s">
         <v>123</v>
@@ -6677,7 +6677,7 @@
         <v>68</v>
       </c>
       <c r="E179" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -6697,7 +6697,7 @@
     </row>
     <row r="180" spans="1:26">
       <c r="A180" t="n">
-        <v>11727</v>
+        <v>3371</v>
       </c>
       <c r="B180" t="s">
         <v>124</v>
@@ -6709,7 +6709,7 @@
         <v>55</v>
       </c>
       <c r="E180" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -6729,7 +6729,7 @@
     </row>
     <row r="181" spans="1:26">
       <c r="A181" t="n">
-        <v>11728</v>
+        <v>3372</v>
       </c>
       <c r="B181" t="s">
         <v>124</v>
@@ -6741,7 +6741,7 @@
         <v>70</v>
       </c>
       <c r="E181" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
@@ -6761,7 +6761,7 @@
     </row>
     <row r="182" spans="1:26">
       <c r="A182" t="n">
-        <v>11729</v>
+        <v>3373</v>
       </c>
       <c r="B182" t="s">
         <v>124</v>
@@ -6773,7 +6773,7 @@
         <v>80</v>
       </c>
       <c r="E182" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
@@ -6793,7 +6793,7 @@
     </row>
     <row r="183" spans="1:26">
       <c r="A183" t="n">
-        <v>11730</v>
+        <v>3374</v>
       </c>
       <c r="B183" t="s">
         <v>124</v>
@@ -6805,7 +6805,7 @@
         <v>74</v>
       </c>
       <c r="E183" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -6825,7 +6825,7 @@
     </row>
     <row r="184" spans="1:26">
       <c r="A184" t="n">
-        <v>11731</v>
+        <v>3375</v>
       </c>
       <c r="B184" t="s">
         <v>125</v>
@@ -6837,7 +6837,7 @@
         <v>74</v>
       </c>
       <c r="E184" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -6857,7 +6857,7 @@
     </row>
     <row r="185" spans="1:26">
       <c r="A185" t="n">
-        <v>11732</v>
+        <v>3376</v>
       </c>
       <c r="B185" t="s">
         <v>126</v>
@@ -6869,7 +6869,7 @@
         <v>74</v>
       </c>
       <c r="E185" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
@@ -6889,7 +6889,7 @@
     </row>
     <row r="186" spans="1:26">
       <c r="A186" t="n">
-        <v>11733</v>
+        <v>3377</v>
       </c>
       <c r="B186" t="s">
         <v>127</v>
@@ -6901,7 +6901,7 @@
         <v>55</v>
       </c>
       <c r="E186" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -6921,7 +6921,7 @@
     </row>
     <row r="187" spans="1:26">
       <c r="A187" t="n">
-        <v>11734</v>
+        <v>3378</v>
       </c>
       <c r="B187" t="s">
         <v>127</v>
@@ -6933,7 +6933,7 @@
         <v>56</v>
       </c>
       <c r="E187" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -6953,7 +6953,7 @@
     </row>
     <row r="188" spans="1:26">
       <c r="A188" t="n">
-        <v>11735</v>
+        <v>3379</v>
       </c>
       <c r="B188" t="s">
         <v>127</v>
@@ -6965,7 +6965,7 @@
         <v>74</v>
       </c>
       <c r="E188" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -6985,7 +6985,7 @@
     </row>
     <row r="189" spans="1:26">
       <c r="A189" t="n">
-        <v>11736</v>
+        <v>3380</v>
       </c>
       <c r="B189" t="s">
         <v>128</v>
@@ -6997,7 +6997,7 @@
         <v>55</v>
       </c>
       <c r="E189" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
@@ -7017,7 +7017,7 @@
     </row>
     <row r="190" spans="1:26">
       <c r="A190" t="n">
-        <v>11737</v>
+        <v>3381</v>
       </c>
       <c r="B190" t="s">
         <v>128</v>
@@ -7029,7 +7029,7 @@
         <v>74</v>
       </c>
       <c r="E190" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
@@ -7049,7 +7049,7 @@
     </row>
     <row r="191" spans="1:26">
       <c r="A191" t="n">
-        <v>11738</v>
+        <v>3382</v>
       </c>
       <c r="B191" t="s">
         <v>129</v>
@@ -7061,7 +7061,7 @@
         <v>55</v>
       </c>
       <c r="E191" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -7081,7 +7081,7 @@
     </row>
     <row r="192" spans="1:26">
       <c r="A192" t="n">
-        <v>11739</v>
+        <v>3383</v>
       </c>
       <c r="B192" t="s">
         <v>129</v>
@@ -7093,7 +7093,7 @@
         <v>80</v>
       </c>
       <c r="E192" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -7113,7 +7113,7 @@
     </row>
     <row r="193" spans="1:26">
       <c r="A193" t="n">
-        <v>11740</v>
+        <v>3384</v>
       </c>
       <c r="B193" t="s">
         <v>129</v>
@@ -7125,7 +7125,7 @@
         <v>74</v>
       </c>
       <c r="E193" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
@@ -7145,7 +7145,7 @@
     </row>
     <row r="194" spans="1:26">
       <c r="A194" t="n">
-        <v>11741</v>
+        <v>3385</v>
       </c>
       <c r="B194" t="s">
         <v>130</v>
@@ -7157,7 +7157,7 @@
         <v>80</v>
       </c>
       <c r="E194" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -7177,7 +7177,7 @@
     </row>
     <row r="195" spans="1:26">
       <c r="A195" t="n">
-        <v>11742</v>
+        <v>3386</v>
       </c>
       <c r="B195" t="s">
         <v>130</v>
@@ -7189,7 +7189,7 @@
         <v>74</v>
       </c>
       <c r="E195" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -7209,7 +7209,7 @@
     </row>
     <row r="196" spans="1:26">
       <c r="A196" t="n">
-        <v>11743</v>
+        <v>3387</v>
       </c>
       <c r="B196" t="s">
         <v>131</v>
@@ -7221,7 +7221,7 @@
         <v>55</v>
       </c>
       <c r="E196" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7241,7 +7241,7 @@
     </row>
     <row r="197" spans="1:26">
       <c r="A197" t="n">
-        <v>11744</v>
+        <v>3388</v>
       </c>
       <c r="B197" t="s">
         <v>131</v>
@@ -7253,7 +7253,7 @@
         <v>56</v>
       </c>
       <c r="E197" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
@@ -7273,7 +7273,7 @@
     </row>
     <row r="198" spans="1:26">
       <c r="A198" t="n">
-        <v>11745</v>
+        <v>3389</v>
       </c>
       <c r="B198" t="s">
         <v>131</v>
@@ -7285,7 +7285,7 @@
         <v>70</v>
       </c>
       <c r="E198" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F198" t="n">
         <v>0</v>
@@ -7305,7 +7305,7 @@
     </row>
     <row r="199" spans="1:26">
       <c r="A199" t="n">
-        <v>11746</v>
+        <v>3390</v>
       </c>
       <c r="B199" t="s">
         <v>131</v>
@@ -7317,7 +7317,7 @@
         <v>74</v>
       </c>
       <c r="E199" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F199" t="n">
         <v>0</v>
@@ -7337,7 +7337,7 @@
     </row>
     <row r="200" spans="1:26">
       <c r="A200" t="n">
-        <v>11747</v>
+        <v>3391</v>
       </c>
       <c r="B200" t="s">
         <v>132</v>
@@ -7349,7 +7349,7 @@
         <v>55</v>
       </c>
       <c r="E200" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
@@ -7369,7 +7369,7 @@
     </row>
     <row r="201" spans="1:26">
       <c r="A201" t="n">
-        <v>11748</v>
+        <v>3392</v>
       </c>
       <c r="B201" t="s">
         <v>132</v>
@@ -7381,7 +7381,7 @@
         <v>56</v>
       </c>
       <c r="E201" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
@@ -7401,7 +7401,7 @@
     </row>
     <row r="202" spans="1:26">
       <c r="A202" t="n">
-        <v>11749</v>
+        <v>3393</v>
       </c>
       <c r="B202" t="s">
         <v>132</v>
@@ -7413,7 +7413,7 @@
         <v>70</v>
       </c>
       <c r="E202" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -7433,7 +7433,7 @@
     </row>
     <row r="203" spans="1:26">
       <c r="A203" t="n">
-        <v>11750</v>
+        <v>3394</v>
       </c>
       <c r="B203" t="s">
         <v>132</v>
@@ -7445,7 +7445,7 @@
         <v>74</v>
       </c>
       <c r="E203" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F203" t="n">
         <v>0</v>
@@ -7465,7 +7465,7 @@
     </row>
     <row r="204" spans="1:26">
       <c r="A204" t="n">
-        <v>11751</v>
+        <v>3395</v>
       </c>
       <c r="B204" t="s">
         <v>133</v>
@@ -7477,7 +7477,7 @@
         <v>55</v>
       </c>
       <c r="E204" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7497,7 +7497,7 @@
     </row>
     <row r="205" spans="1:26">
       <c r="A205" t="n">
-        <v>11752</v>
+        <v>3396</v>
       </c>
       <c r="B205" t="s">
         <v>133</v>
@@ -7509,7 +7509,7 @@
         <v>56</v>
       </c>
       <c r="E205" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F205" t="n">
         <v>0</v>
@@ -7529,7 +7529,7 @@
     </row>
     <row r="206" spans="1:26">
       <c r="A206" t="n">
-        <v>11753</v>
+        <v>3397</v>
       </c>
       <c r="B206" t="s">
         <v>133</v>
@@ -7541,7 +7541,7 @@
         <v>70</v>
       </c>
       <c r="E206" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -7561,7 +7561,7 @@
     </row>
     <row r="207" spans="1:26">
       <c r="A207" t="n">
-        <v>11754</v>
+        <v>3398</v>
       </c>
       <c r="B207" t="s">
         <v>133</v>
@@ -7573,7 +7573,7 @@
         <v>74</v>
       </c>
       <c r="E207" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
@@ -7593,7 +7593,7 @@
     </row>
     <row r="208" spans="1:26">
       <c r="A208" t="n">
-        <v>11755</v>
+        <v>3399</v>
       </c>
       <c r="B208" t="s">
         <v>134</v>
@@ -7605,7 +7605,7 @@
         <v>55</v>
       </c>
       <c r="E208" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F208" t="n">
         <v>0</v>
@@ -7625,7 +7625,7 @@
     </row>
     <row r="209" spans="1:26">
       <c r="A209" t="n">
-        <v>11756</v>
+        <v>3400</v>
       </c>
       <c r="B209" t="s">
         <v>134</v>
@@ -7637,7 +7637,7 @@
         <v>56</v>
       </c>
       <c r="E209" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F209" t="n">
         <v>0</v>
@@ -7657,7 +7657,7 @@
     </row>
     <row r="210" spans="1:26">
       <c r="A210" t="n">
-        <v>11757</v>
+        <v>3401</v>
       </c>
       <c r="B210" t="s">
         <v>134</v>
@@ -7669,7 +7669,7 @@
         <v>70</v>
       </c>
       <c r="E210" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F210" t="n">
         <v>0</v>
@@ -7689,7 +7689,7 @@
     </row>
     <row r="211" spans="1:26">
       <c r="A211" t="n">
-        <v>11758</v>
+        <v>3402</v>
       </c>
       <c r="B211" t="s">
         <v>134</v>
@@ -7701,7 +7701,7 @@
         <v>74</v>
       </c>
       <c r="E211" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7721,7 +7721,7 @@
     </row>
     <row r="212" spans="1:26">
       <c r="A212" t="n">
-        <v>11759</v>
+        <v>3403</v>
       </c>
       <c r="B212" t="s">
         <v>135</v>
@@ -7733,7 +7733,7 @@
         <v>55</v>
       </c>
       <c r="E212" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F212" t="n">
         <v>0</v>
@@ -7753,7 +7753,7 @@
     </row>
     <row r="213" spans="1:26">
       <c r="A213" t="n">
-        <v>11760</v>
+        <v>3404</v>
       </c>
       <c r="B213" t="s">
         <v>135</v>
@@ -7765,7 +7765,7 @@
         <v>56</v>
       </c>
       <c r="E213" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F213" t="n">
         <v>0</v>
@@ -7785,7 +7785,7 @@
     </row>
     <row r="214" spans="1:26">
       <c r="A214" t="n">
-        <v>11761</v>
+        <v>3405</v>
       </c>
       <c r="B214" t="s">
         <v>135</v>
@@ -7797,7 +7797,7 @@
         <v>70</v>
       </c>
       <c r="E214" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -7817,7 +7817,7 @@
     </row>
     <row r="215" spans="1:26">
       <c r="A215" t="n">
-        <v>11762</v>
+        <v>3406</v>
       </c>
       <c r="B215" t="s">
         <v>135</v>
@@ -7829,7 +7829,7 @@
         <v>74</v>
       </c>
       <c r="E215" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F215" t="n">
         <v>0</v>
@@ -7849,7 +7849,7 @@
     </row>
     <row r="216" spans="1:26">
       <c r="A216" t="n">
-        <v>11763</v>
+        <v>3407</v>
       </c>
       <c r="B216" t="s">
         <v>136</v>
@@ -7861,7 +7861,7 @@
         <v>55</v>
       </c>
       <c r="E216" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F216" t="n">
         <v>0</v>
@@ -7881,7 +7881,7 @@
     </row>
     <row r="217" spans="1:26">
       <c r="A217" t="n">
-        <v>11764</v>
+        <v>3408</v>
       </c>
       <c r="B217" t="s">
         <v>136</v>
@@ -7893,7 +7893,7 @@
         <v>56</v>
       </c>
       <c r="E217" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F217" t="n">
         <v>0</v>
@@ -7913,7 +7913,7 @@
     </row>
     <row r="218" spans="1:26">
       <c r="A218" t="n">
-        <v>11765</v>
+        <v>3409</v>
       </c>
       <c r="B218" t="s">
         <v>136</v>
@@ -7925,7 +7925,7 @@
         <v>70</v>
       </c>
       <c r="E218" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F218" t="n">
         <v>0</v>
@@ -7945,7 +7945,7 @@
     </row>
     <row r="219" spans="1:26">
       <c r="A219" t="n">
-        <v>11766</v>
+        <v>3410</v>
       </c>
       <c r="B219" t="s">
         <v>136</v>
@@ -7957,7 +7957,7 @@
         <v>74</v>
       </c>
       <c r="E219" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F219" t="n">
         <v>0</v>
@@ -7977,7 +7977,7 @@
     </row>
     <row r="220" spans="1:26">
       <c r="A220" t="n">
-        <v>11767</v>
+        <v>3411</v>
       </c>
       <c r="B220" t="s">
         <v>137</v>
@@ -7989,7 +7989,7 @@
         <v>55</v>
       </c>
       <c r="E220" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F220" t="n">
         <v>0</v>
@@ -8009,7 +8009,7 @@
     </row>
     <row r="221" spans="1:26">
       <c r="A221" t="n">
-        <v>11768</v>
+        <v>3412</v>
       </c>
       <c r="B221" t="s">
         <v>137</v>
@@ -8021,7 +8021,7 @@
         <v>70</v>
       </c>
       <c r="E221" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F221" t="n">
         <v>0</v>
@@ -8041,7 +8041,7 @@
     </row>
     <row r="222" spans="1:26">
       <c r="A222" t="n">
-        <v>11769</v>
+        <v>3413</v>
       </c>
       <c r="B222" t="s">
         <v>137</v>
@@ -8053,7 +8053,7 @@
         <v>74</v>
       </c>
       <c r="E222" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F222" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
     </row>
     <row r="223" spans="1:26">
       <c r="A223" t="n">
-        <v>11770</v>
+        <v>3414</v>
       </c>
       <c r="B223" t="s">
         <v>138</v>
@@ -8085,7 +8085,7 @@
         <v>55</v>
       </c>
       <c r="E223" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F223" t="n">
         <v>0</v>
@@ -8105,7 +8105,7 @@
     </row>
     <row r="224" spans="1:26">
       <c r="A224" t="n">
-        <v>11771</v>
+        <v>3415</v>
       </c>
       <c r="B224" t="s">
         <v>138</v>
@@ -8117,7 +8117,7 @@
         <v>68</v>
       </c>
       <c r="E224" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F224" t="n">
         <v>0</v>
@@ -8137,7 +8137,7 @@
     </row>
     <row r="225" spans="1:26">
       <c r="A225" t="n">
-        <v>11772</v>
+        <v>3416</v>
       </c>
       <c r="B225" t="s">
         <v>139</v>
@@ -8149,7 +8149,7 @@
         <v>55</v>
       </c>
       <c r="E225" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F225" t="n">
         <v>0</v>
@@ -8169,7 +8169,7 @@
     </row>
     <row r="226" spans="1:26">
       <c r="A226" t="n">
-        <v>11773</v>
+        <v>3417</v>
       </c>
       <c r="B226" t="s">
         <v>139</v>
@@ -8181,7 +8181,7 @@
         <v>56</v>
       </c>
       <c r="E226" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F226" t="n">
         <v>0</v>
@@ -8201,7 +8201,7 @@
     </row>
     <row r="227" spans="1:26">
       <c r="A227" t="n">
-        <v>11774</v>
+        <v>3418</v>
       </c>
       <c r="B227" t="s">
         <v>139</v>
@@ -8213,7 +8213,7 @@
         <v>74</v>
       </c>
       <c r="E227" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8233,7 +8233,7 @@
     </row>
     <row r="228" spans="1:26">
       <c r="A228" t="n">
-        <v>11775</v>
+        <v>3419</v>
       </c>
       <c r="B228" t="s">
         <v>140</v>
@@ -8245,7 +8245,7 @@
         <v>55</v>
       </c>
       <c r="E228" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F228" t="n">
         <v>0</v>
@@ -8265,7 +8265,7 @@
     </row>
     <row r="229" spans="1:26">
       <c r="A229" t="n">
-        <v>11776</v>
+        <v>3420</v>
       </c>
       <c r="B229" t="s">
         <v>140</v>
@@ -8277,7 +8277,7 @@
         <v>56</v>
       </c>
       <c r="E229" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F229" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
     </row>
     <row r="230" spans="1:26">
       <c r="A230" t="n">
-        <v>11777</v>
+        <v>3421</v>
       </c>
       <c r="B230" t="s">
         <v>140</v>
@@ -8309,7 +8309,7 @@
         <v>70</v>
       </c>
       <c r="E230" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F230" t="n">
         <v>0</v>
@@ -8329,7 +8329,7 @@
     </row>
     <row r="231" spans="1:26">
       <c r="A231" t="n">
-        <v>11778</v>
+        <v>3422</v>
       </c>
       <c r="B231" t="s">
         <v>140</v>
@@ -8341,7 +8341,7 @@
         <v>80</v>
       </c>
       <c r="E231" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F231" t="n">
         <v>0</v>
@@ -8361,7 +8361,7 @@
     </row>
     <row r="232" spans="1:26">
       <c r="A232" t="n">
-        <v>11779</v>
+        <v>3423</v>
       </c>
       <c r="B232" t="s">
         <v>140</v>
@@ -8373,7 +8373,7 @@
         <v>74</v>
       </c>
       <c r="E232" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F232" t="n">
         <v>0</v>
@@ -8393,7 +8393,7 @@
     </row>
     <row r="233" spans="1:26">
       <c r="A233" t="n">
-        <v>11780</v>
+        <v>3424</v>
       </c>
       <c r="B233" t="s">
         <v>141</v>
@@ -8405,7 +8405,7 @@
         <v>55</v>
       </c>
       <c r="E233" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8425,7 +8425,7 @@
     </row>
     <row r="234" spans="1:26">
       <c r="A234" t="n">
-        <v>11781</v>
+        <v>3425</v>
       </c>
       <c r="B234" t="s">
         <v>141</v>
@@ -8437,7 +8437,7 @@
         <v>68</v>
       </c>
       <c r="E234" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F234" t="n">
         <v>0</v>
@@ -8457,7 +8457,7 @@
     </row>
     <row r="235" spans="1:26">
       <c r="A235" t="n">
-        <v>11782</v>
+        <v>3426</v>
       </c>
       <c r="B235" t="s">
         <v>142</v>
@@ -8469,7 +8469,7 @@
         <v>55</v>
       </c>
       <c r="E235" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F235" t="n">
         <v>0</v>
@@ -8489,7 +8489,7 @@
     </row>
     <row r="236" spans="1:26">
       <c r="A236" t="n">
-        <v>11783</v>
+        <v>3427</v>
       </c>
       <c r="B236" t="s">
         <v>142</v>
@@ -8501,7 +8501,7 @@
         <v>56</v>
       </c>
       <c r="E236" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F236" t="n">
         <v>0</v>
@@ -8521,7 +8521,7 @@
     </row>
     <row r="237" spans="1:26">
       <c r="A237" t="n">
-        <v>11784</v>
+        <v>3428</v>
       </c>
       <c r="B237" t="s">
         <v>142</v>
@@ -8533,7 +8533,7 @@
         <v>70</v>
       </c>
       <c r="E237" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
     </row>
     <row r="238" spans="1:26">
       <c r="A238" t="n">
-        <v>11785</v>
+        <v>3429</v>
       </c>
       <c r="B238" t="s">
         <v>142</v>
@@ -8565,7 +8565,7 @@
         <v>71</v>
       </c>
       <c r="E238" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F238" t="n">
         <v>0</v>
@@ -8585,7 +8585,7 @@
     </row>
     <row r="239" spans="1:26">
       <c r="A239" t="n">
-        <v>11786</v>
+        <v>3430</v>
       </c>
       <c r="B239" t="s">
         <v>142</v>
@@ -8597,7 +8597,7 @@
         <v>72</v>
       </c>
       <c r="E239" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F239" t="n">
         <v>0</v>
@@ -8617,7 +8617,7 @@
     </row>
     <row r="240" spans="1:26">
       <c r="A240" t="n">
-        <v>11787</v>
+        <v>3431</v>
       </c>
       <c r="B240" t="s">
         <v>143</v>
@@ -8629,7 +8629,7 @@
         <v>55</v>
       </c>
       <c r="E240" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F240" t="n">
         <v>0</v>
@@ -8649,7 +8649,7 @@
     </row>
     <row r="241" spans="1:26">
       <c r="A241" t="n">
-        <v>11788</v>
+        <v>3432</v>
       </c>
       <c r="B241" t="s">
         <v>143</v>
@@ -8661,7 +8661,7 @@
         <v>68</v>
       </c>
       <c r="E241" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8681,7 +8681,7 @@
     </row>
     <row r="242" spans="1:26">
       <c r="A242" t="n">
-        <v>11789</v>
+        <v>3433</v>
       </c>
       <c r="B242" t="s">
         <v>144</v>
@@ -8693,7 +8693,7 @@
         <v>55</v>
       </c>
       <c r="E242" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F242" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
     </row>
     <row r="243" spans="1:26">
       <c r="A243" t="n">
-        <v>11790</v>
+        <v>3434</v>
       </c>
       <c r="B243" t="s">
         <v>144</v>
@@ -8725,7 +8725,7 @@
         <v>68</v>
       </c>
       <c r="E243" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F243" t="n">
         <v>0</v>
@@ -8745,7 +8745,7 @@
     </row>
     <row r="244" spans="1:26">
       <c r="A244" t="n">
-        <v>11791</v>
+        <v>3435</v>
       </c>
       <c r="B244" t="s">
         <v>145</v>
@@ -8757,7 +8757,7 @@
         <v>55</v>
       </c>
       <c r="E244" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F244" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
     </row>
     <row r="245" spans="1:26">
       <c r="A245" t="n">
-        <v>11792</v>
+        <v>3436</v>
       </c>
       <c r="B245" t="s">
         <v>145</v>
@@ -8789,7 +8789,7 @@
         <v>56</v>
       </c>
       <c r="E245" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F245" t="n">
         <v>0</v>
@@ -8809,7 +8809,7 @@
     </row>
     <row r="246" spans="1:26">
       <c r="A246" t="n">
-        <v>11793</v>
+        <v>3437</v>
       </c>
       <c r="B246" t="s">
         <v>145</v>
@@ -8821,7 +8821,7 @@
         <v>70</v>
       </c>
       <c r="E246" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F246" t="n">
         <v>0</v>
@@ -8841,7 +8841,7 @@
     </row>
     <row r="247" spans="1:26">
       <c r="A247" t="n">
-        <v>11794</v>
+        <v>3438</v>
       </c>
       <c r="B247" t="s">
         <v>145</v>
@@ -8853,7 +8853,7 @@
         <v>74</v>
       </c>
       <c r="E247" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F247" t="n">
         <v>0</v>
@@ -8873,7 +8873,7 @@
     </row>
     <row r="248" spans="1:26">
       <c r="A248" t="n">
-        <v>11795</v>
+        <v>3439</v>
       </c>
       <c r="B248" t="s">
         <v>146</v>
@@ -8885,7 +8885,7 @@
         <v>55</v>
       </c>
       <c r="E248" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F248" t="n">
         <v>0</v>
@@ -8905,7 +8905,7 @@
     </row>
     <row r="249" spans="1:26">
       <c r="A249" t="n">
-        <v>11796</v>
+        <v>3440</v>
       </c>
       <c r="B249" t="s">
         <v>146</v>
@@ -8917,7 +8917,7 @@
         <v>56</v>
       </c>
       <c r="E249" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F249" t="n">
         <v>0</v>
@@ -8937,7 +8937,7 @@
     </row>
     <row r="250" spans="1:26">
       <c r="A250" t="n">
-        <v>11797</v>
+        <v>3441</v>
       </c>
       <c r="B250" t="s">
         <v>146</v>
@@ -8949,7 +8949,7 @@
         <v>70</v>
       </c>
       <c r="E250" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F250" t="n">
         <v>0</v>
@@ -8969,7 +8969,7 @@
     </row>
     <row r="251" spans="1:26">
       <c r="A251" t="n">
-        <v>11798</v>
+        <v>3442</v>
       </c>
       <c r="B251" t="s">
         <v>146</v>
@@ -8981,7 +8981,7 @@
         <v>74</v>
       </c>
       <c r="E251" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F251" t="n">
         <v>0</v>
@@ -9001,7 +9001,7 @@
     </row>
     <row r="252" spans="1:26">
       <c r="A252" t="n">
-        <v>11799</v>
+        <v>3443</v>
       </c>
       <c r="B252" t="s">
         <v>147</v>
@@ -9013,7 +9013,7 @@
         <v>55</v>
       </c>
       <c r="E252" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -9033,7 +9033,7 @@
     </row>
     <row r="253" spans="1:26">
       <c r="A253" t="n">
-        <v>11800</v>
+        <v>3444</v>
       </c>
       <c r="B253" t="s">
         <v>147</v>
@@ -9045,7 +9045,7 @@
         <v>68</v>
       </c>
       <c r="E253" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F253" t="n">
         <v>0</v>
@@ -9065,7 +9065,7 @@
     </row>
     <row r="254" spans="1:26">
       <c r="A254" t="n">
-        <v>11801</v>
+        <v>3445</v>
       </c>
       <c r="B254" t="s">
         <v>148</v>
@@ -9077,7 +9077,7 @@
         <v>55</v>
       </c>
       <c r="E254" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
@@ -9097,7 +9097,7 @@
     </row>
     <row r="255" spans="1:26">
       <c r="A255" t="n">
-        <v>11802</v>
+        <v>3446</v>
       </c>
       <c r="B255" t="s">
         <v>148</v>
@@ -9109,7 +9109,7 @@
         <v>56</v>
       </c>
       <c r="E255" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F255" t="n">
         <v>0</v>
@@ -9129,7 +9129,7 @@
     </row>
     <row r="256" spans="1:26">
       <c r="A256" t="n">
-        <v>11803</v>
+        <v>3447</v>
       </c>
       <c r="B256" t="s">
         <v>148</v>
@@ -9141,7 +9141,7 @@
         <v>70</v>
       </c>
       <c r="E256" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
     </row>
     <row r="257" spans="1:26">
       <c r="A257" t="n">
-        <v>11804</v>
+        <v>3448</v>
       </c>
       <c r="B257" t="s">
         <v>148</v>
@@ -9173,7 +9173,7 @@
         <v>74</v>
       </c>
       <c r="E257" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F257" t="n">
         <v>0</v>
@@ -9193,7 +9193,7 @@
     </row>
     <row r="258" spans="1:26">
       <c r="A258" t="n">
-        <v>11805</v>
+        <v>3449</v>
       </c>
       <c r="B258" t="s">
         <v>149</v>
@@ -9205,7 +9205,7 @@
         <v>55</v>
       </c>
       <c r="E258" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9225,7 +9225,7 @@
     </row>
     <row r="259" spans="1:26">
       <c r="A259" t="n">
-        <v>11806</v>
+        <v>3450</v>
       </c>
       <c r="B259" t="s">
         <v>149</v>
@@ -9237,7 +9237,7 @@
         <v>70</v>
       </c>
       <c r="E259" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F259" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
     </row>
     <row r="260" spans="1:26">
       <c r="A260" t="n">
-        <v>11807</v>
+        <v>3451</v>
       </c>
       <c r="B260" t="s">
         <v>149</v>
@@ -9269,7 +9269,7 @@
         <v>71</v>
       </c>
       <c r="E260" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F260" t="n">
         <v>0</v>
@@ -9289,7 +9289,7 @@
     </row>
     <row r="261" spans="1:26">
       <c r="A261" t="n">
-        <v>11808</v>
+        <v>3452</v>
       </c>
       <c r="B261" t="s">
         <v>149</v>
@@ -9301,7 +9301,7 @@
         <v>57</v>
       </c>
       <c r="E261" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F261" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
     </row>
     <row r="262" spans="1:26">
       <c r="A262" t="n">
-        <v>11809</v>
+        <v>3453</v>
       </c>
       <c r="B262" t="s">
         <v>149</v>
@@ -9333,7 +9333,7 @@
         <v>62</v>
       </c>
       <c r="E262" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F262" t="n">
         <v>0</v>
@@ -9353,7 +9353,7 @@
     </row>
     <row r="263" spans="1:26">
       <c r="A263" t="n">
-        <v>11810</v>
+        <v>3454</v>
       </c>
       <c r="B263" t="s">
         <v>150</v>
@@ -9365,7 +9365,7 @@
         <v>55</v>
       </c>
       <c r="E263" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F263" t="n">
         <v>0</v>
@@ -9385,7 +9385,7 @@
     </row>
     <row r="264" spans="1:26">
       <c r="A264" t="n">
-        <v>11811</v>
+        <v>3455</v>
       </c>
       <c r="B264" t="s">
         <v>150</v>
@@ -9397,7 +9397,7 @@
         <v>56</v>
       </c>
       <c r="E264" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F264" t="n">
         <v>0</v>
@@ -9417,7 +9417,7 @@
     </row>
     <row r="265" spans="1:26">
       <c r="A265" t="n">
-        <v>11812</v>
+        <v>3456</v>
       </c>
       <c r="B265" t="s">
         <v>150</v>
@@ -9429,7 +9429,7 @@
         <v>70</v>
       </c>
       <c r="E265" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F265" t="n">
         <v>0</v>
@@ -9449,7 +9449,7 @@
     </row>
     <row r="266" spans="1:26">
       <c r="A266" t="n">
-        <v>11813</v>
+        <v>3457</v>
       </c>
       <c r="B266" t="s">
         <v>150</v>
@@ -9461,7 +9461,7 @@
         <v>74</v>
       </c>
       <c r="E266" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F266" t="n">
         <v>0</v>
@@ -9481,7 +9481,7 @@
     </row>
     <row r="267" spans="1:26">
       <c r="A267" t="n">
-        <v>11814</v>
+        <v>3458</v>
       </c>
       <c r="B267" t="s">
         <v>151</v>
@@ -9493,7 +9493,7 @@
         <v>55</v>
       </c>
       <c r="E267" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F267" t="n">
         <v>0</v>
@@ -9513,7 +9513,7 @@
     </row>
     <row r="268" spans="1:26">
       <c r="A268" t="n">
-        <v>11815</v>
+        <v>3459</v>
       </c>
       <c r="B268" t="s">
         <v>151</v>
@@ -9525,7 +9525,7 @@
         <v>56</v>
       </c>
       <c r="E268" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F268" t="n">
         <v>0</v>
@@ -9545,7 +9545,7 @@
     </row>
     <row r="269" spans="1:26">
       <c r="A269" t="n">
-        <v>11816</v>
+        <v>3460</v>
       </c>
       <c r="B269" t="s">
         <v>151</v>
@@ -9557,7 +9557,7 @@
         <v>70</v>
       </c>
       <c r="E269" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F269" t="n">
         <v>0</v>
@@ -9577,7 +9577,7 @@
     </row>
     <row r="270" spans="1:26">
       <c r="A270" t="n">
-        <v>11817</v>
+        <v>3461</v>
       </c>
       <c r="B270" t="s">
         <v>151</v>
@@ -9589,7 +9589,7 @@
         <v>74</v>
       </c>
       <c r="E270" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F270" t="n">
         <v>0</v>
@@ -9609,7 +9609,7 @@
     </row>
     <row r="271" spans="1:26">
       <c r="A271" t="n">
-        <v>11818</v>
+        <v>3462</v>
       </c>
       <c r="B271" t="s">
         <v>152</v>
@@ -9621,7 +9621,7 @@
         <v>55</v>
       </c>
       <c r="E271" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F271" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
     </row>
     <row r="272" spans="1:26">
       <c r="A272" t="n">
-        <v>11819</v>
+        <v>3463</v>
       </c>
       <c r="B272" t="s">
         <v>152</v>
@@ -9653,7 +9653,7 @@
         <v>56</v>
       </c>
       <c r="E272" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F272" t="n">
         <v>0</v>
@@ -9673,7 +9673,7 @@
     </row>
     <row r="273" spans="1:26">
       <c r="A273" t="n">
-        <v>11820</v>
+        <v>3464</v>
       </c>
       <c r="B273" t="s">
         <v>152</v>
@@ -9685,7 +9685,7 @@
         <v>70</v>
       </c>
       <c r="E273" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F273" t="n">
         <v>0</v>
@@ -9705,7 +9705,7 @@
     </row>
     <row r="274" spans="1:26">
       <c r="A274" t="n">
-        <v>11821</v>
+        <v>3465</v>
       </c>
       <c r="B274" t="s">
         <v>152</v>
@@ -9717,7 +9717,7 @@
         <v>74</v>
       </c>
       <c r="E274" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F274" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
     </row>
     <row r="275" spans="1:26">
       <c r="A275" t="n">
-        <v>11822</v>
+        <v>3466</v>
       </c>
       <c r="B275" t="s">
         <v>153</v>
@@ -9749,7 +9749,7 @@
         <v>55</v>
       </c>
       <c r="E275" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F275" t="n">
         <v>0</v>
@@ -9769,7 +9769,7 @@
     </row>
     <row r="276" spans="1:26">
       <c r="A276" t="n">
-        <v>11823</v>
+        <v>3467</v>
       </c>
       <c r="B276" t="s">
         <v>153</v>
@@ -9781,7 +9781,7 @@
         <v>56</v>
       </c>
       <c r="E276" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F276" t="n">
         <v>0</v>
@@ -9801,7 +9801,7 @@
     </row>
     <row r="277" spans="1:26">
       <c r="A277" t="n">
-        <v>11824</v>
+        <v>3468</v>
       </c>
       <c r="B277" t="s">
         <v>153</v>
@@ -9813,7 +9813,7 @@
         <v>70</v>
       </c>
       <c r="E277" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F277" t="n">
         <v>0</v>
@@ -9833,7 +9833,7 @@
     </row>
     <row r="278" spans="1:26">
       <c r="A278" t="n">
-        <v>11825</v>
+        <v>3469</v>
       </c>
       <c r="B278" t="s">
         <v>153</v>
@@ -9845,7 +9845,7 @@
         <v>74</v>
       </c>
       <c r="E278" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F278" t="n">
         <v>0</v>
@@ -9865,7 +9865,7 @@
     </row>
     <row r="279" spans="1:26">
       <c r="A279" t="n">
-        <v>11826</v>
+        <v>3470</v>
       </c>
       <c r="B279" t="s">
         <v>154</v>
@@ -9877,7 +9877,7 @@
         <v>55</v>
       </c>
       <c r="E279" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F279" t="n">
         <v>0</v>
@@ -9897,7 +9897,7 @@
     </row>
     <row r="280" spans="1:26">
       <c r="A280" t="n">
-        <v>11827</v>
+        <v>3471</v>
       </c>
       <c r="B280" t="s">
         <v>154</v>
@@ -9909,7 +9909,7 @@
         <v>70</v>
       </c>
       <c r="E280" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F280" t="n">
         <v>0</v>
@@ -9929,7 +9929,7 @@
     </row>
     <row r="281" spans="1:26">
       <c r="A281" t="n">
-        <v>11828</v>
+        <v>3472</v>
       </c>
       <c r="B281" t="s">
         <v>154</v>
@@ -9941,7 +9941,7 @@
         <v>74</v>
       </c>
       <c r="E281" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F281" t="n">
         <v>0</v>
@@ -9961,7 +9961,7 @@
     </row>
     <row r="282" spans="1:26">
       <c r="A282" t="n">
-        <v>11829</v>
+        <v>3473</v>
       </c>
       <c r="B282" t="s">
         <v>155</v>
@@ -9973,7 +9973,7 @@
         <v>55</v>
       </c>
       <c r="E282" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F282" t="n">
         <v>0</v>
@@ -9993,7 +9993,7 @@
     </row>
     <row r="283" spans="1:26">
       <c r="A283" t="n">
-        <v>11830</v>
+        <v>3474</v>
       </c>
       <c r="B283" t="s">
         <v>155</v>
@@ -10005,7 +10005,7 @@
         <v>56</v>
       </c>
       <c r="E283" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F283" t="n">
         <v>0</v>
@@ -10025,7 +10025,7 @@
     </row>
     <row r="284" spans="1:26">
       <c r="A284" t="n">
-        <v>11831</v>
+        <v>3475</v>
       </c>
       <c r="B284" t="s">
         <v>155</v>
@@ -10037,7 +10037,7 @@
         <v>70</v>
       </c>
       <c r="E284" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F284" t="n">
         <v>0</v>
@@ -10057,7 +10057,7 @@
     </row>
     <row r="285" spans="1:26">
       <c r="A285" t="n">
-        <v>11832</v>
+        <v>3476</v>
       </c>
       <c r="B285" t="s">
         <v>155</v>
@@ -10069,7 +10069,7 @@
         <v>71</v>
       </c>
       <c r="E285" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F285" t="n">
         <v>0</v>
@@ -10089,7 +10089,7 @@
     </row>
     <row r="286" spans="1:26">
       <c r="A286" t="n">
-        <v>11833</v>
+        <v>3477</v>
       </c>
       <c r="B286" t="s">
         <v>155</v>
@@ -10101,7 +10101,7 @@
         <v>72</v>
       </c>
       <c r="E286" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F286" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
     </row>
     <row r="287" spans="1:26">
       <c r="A287" t="n">
-        <v>11834</v>
+        <v>3478</v>
       </c>
       <c r="B287" t="s">
         <v>156</v>
@@ -10133,7 +10133,7 @@
         <v>55</v>
       </c>
       <c r="E287" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F287" t="n">
         <v>0</v>
@@ -10153,7 +10153,7 @@
     </row>
     <row r="288" spans="1:26">
       <c r="A288" t="n">
-        <v>11835</v>
+        <v>3479</v>
       </c>
       <c r="B288" t="s">
         <v>156</v>
@@ -10165,7 +10165,7 @@
         <v>56</v>
       </c>
       <c r="E288" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F288" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
     </row>
     <row r="289" spans="1:26">
       <c r="A289" t="n">
-        <v>11836</v>
+        <v>3480</v>
       </c>
       <c r="B289" t="s">
         <v>156</v>
@@ -10197,7 +10197,7 @@
         <v>70</v>
       </c>
       <c r="E289" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F289" t="n">
         <v>0</v>
@@ -10217,7 +10217,7 @@
     </row>
     <row r="290" spans="1:26">
       <c r="A290" t="n">
-        <v>11837</v>
+        <v>3481</v>
       </c>
       <c r="B290" t="s">
         <v>156</v>
@@ -10229,7 +10229,7 @@
         <v>74</v>
       </c>
       <c r="E290" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F290" t="n">
         <v>0</v>
@@ -10249,7 +10249,7 @@
     </row>
     <row r="291" spans="1:26">
       <c r="A291" t="n">
-        <v>11838</v>
+        <v>3482</v>
       </c>
       <c r="B291" t="s">
         <v>157</v>
@@ -10261,7 +10261,7 @@
         <v>55</v>
       </c>
       <c r="E291" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F291" t="n">
         <v>0</v>
@@ -10281,7 +10281,7 @@
     </row>
     <row r="292" spans="1:26">
       <c r="A292" t="n">
-        <v>11839</v>
+        <v>3483</v>
       </c>
       <c r="B292" t="s">
         <v>157</v>
@@ -10293,7 +10293,7 @@
         <v>70</v>
       </c>
       <c r="E292" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F292" t="n">
         <v>0</v>
@@ -10313,7 +10313,7 @@
     </row>
     <row r="293" spans="1:26">
       <c r="A293" t="n">
-        <v>11840</v>
+        <v>3484</v>
       </c>
       <c r="B293" t="s">
         <v>157</v>
@@ -10325,7 +10325,7 @@
         <v>74</v>
       </c>
       <c r="E293" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F293" t="n">
         <v>0</v>
@@ -10345,7 +10345,7 @@
     </row>
     <row r="294" spans="1:26">
       <c r="A294" t="n">
-        <v>11841</v>
+        <v>3485</v>
       </c>
       <c r="B294" t="s">
         <v>158</v>
@@ -10357,7 +10357,7 @@
         <v>55</v>
       </c>
       <c r="E294" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F294" t="n">
         <v>0</v>
@@ -10377,7 +10377,7 @@
     </row>
     <row r="295" spans="1:26">
       <c r="A295" t="n">
-        <v>11842</v>
+        <v>3486</v>
       </c>
       <c r="B295" t="s">
         <v>158</v>
@@ -10389,7 +10389,7 @@
         <v>68</v>
       </c>
       <c r="E295" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F295" t="n">
         <v>0</v>
@@ -10409,7 +10409,7 @@
     </row>
     <row r="296" spans="1:26">
       <c r="A296" t="n">
-        <v>11843</v>
+        <v>3487</v>
       </c>
       <c r="B296" t="s">
         <v>159</v>
@@ -10421,7 +10421,7 @@
         <v>55</v>
       </c>
       <c r="E296" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F296" t="n">
         <v>0</v>
@@ -10441,7 +10441,7 @@
     </row>
     <row r="297" spans="1:26">
       <c r="A297" t="n">
-        <v>11844</v>
+        <v>3488</v>
       </c>
       <c r="B297" t="s">
         <v>159</v>
@@ -10453,7 +10453,7 @@
         <v>56</v>
       </c>
       <c r="E297" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F297" t="n">
         <v>0</v>
@@ -10473,7 +10473,7 @@
     </row>
     <row r="298" spans="1:26">
       <c r="A298" t="n">
-        <v>11845</v>
+        <v>3489</v>
       </c>
       <c r="B298" t="s">
         <v>159</v>
@@ -10485,7 +10485,7 @@
         <v>70</v>
       </c>
       <c r="E298" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F298" t="n">
         <v>0</v>
@@ -10505,7 +10505,7 @@
     </row>
     <row r="299" spans="1:26">
       <c r="A299" t="n">
-        <v>11846</v>
+        <v>3490</v>
       </c>
       <c r="B299" t="s">
         <v>159</v>
@@ -10517,7 +10517,7 @@
         <v>74</v>
       </c>
       <c r="E299" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F299" t="n">
         <v>0</v>
@@ -10537,7 +10537,7 @@
     </row>
     <row r="300" spans="1:26">
       <c r="A300" t="n">
-        <v>11847</v>
+        <v>3491</v>
       </c>
       <c r="B300" t="s">
         <v>160</v>
@@ -10549,7 +10549,7 @@
         <v>55</v>
       </c>
       <c r="E300" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F300" t="n">
         <v>0</v>
@@ -10569,7 +10569,7 @@
     </row>
     <row r="301" spans="1:26">
       <c r="A301" t="n">
-        <v>11848</v>
+        <v>3492</v>
       </c>
       <c r="B301" t="s">
         <v>160</v>
@@ -10581,7 +10581,7 @@
         <v>56</v>
       </c>
       <c r="E301" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F301" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
     </row>
     <row r="302" spans="1:26">
       <c r="A302" t="n">
-        <v>11849</v>
+        <v>3493</v>
       </c>
       <c r="B302" t="s">
         <v>160</v>
@@ -10613,7 +10613,7 @@
         <v>70</v>
       </c>
       <c r="E302" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F302" t="n">
         <v>0</v>
@@ -10633,7 +10633,7 @@
     </row>
     <row r="303" spans="1:26">
       <c r="A303" t="n">
-        <v>11850</v>
+        <v>3494</v>
       </c>
       <c r="B303" t="s">
         <v>160</v>
@@ -10645,7 +10645,7 @@
         <v>74</v>
       </c>
       <c r="E303" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F303" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
     </row>
     <row r="304" spans="1:26">
       <c r="A304" t="n">
-        <v>11851</v>
+        <v>3495</v>
       </c>
       <c r="B304" t="s">
         <v>161</v>
@@ -10677,7 +10677,7 @@
         <v>55</v>
       </c>
       <c r="E304" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F304" t="n">
         <v>0</v>
@@ -10697,7 +10697,7 @@
     </row>
     <row r="305" spans="1:26">
       <c r="A305" t="n">
-        <v>11852</v>
+        <v>3496</v>
       </c>
       <c r="B305" t="s">
         <v>161</v>
@@ -10709,7 +10709,7 @@
         <v>56</v>
       </c>
       <c r="E305" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F305" t="n">
         <v>0</v>
@@ -10729,7 +10729,7 @@
     </row>
     <row r="306" spans="1:26">
       <c r="A306" t="n">
-        <v>11853</v>
+        <v>3497</v>
       </c>
       <c r="B306" t="s">
         <v>161</v>
@@ -10741,7 +10741,7 @@
         <v>70</v>
       </c>
       <c r="E306" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F306" t="n">
         <v>0</v>
@@ -10761,7 +10761,7 @@
     </row>
     <row r="307" spans="1:26">
       <c r="A307" t="n">
-        <v>11854</v>
+        <v>3498</v>
       </c>
       <c r="B307" t="s">
         <v>161</v>
@@ -10773,7 +10773,7 @@
         <v>71</v>
       </c>
       <c r="E307" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F307" t="n">
         <v>0</v>
@@ -10793,7 +10793,7 @@
     </row>
     <row r="308" spans="1:26">
       <c r="A308" t="n">
-        <v>11855</v>
+        <v>3499</v>
       </c>
       <c r="B308" t="s">
         <v>161</v>
@@ -10805,7 +10805,7 @@
         <v>72</v>
       </c>
       <c r="E308" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F308" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
     </row>
     <row r="309" spans="1:26">
       <c r="A309" t="n">
-        <v>11856</v>
+        <v>3500</v>
       </c>
       <c r="B309" t="s">
         <v>162</v>
@@ -10837,7 +10837,7 @@
         <v>55</v>
       </c>
       <c r="E309" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F309" t="n">
         <v>0</v>
@@ -10857,7 +10857,7 @@
     </row>
     <row r="310" spans="1:26">
       <c r="A310" t="n">
-        <v>11857</v>
+        <v>3501</v>
       </c>
       <c r="B310" t="s">
         <v>162</v>
@@ -10869,7 +10869,7 @@
         <v>68</v>
       </c>
       <c r="E310" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F310" t="n">
         <v>0</v>
@@ -10889,7 +10889,7 @@
     </row>
     <row r="311" spans="1:26">
       <c r="A311" t="n">
-        <v>11858</v>
+        <v>3502</v>
       </c>
       <c r="B311" t="s">
         <v>163</v>
@@ -10901,7 +10901,7 @@
         <v>55</v>
       </c>
       <c r="E311" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F311" t="n">
         <v>0</v>
@@ -10921,7 +10921,7 @@
     </row>
     <row r="312" spans="1:26">
       <c r="A312" t="n">
-        <v>11859</v>
+        <v>3503</v>
       </c>
       <c r="B312" t="s">
         <v>163</v>
@@ -10933,7 +10933,7 @@
         <v>56</v>
       </c>
       <c r="E312" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F312" t="n">
         <v>0</v>
@@ -10953,7 +10953,7 @@
     </row>
     <row r="313" spans="1:26">
       <c r="A313" t="n">
-        <v>11860</v>
+        <v>3504</v>
       </c>
       <c r="B313" t="s">
         <v>163</v>
@@ -10965,7 +10965,7 @@
         <v>70</v>
       </c>
       <c r="E313" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F313" t="n">
         <v>0</v>
@@ -10985,7 +10985,7 @@
     </row>
     <row r="314" spans="1:26">
       <c r="A314" t="n">
-        <v>11861</v>
+        <v>3505</v>
       </c>
       <c r="B314" t="s">
         <v>163</v>
@@ -10997,7 +10997,7 @@
         <v>74</v>
       </c>
       <c r="E314" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F314" t="n">
         <v>0</v>
@@ -11017,7 +11017,7 @@
     </row>
     <row r="315" spans="1:26">
       <c r="A315" t="n">
-        <v>11862</v>
+        <v>3506</v>
       </c>
       <c r="B315" t="s">
         <v>164</v>
@@ -11029,7 +11029,7 @@
         <v>55</v>
       </c>
       <c r="E315" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F315" t="n">
         <v>0</v>
@@ -11049,7 +11049,7 @@
     </row>
     <row r="316" spans="1:26">
       <c r="A316" t="n">
-        <v>11863</v>
+        <v>3507</v>
       </c>
       <c r="B316" t="s">
         <v>164</v>
@@ -11061,7 +11061,7 @@
         <v>56</v>
       </c>
       <c r="E316" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F316" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
     </row>
     <row r="317" spans="1:26">
       <c r="A317" t="n">
-        <v>11864</v>
+        <v>3508</v>
       </c>
       <c r="B317" t="s">
         <v>164</v>
@@ -11093,7 +11093,7 @@
         <v>70</v>
       </c>
       <c r="E317" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F317" t="n">
         <v>0</v>
@@ -11113,7 +11113,7 @@
     </row>
     <row r="318" spans="1:26">
       <c r="A318" t="n">
-        <v>11865</v>
+        <v>3509</v>
       </c>
       <c r="B318" t="s">
         <v>164</v>
@@ -11125,7 +11125,7 @@
         <v>74</v>
       </c>
       <c r="E318" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F318" t="n">
         <v>0</v>
@@ -11145,7 +11145,7 @@
     </row>
     <row r="319" spans="1:26">
       <c r="A319" t="n">
-        <v>11866</v>
+        <v>3510</v>
       </c>
       <c r="B319" t="s">
         <v>165</v>
@@ -11157,7 +11157,7 @@
         <v>55</v>
       </c>
       <c r="E319" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F319" t="n">
         <v>0</v>
@@ -11177,7 +11177,7 @@
     </row>
     <row r="320" spans="1:26">
       <c r="A320" t="n">
-        <v>11867</v>
+        <v>3511</v>
       </c>
       <c r="B320" t="s">
         <v>165</v>
@@ -11189,7 +11189,7 @@
         <v>70</v>
       </c>
       <c r="E320" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F320" t="n">
         <v>0</v>
@@ -11209,7 +11209,7 @@
     </row>
     <row r="321" spans="1:26">
       <c r="A321" t="n">
-        <v>11868</v>
+        <v>3512</v>
       </c>
       <c r="B321" t="s">
         <v>165</v>
@@ -11221,7 +11221,7 @@
         <v>74</v>
       </c>
       <c r="E321" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F321" t="n">
         <v>0</v>
@@ -11241,7 +11241,7 @@
     </row>
     <row r="322" spans="1:26">
       <c r="A322" t="n">
-        <v>11869</v>
+        <v>3513</v>
       </c>
       <c r="B322" t="s">
         <v>166</v>
@@ -11253,7 +11253,7 @@
         <v>55</v>
       </c>
       <c r="E322" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F322" t="n">
         <v>0</v>
@@ -11273,7 +11273,7 @@
     </row>
     <row r="323" spans="1:26">
       <c r="A323" t="n">
-        <v>11870</v>
+        <v>3514</v>
       </c>
       <c r="B323" t="s">
         <v>166</v>
@@ -11285,7 +11285,7 @@
         <v>56</v>
       </c>
       <c r="E323" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F323" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
     </row>
     <row r="324" spans="1:26">
       <c r="A324" t="n">
-        <v>11871</v>
+        <v>3515</v>
       </c>
       <c r="B324" t="s">
         <v>166</v>
@@ -11317,7 +11317,7 @@
         <v>70</v>
       </c>
       <c r="E324" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F324" t="n">
         <v>0</v>
@@ -11337,7 +11337,7 @@
     </row>
     <row r="325" spans="1:26">
       <c r="A325" t="n">
-        <v>11872</v>
+        <v>3516</v>
       </c>
       <c r="B325" t="s">
         <v>166</v>
@@ -11349,7 +11349,7 @@
         <v>74</v>
       </c>
       <c r="E325" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F325" t="n">
         <v>0</v>
@@ -11369,7 +11369,7 @@
     </row>
     <row r="326" spans="1:26">
       <c r="A326" t="n">
-        <v>11873</v>
+        <v>3517</v>
       </c>
       <c r="B326" t="s">
         <v>167</v>
@@ -11381,7 +11381,7 @@
         <v>55</v>
       </c>
       <c r="E326" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F326" t="n">
         <v>0</v>
@@ -11401,7 +11401,7 @@
     </row>
     <row r="327" spans="1:26">
       <c r="A327" t="n">
-        <v>11874</v>
+        <v>3518</v>
       </c>
       <c r="B327" t="s">
         <v>167</v>
@@ -11413,7 +11413,7 @@
         <v>56</v>
       </c>
       <c r="E327" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F327" t="n">
         <v>0</v>
@@ -11433,7 +11433,7 @@
     </row>
     <row r="328" spans="1:26">
       <c r="A328" t="n">
-        <v>11875</v>
+        <v>3519</v>
       </c>
       <c r="B328" t="s">
         <v>167</v>
@@ -11445,7 +11445,7 @@
         <v>70</v>
       </c>
       <c r="E328" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F328" t="n">
         <v>0</v>
@@ -11465,7 +11465,7 @@
     </row>
     <row r="329" spans="1:26">
       <c r="A329" t="n">
-        <v>11876</v>
+        <v>3520</v>
       </c>
       <c r="B329" t="s">
         <v>167</v>
@@ -11477,7 +11477,7 @@
         <v>71</v>
       </c>
       <c r="E329" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F329" t="n">
         <v>0</v>
@@ -11497,7 +11497,7 @@
     </row>
     <row r="330" spans="1:26">
       <c r="A330" t="n">
-        <v>11877</v>
+        <v>3521</v>
       </c>
       <c r="B330" t="s">
         <v>167</v>
@@ -11509,7 +11509,7 @@
         <v>72</v>
       </c>
       <c r="E330" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F330" t="n">
         <v>0</v>
@@ -11529,7 +11529,7 @@
     </row>
     <row r="331" spans="1:26">
       <c r="A331" t="n">
-        <v>11878</v>
+        <v>3522</v>
       </c>
       <c r="B331" t="s">
         <v>168</v>
@@ -11541,7 +11541,7 @@
         <v>55</v>
       </c>
       <c r="E331" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F331" t="n">
         <v>0</v>
@@ -11561,7 +11561,7 @@
     </row>
     <row r="332" spans="1:26">
       <c r="A332" t="n">
-        <v>11879</v>
+        <v>3523</v>
       </c>
       <c r="B332" t="s">
         <v>168</v>
@@ -11573,7 +11573,7 @@
         <v>70</v>
       </c>
       <c r="E332" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F332" t="n">
         <v>0</v>
@@ -11593,7 +11593,7 @@
     </row>
     <row r="333" spans="1:26">
       <c r="A333" t="n">
-        <v>11880</v>
+        <v>3524</v>
       </c>
       <c r="B333" t="s">
         <v>168</v>
@@ -11605,7 +11605,7 @@
         <v>74</v>
       </c>
       <c r="E333" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F333" t="n">
         <v>0</v>
@@ -11625,7 +11625,7 @@
     </row>
     <row r="334" spans="1:26">
       <c r="A334" t="n">
-        <v>11881</v>
+        <v>3525</v>
       </c>
       <c r="B334" t="s">
         <v>169</v>
@@ -11637,7 +11637,7 @@
         <v>55</v>
       </c>
       <c r="E334" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F334" t="n">
         <v>0</v>
@@ -11657,7 +11657,7 @@
     </row>
     <row r="335" spans="1:26">
       <c r="A335" t="n">
-        <v>11882</v>
+        <v>3526</v>
       </c>
       <c r="B335" t="s">
         <v>169</v>
@@ -11669,7 +11669,7 @@
         <v>70</v>
       </c>
       <c r="E335" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F335" t="n">
         <v>0</v>
@@ -11689,7 +11689,7 @@
     </row>
     <row r="336" spans="1:26">
       <c r="A336" t="n">
-        <v>11883</v>
+        <v>3527</v>
       </c>
       <c r="B336" t="s">
         <v>169</v>
@@ -11701,7 +11701,7 @@
         <v>74</v>
       </c>
       <c r="E336" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F336" t="n">
         <v>0</v>
@@ -11721,7 +11721,7 @@
     </row>
     <row r="337" spans="1:26">
       <c r="A337" t="n">
-        <v>11884</v>
+        <v>3528</v>
       </c>
       <c r="B337" t="s">
         <v>170</v>
@@ -11733,7 +11733,7 @@
         <v>55</v>
       </c>
       <c r="E337" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F337" t="n">
         <v>0</v>
@@ -11753,7 +11753,7 @@
     </row>
     <row r="338" spans="1:26">
       <c r="A338" t="n">
-        <v>11885</v>
+        <v>3529</v>
       </c>
       <c r="B338" t="s">
         <v>170</v>
@@ -11765,7 +11765,7 @@
         <v>56</v>
       </c>
       <c r="E338" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F338" t="n">
         <v>0</v>
@@ -11785,7 +11785,7 @@
     </row>
     <row r="339" spans="1:26">
       <c r="A339" t="n">
-        <v>11886</v>
+        <v>3530</v>
       </c>
       <c r="B339" t="s">
         <v>170</v>
@@ -11797,7 +11797,7 @@
         <v>70</v>
       </c>
       <c r="E339" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F339" t="n">
         <v>0</v>
@@ -11817,7 +11817,7 @@
     </row>
     <row r="340" spans="1:26">
       <c r="A340" t="n">
-        <v>11887</v>
+        <v>3531</v>
       </c>
       <c r="B340" t="s">
         <v>170</v>
@@ -11829,7 +11829,7 @@
         <v>71</v>
       </c>
       <c r="E340" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F340" t="n">
         <v>0</v>
@@ -11849,7 +11849,7 @@
     </row>
     <row r="341" spans="1:26">
       <c r="A341" t="n">
-        <v>11888</v>
+        <v>3532</v>
       </c>
       <c r="B341" t="s">
         <v>170</v>
@@ -11861,7 +11861,7 @@
         <v>72</v>
       </c>
       <c r="E341" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F341" t="n">
         <v>0</v>
@@ -11881,7 +11881,7 @@
     </row>
     <row r="342" spans="1:26">
       <c r="A342" t="n">
-        <v>11889</v>
+        <v>3533</v>
       </c>
       <c r="B342" t="s">
         <v>171</v>
@@ -11893,7 +11893,7 @@
         <v>55</v>
       </c>
       <c r="E342" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F342" t="n">
         <v>0</v>
@@ -11913,7 +11913,7 @@
     </row>
     <row r="343" spans="1:26">
       <c r="A343" t="n">
-        <v>11890</v>
+        <v>3534</v>
       </c>
       <c r="B343" t="s">
         <v>171</v>
@@ -11925,7 +11925,7 @@
         <v>68</v>
       </c>
       <c r="E343" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F343" t="n">
         <v>0</v>
@@ -11945,7 +11945,7 @@
     </row>
     <row r="344" spans="1:26">
       <c r="A344" t="n">
-        <v>11891</v>
+        <v>3535</v>
       </c>
       <c r="B344" t="s">
         <v>172</v>
@@ -11957,7 +11957,7 @@
         <v>55</v>
       </c>
       <c r="E344" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F344" t="n">
         <v>0</v>
@@ -11977,7 +11977,7 @@
     </row>
     <row r="345" spans="1:26">
       <c r="A345" t="n">
-        <v>11892</v>
+        <v>3536</v>
       </c>
       <c r="B345" t="s">
         <v>172</v>
@@ -11989,7 +11989,7 @@
         <v>56</v>
       </c>
       <c r="E345" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F345" t="n">
         <v>0</v>
@@ -12009,7 +12009,7 @@
     </row>
     <row r="346" spans="1:26">
       <c r="A346" t="n">
-        <v>11893</v>
+        <v>3537</v>
       </c>
       <c r="B346" t="s">
         <v>172</v>
@@ -12021,7 +12021,7 @@
         <v>70</v>
       </c>
       <c r="E346" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F346" t="n">
         <v>0</v>
@@ -12041,7 +12041,7 @@
     </row>
     <row r="347" spans="1:26">
       <c r="A347" t="n">
-        <v>11894</v>
+        <v>3538</v>
       </c>
       <c r="B347" t="s">
         <v>172</v>
@@ -12053,7 +12053,7 @@
         <v>74</v>
       </c>
       <c r="E347" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F347" t="n">
         <v>0</v>
@@ -12073,7 +12073,7 @@
     </row>
     <row r="348" spans="1:26">
       <c r="A348" t="n">
-        <v>11895</v>
+        <v>3539</v>
       </c>
       <c r="B348" t="s">
         <v>173</v>
@@ -12085,7 +12085,7 @@
         <v>55</v>
       </c>
       <c r="E348" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F348" t="n">
         <v>0</v>
@@ -12105,7 +12105,7 @@
     </row>
     <row r="349" spans="1:26">
       <c r="A349" t="n">
-        <v>11896</v>
+        <v>3540</v>
       </c>
       <c r="B349" t="s">
         <v>173</v>
@@ -12117,7 +12117,7 @@
         <v>56</v>
       </c>
       <c r="E349" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F349" t="n">
         <v>0</v>
@@ -12137,7 +12137,7 @@
     </row>
     <row r="350" spans="1:26">
       <c r="A350" t="n">
-        <v>11897</v>
+        <v>3541</v>
       </c>
       <c r="B350" t="s">
         <v>173</v>
@@ -12149,7 +12149,7 @@
         <v>70</v>
       </c>
       <c r="E350" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F350" t="n">
         <v>0</v>
@@ -12169,7 +12169,7 @@
     </row>
     <row r="351" spans="1:26">
       <c r="A351" t="n">
-        <v>11898</v>
+        <v>3542</v>
       </c>
       <c r="B351" t="s">
         <v>173</v>
@@ -12181,7 +12181,7 @@
         <v>71</v>
       </c>
       <c r="E351" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F351" t="n">
         <v>0</v>
@@ -12201,7 +12201,7 @@
     </row>
     <row r="352" spans="1:26">
       <c r="A352" t="n">
-        <v>11899</v>
+        <v>3543</v>
       </c>
       <c r="B352" t="s">
         <v>173</v>
@@ -12213,7 +12213,7 @@
         <v>72</v>
       </c>
       <c r="E352" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F352" t="n">
         <v>0</v>
@@ -12233,7 +12233,7 @@
     </row>
     <row r="353" spans="1:26">
       <c r="A353" t="n">
-        <v>11900</v>
+        <v>3544</v>
       </c>
       <c r="B353" t="s">
         <v>174</v>
@@ -12245,7 +12245,7 @@
         <v>55</v>
       </c>
       <c r="E353" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F353" t="n">
         <v>0</v>
@@ -12265,7 +12265,7 @@
     </row>
     <row r="354" spans="1:26">
       <c r="A354" t="n">
-        <v>11901</v>
+        <v>3545</v>
       </c>
       <c r="B354" t="s">
         <v>174</v>
@@ -12277,7 +12277,7 @@
         <v>70</v>
       </c>
       <c r="E354" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F354" t="n">
         <v>0</v>
@@ -12297,7 +12297,7 @@
     </row>
     <row r="355" spans="1:26">
       <c r="A355" t="n">
-        <v>11902</v>
+        <v>3546</v>
       </c>
       <c r="B355" t="s">
         <v>174</v>
@@ -12309,7 +12309,7 @@
         <v>74</v>
       </c>
       <c r="E355" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F355" t="n">
         <v>0</v>
@@ -12329,7 +12329,7 @@
     </row>
     <row r="356" spans="1:26">
       <c r="A356" t="n">
-        <v>11903</v>
+        <v>3547</v>
       </c>
       <c r="B356" t="s">
         <v>175</v>
@@ -12341,7 +12341,7 @@
         <v>55</v>
       </c>
       <c r="E356" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F356" t="n">
         <v>0</v>
@@ -12361,7 +12361,7 @@
     </row>
     <row r="357" spans="1:26">
       <c r="A357" t="n">
-        <v>11904</v>
+        <v>3548</v>
       </c>
       <c r="B357" t="s">
         <v>175</v>
@@ -12373,7 +12373,7 @@
         <v>56</v>
       </c>
       <c r="E357" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F357" t="n">
         <v>0</v>
@@ -12393,7 +12393,7 @@
     </row>
     <row r="358" spans="1:26">
       <c r="A358" t="n">
-        <v>11905</v>
+        <v>3549</v>
       </c>
       <c r="B358" t="s">
         <v>175</v>
@@ -12405,7 +12405,7 @@
         <v>70</v>
       </c>
       <c r="E358" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F358" t="n">
         <v>0</v>
@@ -12425,7 +12425,7 @@
     </row>
     <row r="359" spans="1:26">
       <c r="A359" t="n">
-        <v>11906</v>
+        <v>3550</v>
       </c>
       <c r="B359" t="s">
         <v>175</v>
@@ -12437,7 +12437,7 @@
         <v>74</v>
       </c>
       <c r="E359" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F359" t="n">
         <v>0</v>
@@ -12457,7 +12457,7 @@
     </row>
     <row r="360" spans="1:26">
       <c r="A360" t="n">
-        <v>11907</v>
+        <v>3551</v>
       </c>
       <c r="B360" t="s">
         <v>176</v>
@@ -12469,7 +12469,7 @@
         <v>55</v>
       </c>
       <c r="E360" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F360" t="n">
         <v>0</v>
@@ -12489,7 +12489,7 @@
     </row>
     <row r="361" spans="1:26">
       <c r="A361" t="n">
-        <v>11908</v>
+        <v>3552</v>
       </c>
       <c r="B361" t="s">
         <v>176</v>
@@ -12501,7 +12501,7 @@
         <v>56</v>
       </c>
       <c r="E361" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F361" t="n">
         <v>0</v>
@@ -12521,7 +12521,7 @@
     </row>
     <row r="362" spans="1:26">
       <c r="A362" t="n">
-        <v>11909</v>
+        <v>3553</v>
       </c>
       <c r="B362" t="s">
         <v>176</v>
@@ -12533,7 +12533,7 @@
         <v>70</v>
       </c>
       <c r="E362" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F362" t="n">
         <v>0</v>
@@ -12553,7 +12553,7 @@
     </row>
     <row r="363" spans="1:26">
       <c r="A363" t="n">
-        <v>11910</v>
+        <v>3554</v>
       </c>
       <c r="B363" t="s">
         <v>176</v>
@@ -12565,7 +12565,7 @@
         <v>71</v>
       </c>
       <c r="E363" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F363" t="n">
         <v>0</v>
@@ -12585,7 +12585,7 @@
     </row>
     <row r="364" spans="1:26">
       <c r="A364" t="n">
-        <v>11911</v>
+        <v>3555</v>
       </c>
       <c r="B364" t="s">
         <v>176</v>
@@ -12597,7 +12597,7 @@
         <v>72</v>
       </c>
       <c r="E364" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F364" t="n">
         <v>0</v>
@@ -12617,7 +12617,7 @@
     </row>
     <row r="365" spans="1:26">
       <c r="A365" t="n">
-        <v>11912</v>
+        <v>3556</v>
       </c>
       <c r="B365" t="s">
         <v>177</v>
@@ -12629,7 +12629,7 @@
         <v>55</v>
       </c>
       <c r="E365" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F365" t="n">
         <v>0</v>
@@ -12649,7 +12649,7 @@
     </row>
     <row r="366" spans="1:26">
       <c r="A366" t="n">
-        <v>11913</v>
+        <v>3557</v>
       </c>
       <c r="B366" t="s">
         <v>177</v>
@@ -12661,7 +12661,7 @@
         <v>68</v>
       </c>
       <c r="E366" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F366" t="n">
         <v>0</v>
@@ -12681,7 +12681,7 @@
     </row>
     <row r="367" spans="1:26">
       <c r="A367" t="n">
-        <v>11914</v>
+        <v>3558</v>
       </c>
       <c r="B367" t="s">
         <v>178</v>
@@ -12693,7 +12693,7 @@
         <v>55</v>
       </c>
       <c r="E367" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F367" t="n">
         <v>0</v>
@@ -12713,7 +12713,7 @@
     </row>
     <row r="368" spans="1:26">
       <c r="A368" t="n">
-        <v>11915</v>
+        <v>3559</v>
       </c>
       <c r="B368" t="s">
         <v>178</v>
@@ -12725,7 +12725,7 @@
         <v>56</v>
       </c>
       <c r="E368" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F368" t="n">
         <v>0</v>
@@ -12745,7 +12745,7 @@
     </row>
     <row r="369" spans="1:26">
       <c r="A369" t="n">
-        <v>11916</v>
+        <v>3560</v>
       </c>
       <c r="B369" t="s">
         <v>178</v>
@@ -12757,7 +12757,7 @@
         <v>70</v>
       </c>
       <c r="E369" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F369" t="n">
         <v>0</v>
@@ -12777,7 +12777,7 @@
     </row>
     <row r="370" spans="1:26">
       <c r="A370" t="n">
-        <v>11917</v>
+        <v>3561</v>
       </c>
       <c r="B370" t="s">
         <v>178</v>
@@ -12789,7 +12789,7 @@
         <v>74</v>
       </c>
       <c r="E370" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F370" t="n">
         <v>0</v>
@@ -12809,7 +12809,7 @@
     </row>
     <row r="371" spans="1:26">
       <c r="A371" t="n">
-        <v>11918</v>
+        <v>3562</v>
       </c>
       <c r="B371" t="s">
         <v>179</v>
@@ -12821,7 +12821,7 @@
         <v>55</v>
       </c>
       <c r="E371" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F371" t="n">
         <v>0</v>
@@ -12841,7 +12841,7 @@
     </row>
     <row r="372" spans="1:26">
       <c r="A372" t="n">
-        <v>11919</v>
+        <v>3563</v>
       </c>
       <c r="B372" t="s">
         <v>179</v>
@@ -12853,7 +12853,7 @@
         <v>56</v>
       </c>
       <c r="E372" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F372" t="n">
         <v>0</v>
@@ -12873,7 +12873,7 @@
     </row>
     <row r="373" spans="1:26">
       <c r="A373" t="n">
-        <v>11920</v>
+        <v>3564</v>
       </c>
       <c r="B373" t="s">
         <v>179</v>
@@ -12885,7 +12885,7 @@
         <v>70</v>
       </c>
       <c r="E373" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F373" t="n">
         <v>0</v>
@@ -12905,7 +12905,7 @@
     </row>
     <row r="374" spans="1:26">
       <c r="A374" t="n">
-        <v>11921</v>
+        <v>3565</v>
       </c>
       <c r="B374" t="s">
         <v>179</v>
@@ -12917,7 +12917,7 @@
         <v>71</v>
       </c>
       <c r="E374" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F374" t="n">
         <v>0</v>
@@ -12937,7 +12937,7 @@
     </row>
     <row r="375" spans="1:26">
       <c r="A375" t="n">
-        <v>11922</v>
+        <v>3566</v>
       </c>
       <c r="B375" t="s">
         <v>179</v>
@@ -12949,7 +12949,7 @@
         <v>72</v>
       </c>
       <c r="E375" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F375" t="n">
         <v>0</v>
@@ -12969,7 +12969,7 @@
     </row>
     <row r="376" spans="1:26">
       <c r="A376" t="n">
-        <v>11923</v>
+        <v>3567</v>
       </c>
       <c r="B376" t="s">
         <v>180</v>
@@ -12981,7 +12981,7 @@
         <v>55</v>
       </c>
       <c r="E376" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F376" t="n">
         <v>0</v>
@@ -13001,7 +13001,7 @@
     </row>
     <row r="377" spans="1:26">
       <c r="A377" t="n">
-        <v>11924</v>
+        <v>3568</v>
       </c>
       <c r="B377" t="s">
         <v>180</v>
@@ -13013,7 +13013,7 @@
         <v>70</v>
       </c>
       <c r="E377" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F377" t="n">
         <v>0</v>
@@ -13033,7 +13033,7 @@
     </row>
     <row r="378" spans="1:26">
       <c r="A378" t="n">
-        <v>11925</v>
+        <v>3569</v>
       </c>
       <c r="B378" t="s">
         <v>180</v>
@@ -13045,7 +13045,7 @@
         <v>74</v>
       </c>
       <c r="E378" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F378" t="n">
         <v>0</v>
@@ -13065,7 +13065,7 @@
     </row>
     <row r="379" spans="1:26">
       <c r="A379" t="n">
-        <v>11926</v>
+        <v>3570</v>
       </c>
       <c r="B379" t="s">
         <v>181</v>
@@ -13077,7 +13077,7 @@
         <v>55</v>
       </c>
       <c r="E379" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F379" t="n">
         <v>0</v>
@@ -13097,7 +13097,7 @@
     </row>
     <row r="380" spans="1:26">
       <c r="A380" t="n">
-        <v>11927</v>
+        <v>3571</v>
       </c>
       <c r="B380" t="s">
         <v>181</v>
@@ -13109,7 +13109,7 @@
         <v>56</v>
       </c>
       <c r="E380" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F380" t="n">
         <v>0</v>
@@ -13129,7 +13129,7 @@
     </row>
     <row r="381" spans="1:26">
       <c r="A381" t="n">
-        <v>11928</v>
+        <v>3572</v>
       </c>
       <c r="B381" t="s">
         <v>181</v>
@@ -13141,7 +13141,7 @@
         <v>70</v>
       </c>
       <c r="E381" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F381" t="n">
         <v>0</v>
@@ -13161,7 +13161,7 @@
     </row>
     <row r="382" spans="1:26">
       <c r="A382" t="n">
-        <v>11929</v>
+        <v>3573</v>
       </c>
       <c r="B382" t="s">
         <v>181</v>
@@ -13173,7 +13173,7 @@
         <v>71</v>
       </c>
       <c r="E382" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F382" t="n">
         <v>0</v>
@@ -13193,7 +13193,7 @@
     </row>
     <row r="383" spans="1:26">
       <c r="A383" t="n">
-        <v>11930</v>
+        <v>3574</v>
       </c>
       <c r="B383" t="s">
         <v>181</v>
@@ -13205,7 +13205,7 @@
         <v>72</v>
       </c>
       <c r="E383" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -13225,7 +13225,7 @@
     </row>
     <row r="384" spans="1:26">
       <c r="A384" t="n">
-        <v>11931</v>
+        <v>3575</v>
       </c>
       <c r="B384" t="s">
         <v>182</v>
@@ -13237,7 +13237,7 @@
         <v>55</v>
       </c>
       <c r="E384" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -13257,7 +13257,7 @@
     </row>
     <row r="385" spans="1:26">
       <c r="A385" t="n">
-        <v>11932</v>
+        <v>3576</v>
       </c>
       <c r="B385" t="s">
         <v>182</v>
@@ -13269,7 +13269,7 @@
         <v>56</v>
       </c>
       <c r="E385" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -13289,7 +13289,7 @@
     </row>
     <row r="386" spans="1:26">
       <c r="A386" t="n">
-        <v>11933</v>
+        <v>3577</v>
       </c>
       <c r="B386" t="s">
         <v>182</v>
@@ -13301,7 +13301,7 @@
         <v>70</v>
       </c>
       <c r="E386" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -13321,7 +13321,7 @@
     </row>
     <row r="387" spans="1:26">
       <c r="A387" t="n">
-        <v>11934</v>
+        <v>3578</v>
       </c>
       <c r="B387" t="s">
         <v>182</v>
@@ -13333,7 +13333,7 @@
         <v>74</v>
       </c>
       <c r="E387" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -13353,7 +13353,7 @@
     </row>
     <row r="388" spans="1:26">
       <c r="A388" t="n">
-        <v>11935</v>
+        <v>3579</v>
       </c>
       <c r="B388" t="s">
         <v>183</v>
@@ -13365,7 +13365,7 @@
         <v>55</v>
       </c>
       <c r="E388" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -13385,7 +13385,7 @@
     </row>
     <row r="389" spans="1:26">
       <c r="A389" t="n">
-        <v>11936</v>
+        <v>3580</v>
       </c>
       <c r="B389" t="s">
         <v>183</v>
@@ -13397,7 +13397,7 @@
         <v>56</v>
       </c>
       <c r="E389" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -13417,7 +13417,7 @@
     </row>
     <row r="390" spans="1:26">
       <c r="A390" t="n">
-        <v>11937</v>
+        <v>3581</v>
       </c>
       <c r="B390" t="s">
         <v>183</v>
@@ -13429,7 +13429,7 @@
         <v>70</v>
       </c>
       <c r="E390" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -13449,7 +13449,7 @@
     </row>
     <row r="391" spans="1:26">
       <c r="A391" t="n">
-        <v>11938</v>
+        <v>3582</v>
       </c>
       <c r="B391" t="s">
         <v>183</v>
@@ -13461,7 +13461,7 @@
         <v>74</v>
       </c>
       <c r="E391" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -13481,7 +13481,7 @@
     </row>
     <row r="392" spans="1:26">
       <c r="A392" t="n">
-        <v>11939</v>
+        <v>3583</v>
       </c>
       <c r="B392" t="s">
         <v>184</v>
@@ -13493,7 +13493,7 @@
         <v>55</v>
       </c>
       <c r="E392" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -13513,7 +13513,7 @@
     </row>
     <row r="393" spans="1:26">
       <c r="A393" t="n">
-        <v>11940</v>
+        <v>3584</v>
       </c>
       <c r="B393" t="s">
         <v>184</v>
@@ -13525,7 +13525,7 @@
         <v>70</v>
       </c>
       <c r="E393" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F393" t="n">
         <v>0</v>
@@ -13545,7 +13545,7 @@
     </row>
     <row r="394" spans="1:26">
       <c r="A394" t="n">
-        <v>11941</v>
+        <v>3585</v>
       </c>
       <c r="B394" t="s">
         <v>184</v>
@@ -13557,7 +13557,7 @@
         <v>74</v>
       </c>
       <c r="E394" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F394" t="n">
         <v>0</v>
@@ -13577,7 +13577,7 @@
     </row>
     <row r="395" spans="1:26">
       <c r="A395" t="n">
-        <v>11942</v>
+        <v>3586</v>
       </c>
       <c r="B395" t="s">
         <v>185</v>
@@ -13589,7 +13589,7 @@
         <v>55</v>
       </c>
       <c r="E395" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F395" t="n">
         <v>0</v>
@@ -13609,7 +13609,7 @@
     </row>
     <row r="396" spans="1:26">
       <c r="A396" t="n">
-        <v>11943</v>
+        <v>3587</v>
       </c>
       <c r="B396" t="s">
         <v>185</v>
@@ -13621,7 +13621,7 @@
         <v>56</v>
       </c>
       <c r="E396" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F396" t="n">
         <v>0</v>
@@ -13641,7 +13641,7 @@
     </row>
     <row r="397" spans="1:26">
       <c r="A397" t="n">
-        <v>11944</v>
+        <v>3588</v>
       </c>
       <c r="B397" t="s">
         <v>185</v>
@@ -13653,7 +13653,7 @@
         <v>70</v>
       </c>
       <c r="E397" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F397" t="n">
         <v>0</v>
@@ -13673,7 +13673,7 @@
     </row>
     <row r="398" spans="1:26">
       <c r="A398" t="n">
-        <v>11945</v>
+        <v>3589</v>
       </c>
       <c r="B398" t="s">
         <v>185</v>
@@ -13685,7 +13685,7 @@
         <v>74</v>
       </c>
       <c r="E398" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F398" t="n">
         <v>0</v>
@@ -13705,7 +13705,7 @@
     </row>
     <row r="399" spans="1:26">
       <c r="A399" t="n">
-        <v>11946</v>
+        <v>3590</v>
       </c>
       <c r="B399" t="s">
         <v>186</v>
@@ -13717,7 +13717,7 @@
         <v>55</v>
       </c>
       <c r="E399" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F399" t="n">
         <v>0</v>
@@ -13737,7 +13737,7 @@
     </row>
     <row r="400" spans="1:26">
       <c r="A400" t="n">
-        <v>11947</v>
+        <v>3591</v>
       </c>
       <c r="B400" t="s">
         <v>186</v>
@@ -13749,7 +13749,7 @@
         <v>68</v>
       </c>
       <c r="E400" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F400" t="n">
         <v>0</v>

--- a/bin/new管道材料等级索引表-等级表-备注内容.xlsx
+++ b/bin/new管道材料等级索引表-等级表-备注内容.xlsx
@@ -103,7 +103,7 @@
     <t>1氧气管道及其组成件与流体接触的表面应按HG 20202的规定进行脱脂。脱脂后应封闭管口并充入干燥氮气。</t>
   </si>
   <si>
-    <t>2016/08/23</t>
+    <t>2016/08/31</t>
   </si>
   <si>
     <t>注2</t>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" t="n">
-        <v>3193</v>
+        <v>11572</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -1013,7 +1013,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" t="n">
-        <v>3194</v>
+        <v>11573</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -1045,7 +1045,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" t="n">
-        <v>3195</v>
+        <v>11574</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -1077,7 +1077,7 @@
         <v>33</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" t="n">
-        <v>3196</v>
+        <v>11575</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -1109,7 +1109,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" t="n">
-        <v>3197</v>
+        <v>11576</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -1141,7 +1141,7 @@
         <v>37</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" t="n">
-        <v>3198</v>
+        <v>11577</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -1173,7 +1173,7 @@
         <v>39</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" t="n">
-        <v>3199</v>
+        <v>11578</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -1205,7 +1205,7 @@
         <v>41</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" t="n">
-        <v>3200</v>
+        <v>11579</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -1237,7 +1237,7 @@
         <v>43</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" t="n">
-        <v>3201</v>
+        <v>11580</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1269,7 +1269,7 @@
         <v>45</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" t="n">
-        <v>3202</v>
+        <v>11581</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1301,7 +1301,7 @@
         <v>47</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" t="n">
-        <v>3203</v>
+        <v>11582</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1333,7 +1333,7 @@
         <v>49</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" t="n">
-        <v>3204</v>
+        <v>11583</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1365,7 +1365,7 @@
         <v>51</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" t="n">
-        <v>3205</v>
+        <v>11584</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1397,7 +1397,7 @@
         <v>53</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" t="n">
-        <v>3206</v>
+        <v>11585</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
@@ -1429,7 +1429,7 @@
         <v>55</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" t="n">
-        <v>3207</v>
+        <v>11586</v>
       </c>
       <c r="B16" t="s">
         <v>54</v>
@@ -1461,7 +1461,7 @@
         <v>56</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" t="n">
-        <v>3208</v>
+        <v>11587</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -1493,7 +1493,7 @@
         <v>57</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" t="n">
-        <v>3209</v>
+        <v>11588</v>
       </c>
       <c r="B18" t="s">
         <v>54</v>
@@ -1525,7 +1525,7 @@
         <v>58</v>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" t="n">
-        <v>3210</v>
+        <v>11589</v>
       </c>
       <c r="B19" t="s">
         <v>54</v>
@@ -1557,7 +1557,7 @@
         <v>59</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" t="n">
-        <v>3211</v>
+        <v>11590</v>
       </c>
       <c r="B20" t="s">
         <v>54</v>
@@ -1589,7 +1589,7 @@
         <v>60</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" t="n">
-        <v>3212</v>
+        <v>11591</v>
       </c>
       <c r="B21" t="s">
         <v>61</v>
@@ -1621,7 +1621,7 @@
         <v>55</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" t="n">
-        <v>3213</v>
+        <v>11592</v>
       </c>
       <c r="B22" t="s">
         <v>61</v>
@@ -1653,7 +1653,7 @@
         <v>56</v>
       </c>
       <c r="E22" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" t="n">
-        <v>3214</v>
+        <v>11593</v>
       </c>
       <c r="B23" t="s">
         <v>61</v>
@@ -1685,7 +1685,7 @@
         <v>57</v>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" t="n">
-        <v>3215</v>
+        <v>11594</v>
       </c>
       <c r="B24" t="s">
         <v>61</v>
@@ -1717,7 +1717,7 @@
         <v>62</v>
       </c>
       <c r="E24" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="25" spans="1:26">
       <c r="A25" t="n">
-        <v>3216</v>
+        <v>11595</v>
       </c>
       <c r="B25" t="s">
         <v>63</v>
@@ -1749,7 +1749,7 @@
         <v>55</v>
       </c>
       <c r="E25" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26" t="n">
-        <v>3217</v>
+        <v>11596</v>
       </c>
       <c r="B26" t="s">
         <v>63</v>
@@ -1781,7 +1781,7 @@
         <v>57</v>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="27" spans="1:26">
       <c r="A27" t="n">
-        <v>3218</v>
+        <v>11597</v>
       </c>
       <c r="B27" t="s">
         <v>63</v>
@@ -1813,7 +1813,7 @@
         <v>58</v>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="28" spans="1:26">
       <c r="A28" t="n">
-        <v>3219</v>
+        <v>11598</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
@@ -1845,7 +1845,7 @@
         <v>64</v>
       </c>
       <c r="E28" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="29" spans="1:26">
       <c r="A29" t="n">
-        <v>3220</v>
+        <v>11599</v>
       </c>
       <c r="B29" t="s">
         <v>65</v>
@@ -1877,7 +1877,7 @@
         <v>66</v>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="30" spans="1:26">
       <c r="A30" t="n">
-        <v>3221</v>
+        <v>11600</v>
       </c>
       <c r="B30" t="s">
         <v>67</v>
@@ -1909,7 +1909,7 @@
         <v>55</v>
       </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="31" spans="1:26">
       <c r="A31" t="n">
-        <v>3222</v>
+        <v>11601</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
@@ -1941,7 +1941,7 @@
         <v>68</v>
       </c>
       <c r="E31" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="32" spans="1:26">
       <c r="A32" t="n">
-        <v>3223</v>
+        <v>11602</v>
       </c>
       <c r="B32" t="s">
         <v>69</v>
@@ -1973,7 +1973,7 @@
         <v>55</v>
       </c>
       <c r="E32" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="33" spans="1:26">
       <c r="A33" t="n">
-        <v>3224</v>
+        <v>11603</v>
       </c>
       <c r="B33" t="s">
         <v>69</v>
@@ -2005,7 +2005,7 @@
         <v>56</v>
       </c>
       <c r="E33" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="34" spans="1:26">
       <c r="A34" t="n">
-        <v>3225</v>
+        <v>11604</v>
       </c>
       <c r="B34" t="s">
         <v>69</v>
@@ -2037,7 +2037,7 @@
         <v>70</v>
       </c>
       <c r="E34" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="35" spans="1:26">
       <c r="A35" t="n">
-        <v>3226</v>
+        <v>11605</v>
       </c>
       <c r="B35" t="s">
         <v>69</v>
@@ -2069,7 +2069,7 @@
         <v>71</v>
       </c>
       <c r="E35" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="36" spans="1:26">
       <c r="A36" t="n">
-        <v>3227</v>
+        <v>11606</v>
       </c>
       <c r="B36" t="s">
         <v>69</v>
@@ -2101,7 +2101,7 @@
         <v>72</v>
       </c>
       <c r="E36" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="37" spans="1:26">
       <c r="A37" t="n">
-        <v>3228</v>
+        <v>11607</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
@@ -2133,7 +2133,7 @@
         <v>55</v>
       </c>
       <c r="E37" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="38" spans="1:26">
       <c r="A38" t="n">
-        <v>3229</v>
+        <v>11608</v>
       </c>
       <c r="B38" t="s">
         <v>73</v>
@@ -2165,7 +2165,7 @@
         <v>56</v>
       </c>
       <c r="E38" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="39" spans="1:26">
       <c r="A39" t="n">
-        <v>3230</v>
+        <v>11609</v>
       </c>
       <c r="B39" t="s">
         <v>73</v>
@@ -2197,7 +2197,7 @@
         <v>74</v>
       </c>
       <c r="E39" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="40" spans="1:26">
       <c r="A40" t="n">
-        <v>3231</v>
+        <v>11610</v>
       </c>
       <c r="B40" t="s">
         <v>75</v>
@@ -2229,7 +2229,7 @@
         <v>55</v>
       </c>
       <c r="E40" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="41" spans="1:26">
       <c r="A41" t="n">
-        <v>3232</v>
+        <v>11611</v>
       </c>
       <c r="B41" t="s">
         <v>75</v>
@@ -2261,7 +2261,7 @@
         <v>56</v>
       </c>
       <c r="E41" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="42" spans="1:26">
       <c r="A42" t="n">
-        <v>3233</v>
+        <v>11612</v>
       </c>
       <c r="B42" t="s">
         <v>75</v>
@@ -2293,7 +2293,7 @@
         <v>70</v>
       </c>
       <c r="E42" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="43" spans="1:26">
       <c r="A43" t="n">
-        <v>3234</v>
+        <v>11613</v>
       </c>
       <c r="B43" t="s">
         <v>75</v>
@@ -2325,7 +2325,7 @@
         <v>74</v>
       </c>
       <c r="E43" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="44" spans="1:26">
       <c r="A44" t="n">
-        <v>3235</v>
+        <v>11614</v>
       </c>
       <c r="B44" t="s">
         <v>76</v>
@@ -2357,7 +2357,7 @@
         <v>55</v>
       </c>
       <c r="E44" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="45" spans="1:26">
       <c r="A45" t="n">
-        <v>3236</v>
+        <v>11615</v>
       </c>
       <c r="B45" t="s">
         <v>76</v>
@@ -2389,7 +2389,7 @@
         <v>70</v>
       </c>
       <c r="E45" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="46" spans="1:26">
       <c r="A46" t="n">
-        <v>3237</v>
+        <v>11616</v>
       </c>
       <c r="B46" t="s">
         <v>76</v>
@@ -2421,7 +2421,7 @@
         <v>74</v>
       </c>
       <c r="E46" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="47" spans="1:26">
       <c r="A47" t="n">
-        <v>3238</v>
+        <v>11617</v>
       </c>
       <c r="B47" t="s">
         <v>77</v>
@@ -2453,7 +2453,7 @@
         <v>55</v>
       </c>
       <c r="E47" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="48" spans="1:26">
       <c r="A48" t="n">
-        <v>3239</v>
+        <v>11618</v>
       </c>
       <c r="B48" t="s">
         <v>77</v>
@@ -2485,7 +2485,7 @@
         <v>56</v>
       </c>
       <c r="E48" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="49" spans="1:26">
       <c r="A49" t="n">
-        <v>3240</v>
+        <v>11619</v>
       </c>
       <c r="B49" t="s">
         <v>77</v>
@@ -2517,7 +2517,7 @@
         <v>57</v>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="50" spans="1:26">
       <c r="A50" t="n">
-        <v>3241</v>
+        <v>11620</v>
       </c>
       <c r="B50" t="s">
         <v>77</v>
@@ -2549,7 +2549,7 @@
         <v>62</v>
       </c>
       <c r="E50" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="51" spans="1:26">
       <c r="A51" t="n">
-        <v>3242</v>
+        <v>11621</v>
       </c>
       <c r="B51" t="s">
         <v>78</v>
@@ -2581,7 +2581,7 @@
         <v>55</v>
       </c>
       <c r="E51" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -2601,7 +2601,7 @@
     </row>
     <row r="52" spans="1:26">
       <c r="A52" t="n">
-        <v>3243</v>
+        <v>11622</v>
       </c>
       <c r="B52" t="s">
         <v>78</v>
@@ -2613,7 +2613,7 @@
         <v>56</v>
       </c>
       <c r="E52" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
     </row>
     <row r="53" spans="1:26">
       <c r="A53" t="n">
-        <v>3244</v>
+        <v>11623</v>
       </c>
       <c r="B53" t="s">
         <v>78</v>
@@ -2645,7 +2645,7 @@
         <v>70</v>
       </c>
       <c r="E53" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -2665,7 +2665,7 @@
     </row>
     <row r="54" spans="1:26">
       <c r="A54" t="n">
-        <v>3245</v>
+        <v>11624</v>
       </c>
       <c r="B54" t="s">
         <v>78</v>
@@ -2677,7 +2677,7 @@
         <v>71</v>
       </c>
       <c r="E54" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2697,7 +2697,7 @@
     </row>
     <row r="55" spans="1:26">
       <c r="A55" t="n">
-        <v>3246</v>
+        <v>11625</v>
       </c>
       <c r="B55" t="s">
         <v>78</v>
@@ -2709,7 +2709,7 @@
         <v>57</v>
       </c>
       <c r="E55" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2729,7 +2729,7 @@
     </row>
     <row r="56" spans="1:26">
       <c r="A56" t="n">
-        <v>3247</v>
+        <v>11626</v>
       </c>
       <c r="B56" t="s">
         <v>78</v>
@@ -2741,7 +2741,7 @@
         <v>62</v>
       </c>
       <c r="E56" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
     </row>
     <row r="57" spans="1:26">
       <c r="A57" t="n">
-        <v>3248</v>
+        <v>11627</v>
       </c>
       <c r="B57" t="s">
         <v>79</v>
@@ -2773,7 +2773,7 @@
         <v>55</v>
       </c>
       <c r="E57" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="58" spans="1:26">
       <c r="A58" t="n">
-        <v>3249</v>
+        <v>11628</v>
       </c>
       <c r="B58" t="s">
         <v>79</v>
@@ -2805,7 +2805,7 @@
         <v>56</v>
       </c>
       <c r="E58" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="59" spans="1:26">
       <c r="A59" t="n">
-        <v>3250</v>
+        <v>11629</v>
       </c>
       <c r="B59" t="s">
         <v>79</v>
@@ -2837,7 +2837,7 @@
         <v>70</v>
       </c>
       <c r="E59" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="60" spans="1:26">
       <c r="A60" t="n">
-        <v>3251</v>
+        <v>11630</v>
       </c>
       <c r="B60" t="s">
         <v>79</v>
@@ -2869,7 +2869,7 @@
         <v>80</v>
       </c>
       <c r="E60" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="61" spans="1:26">
       <c r="A61" t="n">
-        <v>3252</v>
+        <v>11631</v>
       </c>
       <c r="B61" t="s">
         <v>79</v>
@@ -2901,7 +2901,7 @@
         <v>74</v>
       </c>
       <c r="E61" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
     </row>
     <row r="62" spans="1:26">
       <c r="A62" t="n">
-        <v>3253</v>
+        <v>11632</v>
       </c>
       <c r="B62" t="s">
         <v>81</v>
@@ -2933,7 +2933,7 @@
         <v>55</v>
       </c>
       <c r="E62" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="63" spans="1:26">
       <c r="A63" t="n">
-        <v>3254</v>
+        <v>11633</v>
       </c>
       <c r="B63" t="s">
         <v>81</v>
@@ -2965,7 +2965,7 @@
         <v>68</v>
       </c>
       <c r="E63" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -2985,7 +2985,7 @@
     </row>
     <row r="64" spans="1:26">
       <c r="A64" t="n">
-        <v>3255</v>
+        <v>11634</v>
       </c>
       <c r="B64" t="s">
         <v>82</v>
@@ -2997,7 +2997,7 @@
         <v>55</v>
       </c>
       <c r="E64" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="65" spans="1:26">
       <c r="A65" t="n">
-        <v>3256</v>
+        <v>11635</v>
       </c>
       <c r="B65" t="s">
         <v>82</v>
@@ -3029,7 +3029,7 @@
         <v>56</v>
       </c>
       <c r="E65" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="66" spans="1:26">
       <c r="A66" t="n">
-        <v>3257</v>
+        <v>11636</v>
       </c>
       <c r="B66" t="s">
         <v>82</v>
@@ -3061,7 +3061,7 @@
         <v>70</v>
       </c>
       <c r="E66" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -3081,7 +3081,7 @@
     </row>
     <row r="67" spans="1:26">
       <c r="A67" t="n">
-        <v>3258</v>
+        <v>11637</v>
       </c>
       <c r="B67" t="s">
         <v>82</v>
@@ -3093,7 +3093,7 @@
         <v>74</v>
       </c>
       <c r="E67" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="68" spans="1:26">
       <c r="A68" t="n">
-        <v>3259</v>
+        <v>11638</v>
       </c>
       <c r="B68" t="s">
         <v>83</v>
@@ -3125,7 +3125,7 @@
         <v>55</v>
       </c>
       <c r="E68" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -3145,7 +3145,7 @@
     </row>
     <row r="69" spans="1:26">
       <c r="A69" t="n">
-        <v>3260</v>
+        <v>11639</v>
       </c>
       <c r="B69" t="s">
         <v>83</v>
@@ -3157,7 +3157,7 @@
         <v>57</v>
       </c>
       <c r="E69" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="70" spans="1:26">
       <c r="A70" t="n">
-        <v>3261</v>
+        <v>11640</v>
       </c>
       <c r="B70" t="s">
         <v>83</v>
@@ -3189,7 +3189,7 @@
         <v>62</v>
       </c>
       <c r="E70" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -3209,7 +3209,7 @@
     </row>
     <row r="71" spans="1:26">
       <c r="A71" t="n">
-        <v>3262</v>
+        <v>11641</v>
       </c>
       <c r="B71" t="s">
         <v>84</v>
@@ -3221,7 +3221,7 @@
         <v>66</v>
       </c>
       <c r="E71" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="72" spans="1:26">
       <c r="A72" t="n">
-        <v>3263</v>
+        <v>11642</v>
       </c>
       <c r="B72" t="s">
         <v>85</v>
@@ -3253,7 +3253,7 @@
         <v>66</v>
       </c>
       <c r="E72" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="73" spans="1:26">
       <c r="A73" t="n">
-        <v>3264</v>
+        <v>11643</v>
       </c>
       <c r="B73" t="s">
         <v>86</v>
@@ -3285,7 +3285,7 @@
         <v>55</v>
       </c>
       <c r="E73" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="74" spans="1:26">
       <c r="A74" t="n">
-        <v>3265</v>
+        <v>11644</v>
       </c>
       <c r="B74" t="s">
         <v>86</v>
@@ -3317,7 +3317,7 @@
         <v>56</v>
       </c>
       <c r="E74" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="75" spans="1:26">
       <c r="A75" t="n">
-        <v>3266</v>
+        <v>11645</v>
       </c>
       <c r="B75" t="s">
         <v>86</v>
@@ -3349,7 +3349,7 @@
         <v>70</v>
       </c>
       <c r="E75" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -3369,7 +3369,7 @@
     </row>
     <row r="76" spans="1:26">
       <c r="A76" t="n">
-        <v>3267</v>
+        <v>11646</v>
       </c>
       <c r="B76" t="s">
         <v>86</v>
@@ -3381,7 +3381,7 @@
         <v>74</v>
       </c>
       <c r="E76" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
     </row>
     <row r="77" spans="1:26">
       <c r="A77" t="n">
-        <v>3268</v>
+        <v>11647</v>
       </c>
       <c r="B77" t="s">
         <v>87</v>
@@ -3413,7 +3413,7 @@
         <v>68</v>
       </c>
       <c r="E77" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="78" spans="1:26">
       <c r="A78" t="n">
-        <v>3269</v>
+        <v>11648</v>
       </c>
       <c r="B78" t="s">
         <v>88</v>
@@ -3445,7 +3445,7 @@
         <v>70</v>
       </c>
       <c r="E78" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -3465,7 +3465,7 @@
     </row>
     <row r="79" spans="1:26">
       <c r="A79" t="n">
-        <v>3270</v>
+        <v>11649</v>
       </c>
       <c r="B79" t="s">
         <v>88</v>
@@ -3477,7 +3477,7 @@
         <v>80</v>
       </c>
       <c r="E79" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -3497,7 +3497,7 @@
     </row>
     <row r="80" spans="1:26">
       <c r="A80" t="n">
-        <v>3271</v>
+        <v>11650</v>
       </c>
       <c r="B80" t="s">
         <v>88</v>
@@ -3509,7 +3509,7 @@
         <v>74</v>
       </c>
       <c r="E80" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="81" spans="1:26">
       <c r="A81" t="n">
-        <v>3272</v>
+        <v>11651</v>
       </c>
       <c r="B81" t="s">
         <v>89</v>
@@ -3541,7 +3541,7 @@
         <v>80</v>
       </c>
       <c r="E81" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="82" spans="1:26">
       <c r="A82" t="n">
-        <v>3273</v>
+        <v>11652</v>
       </c>
       <c r="B82" t="s">
         <v>89</v>
@@ -3573,7 +3573,7 @@
         <v>74</v>
       </c>
       <c r="E82" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="83" spans="1:26">
       <c r="A83" t="n">
-        <v>3274</v>
+        <v>11653</v>
       </c>
       <c r="B83" t="s">
         <v>90</v>
@@ -3605,7 +3605,7 @@
         <v>55</v>
       </c>
       <c r="E83" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="84" spans="1:26">
       <c r="A84" t="n">
-        <v>3275</v>
+        <v>11654</v>
       </c>
       <c r="B84" t="s">
         <v>90</v>
@@ -3637,7 +3637,7 @@
         <v>80</v>
       </c>
       <c r="E84" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="85" spans="1:26">
       <c r="A85" t="n">
-        <v>3276</v>
+        <v>11655</v>
       </c>
       <c r="B85" t="s">
         <v>90</v>
@@ -3669,7 +3669,7 @@
         <v>74</v>
       </c>
       <c r="E85" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -3689,7 +3689,7 @@
     </row>
     <row r="86" spans="1:26">
       <c r="A86" t="n">
-        <v>3277</v>
+        <v>11656</v>
       </c>
       <c r="B86" t="s">
         <v>91</v>
@@ -3701,7 +3701,7 @@
         <v>74</v>
       </c>
       <c r="E86" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
     </row>
     <row r="87" spans="1:26">
       <c r="A87" t="n">
-        <v>3278</v>
+        <v>11657</v>
       </c>
       <c r="B87" t="s">
         <v>92</v>
@@ -3733,7 +3733,7 @@
         <v>74</v>
       </c>
       <c r="E87" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="88" spans="1:26">
       <c r="A88" t="n">
-        <v>3279</v>
+        <v>11658</v>
       </c>
       <c r="B88" t="s">
         <v>93</v>
@@ -3765,7 +3765,7 @@
         <v>80</v>
       </c>
       <c r="E88" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="89" spans="1:26">
       <c r="A89" t="n">
-        <v>3280</v>
+        <v>11659</v>
       </c>
       <c r="B89" t="s">
         <v>93</v>
@@ -3797,7 +3797,7 @@
         <v>74</v>
       </c>
       <c r="E89" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="90" spans="1:26">
       <c r="A90" t="n">
-        <v>3281</v>
+        <v>11660</v>
       </c>
       <c r="B90" t="s">
         <v>94</v>
@@ -3829,7 +3829,7 @@
         <v>55</v>
       </c>
       <c r="E90" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -3849,7 +3849,7 @@
     </row>
     <row r="91" spans="1:26">
       <c r="A91" t="n">
-        <v>3282</v>
+        <v>11661</v>
       </c>
       <c r="B91" t="s">
         <v>94</v>
@@ -3861,7 +3861,7 @@
         <v>74</v>
       </c>
       <c r="E91" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="92" spans="1:26">
       <c r="A92" t="n">
-        <v>3283</v>
+        <v>11662</v>
       </c>
       <c r="B92" t="s">
         <v>95</v>
@@ -3893,7 +3893,7 @@
         <v>55</v>
       </c>
       <c r="E92" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
     </row>
     <row r="93" spans="1:26">
       <c r="A93" t="n">
-        <v>3284</v>
+        <v>11663</v>
       </c>
       <c r="B93" t="s">
         <v>95</v>
@@ -3925,7 +3925,7 @@
         <v>96</v>
       </c>
       <c r="E93" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="94" spans="1:26">
       <c r="A94" t="n">
-        <v>3285</v>
+        <v>11664</v>
       </c>
       <c r="B94" t="s">
         <v>97</v>
@@ -3957,7 +3957,7 @@
         <v>80</v>
       </c>
       <c r="E94" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="95" spans="1:26">
       <c r="A95" t="n">
-        <v>3286</v>
+        <v>11665</v>
       </c>
       <c r="B95" t="s">
         <v>97</v>
@@ -3989,7 +3989,7 @@
         <v>74</v>
       </c>
       <c r="E95" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="96" spans="1:26">
       <c r="A96" t="n">
-        <v>3287</v>
+        <v>11666</v>
       </c>
       <c r="B96" t="s">
         <v>98</v>
@@ -4021,7 +4021,7 @@
         <v>74</v>
       </c>
       <c r="E96" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="97" spans="1:26">
       <c r="A97" t="n">
-        <v>3288</v>
+        <v>11667</v>
       </c>
       <c r="B97" t="s">
         <v>99</v>
@@ -4053,7 +4053,7 @@
         <v>55</v>
       </c>
       <c r="E97" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="98" spans="1:26">
       <c r="A98" t="n">
-        <v>3289</v>
+        <v>11668</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
@@ -4085,7 +4085,7 @@
         <v>80</v>
       </c>
       <c r="E98" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="99" spans="1:26">
       <c r="A99" t="n">
-        <v>3290</v>
+        <v>11669</v>
       </c>
       <c r="B99" t="s">
         <v>99</v>
@@ -4117,7 +4117,7 @@
         <v>74</v>
       </c>
       <c r="E99" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="100" spans="1:26">
       <c r="A100" t="n">
-        <v>3291</v>
+        <v>11670</v>
       </c>
       <c r="B100" t="s">
         <v>100</v>
@@ -4149,7 +4149,7 @@
         <v>66</v>
       </c>
       <c r="E100" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="101" spans="1:26">
       <c r="A101" t="n">
-        <v>3292</v>
+        <v>11671</v>
       </c>
       <c r="B101" t="s">
         <v>101</v>
@@ -4181,7 +4181,7 @@
         <v>55</v>
       </c>
       <c r="E101" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="102" spans="1:26">
       <c r="A102" t="n">
-        <v>3293</v>
+        <v>11672</v>
       </c>
       <c r="B102" t="s">
         <v>101</v>
@@ -4213,7 +4213,7 @@
         <v>56</v>
       </c>
       <c r="E102" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="103" spans="1:26">
       <c r="A103" t="n">
-        <v>3294</v>
+        <v>11673</v>
       </c>
       <c r="B103" t="s">
         <v>101</v>
@@ -4245,7 +4245,7 @@
         <v>70</v>
       </c>
       <c r="E103" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="104" spans="1:26">
       <c r="A104" t="n">
-        <v>3295</v>
+        <v>11674</v>
       </c>
       <c r="B104" t="s">
         <v>101</v>
@@ -4277,7 +4277,7 @@
         <v>71</v>
       </c>
       <c r="E104" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="105" spans="1:26">
       <c r="A105" t="n">
-        <v>3296</v>
+        <v>11675</v>
       </c>
       <c r="B105" t="s">
         <v>101</v>
@@ -4309,7 +4309,7 @@
         <v>72</v>
       </c>
       <c r="E105" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="106" spans="1:26">
       <c r="A106" t="n">
-        <v>3297</v>
+        <v>11676</v>
       </c>
       <c r="B106" t="s">
         <v>102</v>
@@ -4341,7 +4341,7 @@
         <v>55</v>
       </c>
       <c r="E106" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="107" spans="1:26">
       <c r="A107" t="n">
-        <v>3298</v>
+        <v>11677</v>
       </c>
       <c r="B107" t="s">
         <v>102</v>
@@ -4373,7 +4373,7 @@
         <v>68</v>
       </c>
       <c r="E107" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="108" spans="1:26">
       <c r="A108" t="n">
-        <v>3299</v>
+        <v>11678</v>
       </c>
       <c r="B108" t="s">
         <v>103</v>
@@ -4405,7 +4405,7 @@
         <v>66</v>
       </c>
       <c r="E108" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="109" spans="1:26">
       <c r="A109" t="n">
-        <v>3300</v>
+        <v>11679</v>
       </c>
       <c r="B109" t="s">
         <v>104</v>
@@ -4437,7 +4437,7 @@
         <v>55</v>
       </c>
       <c r="E109" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="110" spans="1:26">
       <c r="A110" t="n">
-        <v>3301</v>
+        <v>11680</v>
       </c>
       <c r="B110" t="s">
         <v>104</v>
@@ -4469,7 +4469,7 @@
         <v>56</v>
       </c>
       <c r="E110" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -4489,7 +4489,7 @@
     </row>
     <row r="111" spans="1:26">
       <c r="A111" t="n">
-        <v>3302</v>
+        <v>11681</v>
       </c>
       <c r="B111" t="s">
         <v>104</v>
@@ -4501,7 +4501,7 @@
         <v>70</v>
       </c>
       <c r="E111" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="112" spans="1:26">
       <c r="A112" t="n">
-        <v>3303</v>
+        <v>11682</v>
       </c>
       <c r="B112" t="s">
         <v>104</v>
@@ -4533,7 +4533,7 @@
         <v>74</v>
       </c>
       <c r="E112" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -4553,7 +4553,7 @@
     </row>
     <row r="113" spans="1:26">
       <c r="A113" t="n">
-        <v>3304</v>
+        <v>11683</v>
       </c>
       <c r="B113" t="s">
         <v>105</v>
@@ -4565,7 +4565,7 @@
         <v>55</v>
       </c>
       <c r="E113" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="114" spans="1:26">
       <c r="A114" t="n">
-        <v>3305</v>
+        <v>11684</v>
       </c>
       <c r="B114" t="s">
         <v>105</v>
@@ -4597,7 +4597,7 @@
         <v>56</v>
       </c>
       <c r="E114" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="115" spans="1:26">
       <c r="A115" t="n">
-        <v>3306</v>
+        <v>11685</v>
       </c>
       <c r="B115" t="s">
         <v>105</v>
@@ -4629,7 +4629,7 @@
         <v>70</v>
       </c>
       <c r="E115" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="116" spans="1:26">
       <c r="A116" t="n">
-        <v>3307</v>
+        <v>11686</v>
       </c>
       <c r="B116" t="s">
         <v>105</v>
@@ -4661,7 +4661,7 @@
         <v>80</v>
       </c>
       <c r="E116" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="117" spans="1:26">
       <c r="A117" t="n">
-        <v>3308</v>
+        <v>11687</v>
       </c>
       <c r="B117" t="s">
         <v>105</v>
@@ -4693,7 +4693,7 @@
         <v>74</v>
       </c>
       <c r="E117" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="118" spans="1:26">
       <c r="A118" t="n">
-        <v>3309</v>
+        <v>11688</v>
       </c>
       <c r="B118" t="s">
         <v>106</v>
@@ -4725,7 +4725,7 @@
         <v>55</v>
       </c>
       <c r="E118" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="119" spans="1:26">
       <c r="A119" t="n">
-        <v>3310</v>
+        <v>11689</v>
       </c>
       <c r="B119" t="s">
         <v>106</v>
@@ -4757,7 +4757,7 @@
         <v>68</v>
       </c>
       <c r="E119" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="120" spans="1:26">
       <c r="A120" t="n">
-        <v>3311</v>
+        <v>11690</v>
       </c>
       <c r="B120" t="s">
         <v>107</v>
@@ -4789,7 +4789,7 @@
         <v>55</v>
       </c>
       <c r="E120" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="121" spans="1:26">
       <c r="A121" t="n">
-        <v>3312</v>
+        <v>11691</v>
       </c>
       <c r="B121" t="s">
         <v>107</v>
@@ -4821,7 +4821,7 @@
         <v>68</v>
       </c>
       <c r="E121" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="122" spans="1:26">
       <c r="A122" t="n">
-        <v>3313</v>
+        <v>11692</v>
       </c>
       <c r="B122" t="s">
         <v>108</v>
@@ -4853,7 +4853,7 @@
         <v>55</v>
       </c>
       <c r="E122" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="123" spans="1:26">
       <c r="A123" t="n">
-        <v>3314</v>
+        <v>11693</v>
       </c>
       <c r="B123" t="s">
         <v>108</v>
@@ -4885,7 +4885,7 @@
         <v>70</v>
       </c>
       <c r="E123" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="124" spans="1:26">
       <c r="A124" t="n">
-        <v>3315</v>
+        <v>11694</v>
       </c>
       <c r="B124" t="s">
         <v>108</v>
@@ -4917,7 +4917,7 @@
         <v>74</v>
       </c>
       <c r="E124" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="125" spans="1:26">
       <c r="A125" t="n">
-        <v>3316</v>
+        <v>11695</v>
       </c>
       <c r="B125" t="s">
         <v>109</v>
@@ -4949,7 +4949,7 @@
         <v>55</v>
       </c>
       <c r="E125" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="126" spans="1:26">
       <c r="A126" t="n">
-        <v>3317</v>
+        <v>11696</v>
       </c>
       <c r="B126" t="s">
         <v>109</v>
@@ -4981,7 +4981,7 @@
         <v>56</v>
       </c>
       <c r="E126" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="127" spans="1:26">
       <c r="A127" t="n">
-        <v>3318</v>
+        <v>11697</v>
       </c>
       <c r="B127" t="s">
         <v>109</v>
@@ -5013,7 +5013,7 @@
         <v>70</v>
       </c>
       <c r="E127" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -5033,7 +5033,7 @@
     </row>
     <row r="128" spans="1:26">
       <c r="A128" t="n">
-        <v>3319</v>
+        <v>11698</v>
       </c>
       <c r="B128" t="s">
         <v>109</v>
@@ -5045,7 +5045,7 @@
         <v>74</v>
       </c>
       <c r="E128" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -5065,7 +5065,7 @@
     </row>
     <row r="129" spans="1:26">
       <c r="A129" t="n">
-        <v>3320</v>
+        <v>11699</v>
       </c>
       <c r="B129" t="s">
         <v>110</v>
@@ -5077,7 +5077,7 @@
         <v>55</v>
       </c>
       <c r="E129" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="130" spans="1:26">
       <c r="A130" t="n">
-        <v>3321</v>
+        <v>11700</v>
       </c>
       <c r="B130" t="s">
         <v>110</v>
@@ -5109,7 +5109,7 @@
         <v>68</v>
       </c>
       <c r="E130" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -5129,7 +5129,7 @@
     </row>
     <row r="131" spans="1:26">
       <c r="A131" t="n">
-        <v>3322</v>
+        <v>11701</v>
       </c>
       <c r="B131" t="s">
         <v>111</v>
@@ -5141,7 +5141,7 @@
         <v>55</v>
       </c>
       <c r="E131" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -5161,7 +5161,7 @@
     </row>
     <row r="132" spans="1:26">
       <c r="A132" t="n">
-        <v>3323</v>
+        <v>11702</v>
       </c>
       <c r="B132" t="s">
         <v>111</v>
@@ -5173,7 +5173,7 @@
         <v>68</v>
       </c>
       <c r="E132" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -5193,7 +5193,7 @@
     </row>
     <row r="133" spans="1:26">
       <c r="A133" t="n">
-        <v>3324</v>
+        <v>11703</v>
       </c>
       <c r="B133" t="s">
         <v>112</v>
@@ -5205,7 +5205,7 @@
         <v>55</v>
       </c>
       <c r="E133" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -5225,7 +5225,7 @@
     </row>
     <row r="134" spans="1:26">
       <c r="A134" t="n">
-        <v>3325</v>
+        <v>11704</v>
       </c>
       <c r="B134" t="s">
         <v>112</v>
@@ -5237,7 +5237,7 @@
         <v>68</v>
       </c>
       <c r="E134" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -5257,7 +5257,7 @@
     </row>
     <row r="135" spans="1:26">
       <c r="A135" t="n">
-        <v>3326</v>
+        <v>11705</v>
       </c>
       <c r="B135" t="s">
         <v>113</v>
@@ -5269,7 +5269,7 @@
         <v>55</v>
       </c>
       <c r="E135" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="136" spans="1:26">
       <c r="A136" t="n">
-        <v>3327</v>
+        <v>11706</v>
       </c>
       <c r="B136" t="s">
         <v>113</v>
@@ -5301,7 +5301,7 @@
         <v>56</v>
       </c>
       <c r="E136" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -5321,7 +5321,7 @@
     </row>
     <row r="137" spans="1:26">
       <c r="A137" t="n">
-        <v>3328</v>
+        <v>11707</v>
       </c>
       <c r="B137" t="s">
         <v>113</v>
@@ -5333,7 +5333,7 @@
         <v>74</v>
       </c>
       <c r="E137" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="138" spans="1:26">
       <c r="A138" t="n">
-        <v>3329</v>
+        <v>11708</v>
       </c>
       <c r="B138" t="s">
         <v>114</v>
@@ -5365,7 +5365,7 @@
         <v>55</v>
       </c>
       <c r="E138" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -5385,7 +5385,7 @@
     </row>
     <row r="139" spans="1:26">
       <c r="A139" t="n">
-        <v>3330</v>
+        <v>11709</v>
       </c>
       <c r="B139" t="s">
         <v>114</v>
@@ -5397,7 +5397,7 @@
         <v>56</v>
       </c>
       <c r="E139" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5417,7 +5417,7 @@
     </row>
     <row r="140" spans="1:26">
       <c r="A140" t="n">
-        <v>3331</v>
+        <v>11710</v>
       </c>
       <c r="B140" t="s">
         <v>114</v>
@@ -5429,7 +5429,7 @@
         <v>70</v>
       </c>
       <c r="E140" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5449,7 +5449,7 @@
     </row>
     <row r="141" spans="1:26">
       <c r="A141" t="n">
-        <v>3332</v>
+        <v>11711</v>
       </c>
       <c r="B141" t="s">
         <v>114</v>
@@ -5461,7 +5461,7 @@
         <v>74</v>
       </c>
       <c r="E141" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -5481,7 +5481,7 @@
     </row>
     <row r="142" spans="1:26">
       <c r="A142" t="n">
-        <v>3333</v>
+        <v>11712</v>
       </c>
       <c r="B142" t="s">
         <v>115</v>
@@ -5493,7 +5493,7 @@
         <v>55</v>
       </c>
       <c r="E142" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -5513,7 +5513,7 @@
     </row>
     <row r="143" spans="1:26">
       <c r="A143" t="n">
-        <v>3334</v>
+        <v>11713</v>
       </c>
       <c r="B143" t="s">
         <v>115</v>
@@ -5525,7 +5525,7 @@
         <v>56</v>
       </c>
       <c r="E143" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5545,7 +5545,7 @@
     </row>
     <row r="144" spans="1:26">
       <c r="A144" t="n">
-        <v>3335</v>
+        <v>11714</v>
       </c>
       <c r="B144" t="s">
         <v>115</v>
@@ -5557,7 +5557,7 @@
         <v>70</v>
       </c>
       <c r="E144" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -5577,7 +5577,7 @@
     </row>
     <row r="145" spans="1:26">
       <c r="A145" t="n">
-        <v>3336</v>
+        <v>11715</v>
       </c>
       <c r="B145" t="s">
         <v>115</v>
@@ -5589,7 +5589,7 @@
         <v>71</v>
       </c>
       <c r="E145" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -5609,7 +5609,7 @@
     </row>
     <row r="146" spans="1:26">
       <c r="A146" t="n">
-        <v>3337</v>
+        <v>11716</v>
       </c>
       <c r="B146" t="s">
         <v>115</v>
@@ -5621,7 +5621,7 @@
         <v>72</v>
       </c>
       <c r="E146" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -5641,7 +5641,7 @@
     </row>
     <row r="147" spans="1:26">
       <c r="A147" t="n">
-        <v>3338</v>
+        <v>11717</v>
       </c>
       <c r="B147" t="s">
         <v>116</v>
@@ -5653,7 +5653,7 @@
         <v>55</v>
       </c>
       <c r="E147" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -5673,7 +5673,7 @@
     </row>
     <row r="148" spans="1:26">
       <c r="A148" t="n">
-        <v>3339</v>
+        <v>11718</v>
       </c>
       <c r="B148" t="s">
         <v>116</v>
@@ -5685,7 +5685,7 @@
         <v>56</v>
       </c>
       <c r="E148" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -5705,7 +5705,7 @@
     </row>
     <row r="149" spans="1:26">
       <c r="A149" t="n">
-        <v>3340</v>
+        <v>11719</v>
       </c>
       <c r="B149" t="s">
         <v>116</v>
@@ -5717,7 +5717,7 @@
         <v>70</v>
       </c>
       <c r="E149" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -5737,7 +5737,7 @@
     </row>
     <row r="150" spans="1:26">
       <c r="A150" t="n">
-        <v>3341</v>
+        <v>11720</v>
       </c>
       <c r="B150" t="s">
         <v>116</v>
@@ -5749,7 +5749,7 @@
         <v>74</v>
       </c>
       <c r="E150" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -5769,7 +5769,7 @@
     </row>
     <row r="151" spans="1:26">
       <c r="A151" t="n">
-        <v>3342</v>
+        <v>11721</v>
       </c>
       <c r="B151" t="s">
         <v>117</v>
@@ -5781,7 +5781,7 @@
         <v>55</v>
       </c>
       <c r="E151" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -5801,7 +5801,7 @@
     </row>
     <row r="152" spans="1:26">
       <c r="A152" t="n">
-        <v>3343</v>
+        <v>11722</v>
       </c>
       <c r="B152" t="s">
         <v>117</v>
@@ -5813,7 +5813,7 @@
         <v>56</v>
       </c>
       <c r="E152" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="153" spans="1:26">
       <c r="A153" t="n">
-        <v>3344</v>
+        <v>11723</v>
       </c>
       <c r="B153" t="s">
         <v>117</v>
@@ -5845,7 +5845,7 @@
         <v>70</v>
       </c>
       <c r="E153" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -5865,7 +5865,7 @@
     </row>
     <row r="154" spans="1:26">
       <c r="A154" t="n">
-        <v>3345</v>
+        <v>11724</v>
       </c>
       <c r="B154" t="s">
         <v>117</v>
@@ -5877,7 +5877,7 @@
         <v>71</v>
       </c>
       <c r="E154" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -5897,7 +5897,7 @@
     </row>
     <row r="155" spans="1:26">
       <c r="A155" t="n">
-        <v>3346</v>
+        <v>11725</v>
       </c>
       <c r="B155" t="s">
         <v>117</v>
@@ -5909,7 +5909,7 @@
         <v>57</v>
       </c>
       <c r="E155" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -5929,7 +5929,7 @@
     </row>
     <row r="156" spans="1:26">
       <c r="A156" t="n">
-        <v>3347</v>
+        <v>11726</v>
       </c>
       <c r="B156" t="s">
         <v>117</v>
@@ -5941,7 +5941,7 @@
         <v>62</v>
       </c>
       <c r="E156" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5961,7 +5961,7 @@
     </row>
     <row r="157" spans="1:26">
       <c r="A157" t="n">
-        <v>3348</v>
+        <v>11727</v>
       </c>
       <c r="B157" t="s">
         <v>118</v>
@@ -5973,7 +5973,7 @@
         <v>55</v>
       </c>
       <c r="E157" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -5993,7 +5993,7 @@
     </row>
     <row r="158" spans="1:26">
       <c r="A158" t="n">
-        <v>3349</v>
+        <v>11728</v>
       </c>
       <c r="B158" t="s">
         <v>118</v>
@@ -6005,7 +6005,7 @@
         <v>56</v>
       </c>
       <c r="E158" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -6025,7 +6025,7 @@
     </row>
     <row r="159" spans="1:26">
       <c r="A159" t="n">
-        <v>3350</v>
+        <v>11729</v>
       </c>
       <c r="B159" t="s">
         <v>118</v>
@@ -6037,7 +6037,7 @@
         <v>70</v>
       </c>
       <c r="E159" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -6057,7 +6057,7 @@
     </row>
     <row r="160" spans="1:26">
       <c r="A160" t="n">
-        <v>3351</v>
+        <v>11730</v>
       </c>
       <c r="B160" t="s">
         <v>118</v>
@@ -6069,7 +6069,7 @@
         <v>74</v>
       </c>
       <c r="E160" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6089,7 +6089,7 @@
     </row>
     <row r="161" spans="1:26">
       <c r="A161" t="n">
-        <v>3352</v>
+        <v>11731</v>
       </c>
       <c r="B161" t="s">
         <v>119</v>
@@ -6101,7 +6101,7 @@
         <v>55</v>
       </c>
       <c r="E161" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6121,7 +6121,7 @@
     </row>
     <row r="162" spans="1:26">
       <c r="A162" t="n">
-        <v>3353</v>
+        <v>11732</v>
       </c>
       <c r="B162" t="s">
         <v>119</v>
@@ -6133,7 +6133,7 @@
         <v>56</v>
       </c>
       <c r="E162" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6153,7 +6153,7 @@
     </row>
     <row r="163" spans="1:26">
       <c r="A163" t="n">
-        <v>3354</v>
+        <v>11733</v>
       </c>
       <c r="B163" t="s">
         <v>119</v>
@@ -6165,7 +6165,7 @@
         <v>70</v>
       </c>
       <c r="E163" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
@@ -6185,7 +6185,7 @@
     </row>
     <row r="164" spans="1:26">
       <c r="A164" t="n">
-        <v>3355</v>
+        <v>11734</v>
       </c>
       <c r="B164" t="s">
         <v>119</v>
@@ -6197,7 +6197,7 @@
         <v>74</v>
       </c>
       <c r="E164" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -6217,7 +6217,7 @@
     </row>
     <row r="165" spans="1:26">
       <c r="A165" t="n">
-        <v>3356</v>
+        <v>11735</v>
       </c>
       <c r="B165" t="s">
         <v>120</v>
@@ -6229,7 +6229,7 @@
         <v>55</v>
       </c>
       <c r="E165" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
@@ -6249,7 +6249,7 @@
     </row>
     <row r="166" spans="1:26">
       <c r="A166" t="n">
-        <v>3357</v>
+        <v>11736</v>
       </c>
       <c r="B166" t="s">
         <v>120</v>
@@ -6261,7 +6261,7 @@
         <v>70</v>
       </c>
       <c r="E166" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -6281,7 +6281,7 @@
     </row>
     <row r="167" spans="1:26">
       <c r="A167" t="n">
-        <v>3358</v>
+        <v>11737</v>
       </c>
       <c r="B167" t="s">
         <v>120</v>
@@ -6293,7 +6293,7 @@
         <v>74</v>
       </c>
       <c r="E167" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
@@ -6313,7 +6313,7 @@
     </row>
     <row r="168" spans="1:26">
       <c r="A168" t="n">
-        <v>3359</v>
+        <v>11738</v>
       </c>
       <c r="B168" t="s">
         <v>121</v>
@@ -6325,7 +6325,7 @@
         <v>55</v>
       </c>
       <c r="E168" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -6345,7 +6345,7 @@
     </row>
     <row r="169" spans="1:26">
       <c r="A169" t="n">
-        <v>3360</v>
+        <v>11739</v>
       </c>
       <c r="B169" t="s">
         <v>121</v>
@@ -6357,7 +6357,7 @@
         <v>56</v>
       </c>
       <c r="E169" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
@@ -6377,7 +6377,7 @@
     </row>
     <row r="170" spans="1:26">
       <c r="A170" t="n">
-        <v>3361</v>
+        <v>11740</v>
       </c>
       <c r="B170" t="s">
         <v>121</v>
@@ -6389,7 +6389,7 @@
         <v>70</v>
       </c>
       <c r="E170" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
@@ -6409,7 +6409,7 @@
     </row>
     <row r="171" spans="1:26">
       <c r="A171" t="n">
-        <v>3362</v>
+        <v>11741</v>
       </c>
       <c r="B171" t="s">
         <v>121</v>
@@ -6421,7 +6421,7 @@
         <v>71</v>
       </c>
       <c r="E171" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F171" t="n">
         <v>0</v>
@@ -6441,7 +6441,7 @@
     </row>
     <row r="172" spans="1:26">
       <c r="A172" t="n">
-        <v>3363</v>
+        <v>11742</v>
       </c>
       <c r="B172" t="s">
         <v>121</v>
@@ -6453,7 +6453,7 @@
         <v>57</v>
       </c>
       <c r="E172" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F172" t="n">
         <v>0</v>
@@ -6473,7 +6473,7 @@
     </row>
     <row r="173" spans="1:26">
       <c r="A173" t="n">
-        <v>3364</v>
+        <v>11743</v>
       </c>
       <c r="B173" t="s">
         <v>121</v>
@@ -6485,7 +6485,7 @@
         <v>62</v>
       </c>
       <c r="E173" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F173" t="n">
         <v>0</v>
@@ -6505,7 +6505,7 @@
     </row>
     <row r="174" spans="1:26">
       <c r="A174" t="n">
-        <v>3365</v>
+        <v>11744</v>
       </c>
       <c r="B174" t="s">
         <v>122</v>
@@ -6517,7 +6517,7 @@
         <v>55</v>
       </c>
       <c r="E174" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
     </row>
     <row r="175" spans="1:26">
       <c r="A175" t="n">
-        <v>3366</v>
+        <v>11745</v>
       </c>
       <c r="B175" t="s">
         <v>122</v>
@@ -6549,7 +6549,7 @@
         <v>56</v>
       </c>
       <c r="E175" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
@@ -6569,7 +6569,7 @@
     </row>
     <row r="176" spans="1:26">
       <c r="A176" t="n">
-        <v>3367</v>
+        <v>11746</v>
       </c>
       <c r="B176" t="s">
         <v>122</v>
@@ -6581,7 +6581,7 @@
         <v>70</v>
       </c>
       <c r="E176" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6601,7 +6601,7 @@
     </row>
     <row r="177" spans="1:26">
       <c r="A177" t="n">
-        <v>3368</v>
+        <v>11747</v>
       </c>
       <c r="B177" t="s">
         <v>122</v>
@@ -6613,7 +6613,7 @@
         <v>74</v>
       </c>
       <c r="E177" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
@@ -6633,7 +6633,7 @@
     </row>
     <row r="178" spans="1:26">
       <c r="A178" t="n">
-        <v>3369</v>
+        <v>11748</v>
       </c>
       <c r="B178" t="s">
         <v>123</v>
@@ -6645,7 +6645,7 @@
         <v>55</v>
       </c>
       <c r="E178" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
@@ -6665,7 +6665,7 @@
     </row>
     <row r="179" spans="1:26">
       <c r="A179" t="n">
-        <v>3370</v>
+        <v>11749</v>
       </c>
       <c r="B179" t="s">
         <v>123</v>
@@ -6677,7 +6677,7 @@
         <v>68</v>
       </c>
       <c r="E179" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -6697,7 +6697,7 @@
     </row>
     <row r="180" spans="1:26">
       <c r="A180" t="n">
-        <v>3371</v>
+        <v>11750</v>
       </c>
       <c r="B180" t="s">
         <v>124</v>
@@ -6709,7 +6709,7 @@
         <v>55</v>
       </c>
       <c r="E180" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -6729,7 +6729,7 @@
     </row>
     <row r="181" spans="1:26">
       <c r="A181" t="n">
-        <v>3372</v>
+        <v>11751</v>
       </c>
       <c r="B181" t="s">
         <v>124</v>
@@ -6741,7 +6741,7 @@
         <v>70</v>
       </c>
       <c r="E181" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
@@ -6761,7 +6761,7 @@
     </row>
     <row r="182" spans="1:26">
       <c r="A182" t="n">
-        <v>3373</v>
+        <v>11752</v>
       </c>
       <c r="B182" t="s">
         <v>124</v>
@@ -6773,7 +6773,7 @@
         <v>80</v>
       </c>
       <c r="E182" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
@@ -6793,7 +6793,7 @@
     </row>
     <row r="183" spans="1:26">
       <c r="A183" t="n">
-        <v>3374</v>
+        <v>11753</v>
       </c>
       <c r="B183" t="s">
         <v>124</v>
@@ -6805,7 +6805,7 @@
         <v>74</v>
       </c>
       <c r="E183" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -6825,7 +6825,7 @@
     </row>
     <row r="184" spans="1:26">
       <c r="A184" t="n">
-        <v>3375</v>
+        <v>11754</v>
       </c>
       <c r="B184" t="s">
         <v>125</v>
@@ -6837,7 +6837,7 @@
         <v>74</v>
       </c>
       <c r="E184" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -6857,7 +6857,7 @@
     </row>
     <row r="185" spans="1:26">
       <c r="A185" t="n">
-        <v>3376</v>
+        <v>11755</v>
       </c>
       <c r="B185" t="s">
         <v>126</v>
@@ -6869,7 +6869,7 @@
         <v>74</v>
       </c>
       <c r="E185" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
@@ -6889,7 +6889,7 @@
     </row>
     <row r="186" spans="1:26">
       <c r="A186" t="n">
-        <v>3377</v>
+        <v>11756</v>
       </c>
       <c r="B186" t="s">
         <v>127</v>
@@ -6901,7 +6901,7 @@
         <v>55</v>
       </c>
       <c r="E186" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -6921,7 +6921,7 @@
     </row>
     <row r="187" spans="1:26">
       <c r="A187" t="n">
-        <v>3378</v>
+        <v>11757</v>
       </c>
       <c r="B187" t="s">
         <v>127</v>
@@ -6933,7 +6933,7 @@
         <v>56</v>
       </c>
       <c r="E187" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -6953,7 +6953,7 @@
     </row>
     <row r="188" spans="1:26">
       <c r="A188" t="n">
-        <v>3379</v>
+        <v>11758</v>
       </c>
       <c r="B188" t="s">
         <v>127</v>
@@ -6965,7 +6965,7 @@
         <v>74</v>
       </c>
       <c r="E188" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -6985,7 +6985,7 @@
     </row>
     <row r="189" spans="1:26">
       <c r="A189" t="n">
-        <v>3380</v>
+        <v>11759</v>
       </c>
       <c r="B189" t="s">
         <v>128</v>
@@ -6997,7 +6997,7 @@
         <v>55</v>
       </c>
       <c r="E189" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
@@ -7017,7 +7017,7 @@
     </row>
     <row r="190" spans="1:26">
       <c r="A190" t="n">
-        <v>3381</v>
+        <v>11760</v>
       </c>
       <c r="B190" t="s">
         <v>128</v>
@@ -7029,7 +7029,7 @@
         <v>74</v>
       </c>
       <c r="E190" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
@@ -7049,7 +7049,7 @@
     </row>
     <row r="191" spans="1:26">
       <c r="A191" t="n">
-        <v>3382</v>
+        <v>11761</v>
       </c>
       <c r="B191" t="s">
         <v>129</v>
@@ -7061,7 +7061,7 @@
         <v>55</v>
       </c>
       <c r="E191" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -7081,7 +7081,7 @@
     </row>
     <row r="192" spans="1:26">
       <c r="A192" t="n">
-        <v>3383</v>
+        <v>11762</v>
       </c>
       <c r="B192" t="s">
         <v>129</v>
@@ -7093,7 +7093,7 @@
         <v>80</v>
       </c>
       <c r="E192" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -7113,7 +7113,7 @@
     </row>
     <row r="193" spans="1:26">
       <c r="A193" t="n">
-        <v>3384</v>
+        <v>11763</v>
       </c>
       <c r="B193" t="s">
         <v>129</v>
@@ -7125,7 +7125,7 @@
         <v>74</v>
       </c>
       <c r="E193" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
@@ -7145,7 +7145,7 @@
     </row>
     <row r="194" spans="1:26">
       <c r="A194" t="n">
-        <v>3385</v>
+        <v>11764</v>
       </c>
       <c r="B194" t="s">
         <v>130</v>
@@ -7157,7 +7157,7 @@
         <v>80</v>
       </c>
       <c r="E194" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -7177,7 +7177,7 @@
     </row>
     <row r="195" spans="1:26">
       <c r="A195" t="n">
-        <v>3386</v>
+        <v>11765</v>
       </c>
       <c r="B195" t="s">
         <v>130</v>
@@ -7189,7 +7189,7 @@
         <v>74</v>
       </c>
       <c r="E195" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -7209,7 +7209,7 @@
     </row>
     <row r="196" spans="1:26">
       <c r="A196" t="n">
-        <v>3387</v>
+        <v>11766</v>
       </c>
       <c r="B196" t="s">
         <v>131</v>
@@ -7221,7 +7221,7 @@
         <v>55</v>
       </c>
       <c r="E196" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7241,7 +7241,7 @@
     </row>
     <row r="197" spans="1:26">
       <c r="A197" t="n">
-        <v>3388</v>
+        <v>11767</v>
       </c>
       <c r="B197" t="s">
         <v>131</v>
@@ -7253,7 +7253,7 @@
         <v>56</v>
       </c>
       <c r="E197" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
@@ -7273,7 +7273,7 @@
     </row>
     <row r="198" spans="1:26">
       <c r="A198" t="n">
-        <v>3389</v>
+        <v>11768</v>
       </c>
       <c r="B198" t="s">
         <v>131</v>
@@ -7285,7 +7285,7 @@
         <v>70</v>
       </c>
       <c r="E198" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F198" t="n">
         <v>0</v>
@@ -7305,7 +7305,7 @@
     </row>
     <row r="199" spans="1:26">
       <c r="A199" t="n">
-        <v>3390</v>
+        <v>11769</v>
       </c>
       <c r="B199" t="s">
         <v>131</v>
@@ -7317,7 +7317,7 @@
         <v>74</v>
       </c>
       <c r="E199" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F199" t="n">
         <v>0</v>
@@ -7337,7 +7337,7 @@
     </row>
     <row r="200" spans="1:26">
       <c r="A200" t="n">
-        <v>3391</v>
+        <v>11770</v>
       </c>
       <c r="B200" t="s">
         <v>132</v>
@@ -7349,7 +7349,7 @@
         <v>55</v>
       </c>
       <c r="E200" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
@@ -7369,7 +7369,7 @@
     </row>
     <row r="201" spans="1:26">
       <c r="A201" t="n">
-        <v>3392</v>
+        <v>11771</v>
       </c>
       <c r="B201" t="s">
         <v>132</v>
@@ -7381,7 +7381,7 @@
         <v>56</v>
       </c>
       <c r="E201" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
@@ -7401,7 +7401,7 @@
     </row>
     <row r="202" spans="1:26">
       <c r="A202" t="n">
-        <v>3393</v>
+        <v>11772</v>
       </c>
       <c r="B202" t="s">
         <v>132</v>
@@ -7413,7 +7413,7 @@
         <v>70</v>
       </c>
       <c r="E202" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -7433,7 +7433,7 @@
     </row>
     <row r="203" spans="1:26">
       <c r="A203" t="n">
-        <v>3394</v>
+        <v>11773</v>
       </c>
       <c r="B203" t="s">
         <v>132</v>
@@ -7445,7 +7445,7 @@
         <v>74</v>
       </c>
       <c r="E203" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F203" t="n">
         <v>0</v>
@@ -7465,7 +7465,7 @@
     </row>
     <row r="204" spans="1:26">
       <c r="A204" t="n">
-        <v>3395</v>
+        <v>11774</v>
       </c>
       <c r="B204" t="s">
         <v>133</v>
@@ -7477,7 +7477,7 @@
         <v>55</v>
       </c>
       <c r="E204" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7497,7 +7497,7 @@
     </row>
     <row r="205" spans="1:26">
       <c r="A205" t="n">
-        <v>3396</v>
+        <v>11775</v>
       </c>
       <c r="B205" t="s">
         <v>133</v>
@@ -7509,7 +7509,7 @@
         <v>56</v>
       </c>
       <c r="E205" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F205" t="n">
         <v>0</v>
@@ -7529,7 +7529,7 @@
     </row>
     <row r="206" spans="1:26">
       <c r="A206" t="n">
-        <v>3397</v>
+        <v>11776</v>
       </c>
       <c r="B206" t="s">
         <v>133</v>
@@ -7541,7 +7541,7 @@
         <v>70</v>
       </c>
       <c r="E206" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -7561,7 +7561,7 @@
     </row>
     <row r="207" spans="1:26">
       <c r="A207" t="n">
-        <v>3398</v>
+        <v>11777</v>
       </c>
       <c r="B207" t="s">
         <v>133</v>
@@ -7573,7 +7573,7 @@
         <v>74</v>
       </c>
       <c r="E207" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
@@ -7593,7 +7593,7 @@
     </row>
     <row r="208" spans="1:26">
       <c r="A208" t="n">
-        <v>3399</v>
+        <v>11778</v>
       </c>
       <c r="B208" t="s">
         <v>134</v>
@@ -7605,7 +7605,7 @@
         <v>55</v>
       </c>
       <c r="E208" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F208" t="n">
         <v>0</v>
@@ -7625,7 +7625,7 @@
     </row>
     <row r="209" spans="1:26">
       <c r="A209" t="n">
-        <v>3400</v>
+        <v>11779</v>
       </c>
       <c r="B209" t="s">
         <v>134</v>
@@ -7637,7 +7637,7 @@
         <v>56</v>
       </c>
       <c r="E209" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F209" t="n">
         <v>0</v>
@@ -7657,7 +7657,7 @@
     </row>
     <row r="210" spans="1:26">
       <c r="A210" t="n">
-        <v>3401</v>
+        <v>11780</v>
       </c>
       <c r="B210" t="s">
         <v>134</v>
@@ -7669,7 +7669,7 @@
         <v>70</v>
       </c>
       <c r="E210" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F210" t="n">
         <v>0</v>
@@ -7689,7 +7689,7 @@
     </row>
     <row r="211" spans="1:26">
       <c r="A211" t="n">
-        <v>3402</v>
+        <v>11781</v>
       </c>
       <c r="B211" t="s">
         <v>134</v>
@@ -7701,7 +7701,7 @@
         <v>74</v>
       </c>
       <c r="E211" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7721,7 +7721,7 @@
     </row>
     <row r="212" spans="1:26">
       <c r="A212" t="n">
-        <v>3403</v>
+        <v>11782</v>
       </c>
       <c r="B212" t="s">
         <v>135</v>
@@ -7733,7 +7733,7 @@
         <v>55</v>
       </c>
       <c r="E212" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F212" t="n">
         <v>0</v>
@@ -7753,7 +7753,7 @@
     </row>
     <row r="213" spans="1:26">
       <c r="A213" t="n">
-        <v>3404</v>
+        <v>11783</v>
       </c>
       <c r="B213" t="s">
         <v>135</v>
@@ -7765,7 +7765,7 @@
         <v>56</v>
       </c>
       <c r="E213" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F213" t="n">
         <v>0</v>
@@ -7785,7 +7785,7 @@
     </row>
     <row r="214" spans="1:26">
       <c r="A214" t="n">
-        <v>3405</v>
+        <v>11784</v>
       </c>
       <c r="B214" t="s">
         <v>135</v>
@@ -7797,7 +7797,7 @@
         <v>70</v>
       </c>
       <c r="E214" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -7817,7 +7817,7 @@
     </row>
     <row r="215" spans="1:26">
       <c r="A215" t="n">
-        <v>3406</v>
+        <v>11785</v>
       </c>
       <c r="B215" t="s">
         <v>135</v>
@@ -7829,7 +7829,7 @@
         <v>74</v>
       </c>
       <c r="E215" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F215" t="n">
         <v>0</v>
@@ -7849,7 +7849,7 @@
     </row>
     <row r="216" spans="1:26">
       <c r="A216" t="n">
-        <v>3407</v>
+        <v>11786</v>
       </c>
       <c r="B216" t="s">
         <v>136</v>
@@ -7861,7 +7861,7 @@
         <v>55</v>
       </c>
       <c r="E216" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F216" t="n">
         <v>0</v>
@@ -7881,7 +7881,7 @@
     </row>
     <row r="217" spans="1:26">
       <c r="A217" t="n">
-        <v>3408</v>
+        <v>11787</v>
       </c>
       <c r="B217" t="s">
         <v>136</v>
@@ -7893,7 +7893,7 @@
         <v>56</v>
       </c>
       <c r="E217" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F217" t="n">
         <v>0</v>
@@ -7913,7 +7913,7 @@
     </row>
     <row r="218" spans="1:26">
       <c r="A218" t="n">
-        <v>3409</v>
+        <v>11788</v>
       </c>
       <c r="B218" t="s">
         <v>136</v>
@@ -7925,7 +7925,7 @@
         <v>70</v>
       </c>
       <c r="E218" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F218" t="n">
         <v>0</v>
@@ -7945,7 +7945,7 @@
     </row>
     <row r="219" spans="1:26">
       <c r="A219" t="n">
-        <v>3410</v>
+        <v>11789</v>
       </c>
       <c r="B219" t="s">
         <v>136</v>
@@ -7957,7 +7957,7 @@
         <v>74</v>
       </c>
       <c r="E219" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F219" t="n">
         <v>0</v>
@@ -7977,7 +7977,7 @@
     </row>
     <row r="220" spans="1:26">
       <c r="A220" t="n">
-        <v>3411</v>
+        <v>11790</v>
       </c>
       <c r="B220" t="s">
         <v>137</v>
@@ -7989,7 +7989,7 @@
         <v>55</v>
       </c>
       <c r="E220" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F220" t="n">
         <v>0</v>
@@ -8009,7 +8009,7 @@
     </row>
     <row r="221" spans="1:26">
       <c r="A221" t="n">
-        <v>3412</v>
+        <v>11791</v>
       </c>
       <c r="B221" t="s">
         <v>137</v>
@@ -8021,7 +8021,7 @@
         <v>70</v>
       </c>
       <c r="E221" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F221" t="n">
         <v>0</v>
@@ -8041,7 +8041,7 @@
     </row>
     <row r="222" spans="1:26">
       <c r="A222" t="n">
-        <v>3413</v>
+        <v>11792</v>
       </c>
       <c r="B222" t="s">
         <v>137</v>
@@ -8053,7 +8053,7 @@
         <v>74</v>
       </c>
       <c r="E222" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F222" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
     </row>
     <row r="223" spans="1:26">
       <c r="A223" t="n">
-        <v>3414</v>
+        <v>11793</v>
       </c>
       <c r="B223" t="s">
         <v>138</v>
@@ -8085,7 +8085,7 @@
         <v>55</v>
       </c>
       <c r="E223" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F223" t="n">
         <v>0</v>
@@ -8105,7 +8105,7 @@
     </row>
     <row r="224" spans="1:26">
       <c r="A224" t="n">
-        <v>3415</v>
+        <v>11794</v>
       </c>
       <c r="B224" t="s">
         <v>138</v>
@@ -8117,7 +8117,7 @@
         <v>68</v>
       </c>
       <c r="E224" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F224" t="n">
         <v>0</v>
@@ -8137,7 +8137,7 @@
     </row>
     <row r="225" spans="1:26">
       <c r="A225" t="n">
-        <v>3416</v>
+        <v>11795</v>
       </c>
       <c r="B225" t="s">
         <v>139</v>
@@ -8149,7 +8149,7 @@
         <v>55</v>
       </c>
       <c r="E225" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F225" t="n">
         <v>0</v>
@@ -8169,7 +8169,7 @@
     </row>
     <row r="226" spans="1:26">
       <c r="A226" t="n">
-        <v>3417</v>
+        <v>11796</v>
       </c>
       <c r="B226" t="s">
         <v>139</v>
@@ -8181,7 +8181,7 @@
         <v>56</v>
       </c>
       <c r="E226" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F226" t="n">
         <v>0</v>
@@ -8201,7 +8201,7 @@
     </row>
     <row r="227" spans="1:26">
       <c r="A227" t="n">
-        <v>3418</v>
+        <v>11797</v>
       </c>
       <c r="B227" t="s">
         <v>139</v>
@@ -8213,7 +8213,7 @@
         <v>74</v>
       </c>
       <c r="E227" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8233,7 +8233,7 @@
     </row>
     <row r="228" spans="1:26">
       <c r="A228" t="n">
-        <v>3419</v>
+        <v>11798</v>
       </c>
       <c r="B228" t="s">
         <v>140</v>
@@ -8245,7 +8245,7 @@
         <v>55</v>
       </c>
       <c r="E228" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F228" t="n">
         <v>0</v>
@@ -8265,7 +8265,7 @@
     </row>
     <row r="229" spans="1:26">
       <c r="A229" t="n">
-        <v>3420</v>
+        <v>11799</v>
       </c>
       <c r="B229" t="s">
         <v>140</v>
@@ -8277,7 +8277,7 @@
         <v>56</v>
       </c>
       <c r="E229" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F229" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
     </row>
     <row r="230" spans="1:26">
       <c r="A230" t="n">
-        <v>3421</v>
+        <v>11800</v>
       </c>
       <c r="B230" t="s">
         <v>140</v>
@@ -8309,7 +8309,7 @@
         <v>70</v>
       </c>
       <c r="E230" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F230" t="n">
         <v>0</v>
@@ -8329,7 +8329,7 @@
     </row>
     <row r="231" spans="1:26">
       <c r="A231" t="n">
-        <v>3422</v>
+        <v>11801</v>
       </c>
       <c r="B231" t="s">
         <v>140</v>
@@ -8341,7 +8341,7 @@
         <v>80</v>
       </c>
       <c r="E231" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F231" t="n">
         <v>0</v>
@@ -8361,7 +8361,7 @@
     </row>
     <row r="232" spans="1:26">
       <c r="A232" t="n">
-        <v>3423</v>
+        <v>11802</v>
       </c>
       <c r="B232" t="s">
         <v>140</v>
@@ -8373,7 +8373,7 @@
         <v>74</v>
       </c>
       <c r="E232" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F232" t="n">
         <v>0</v>
@@ -8393,7 +8393,7 @@
     </row>
     <row r="233" spans="1:26">
       <c r="A233" t="n">
-        <v>3424</v>
+        <v>11803</v>
       </c>
       <c r="B233" t="s">
         <v>141</v>
@@ -8405,7 +8405,7 @@
         <v>55</v>
       </c>
       <c r="E233" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8425,7 +8425,7 @@
     </row>
     <row r="234" spans="1:26">
       <c r="A234" t="n">
-        <v>3425</v>
+        <v>11804</v>
       </c>
       <c r="B234" t="s">
         <v>141</v>
@@ -8437,7 +8437,7 @@
         <v>68</v>
       </c>
       <c r="E234" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F234" t="n">
         <v>0</v>
@@ -8457,7 +8457,7 @@
     </row>
     <row r="235" spans="1:26">
       <c r="A235" t="n">
-        <v>3426</v>
+        <v>11805</v>
       </c>
       <c r="B235" t="s">
         <v>142</v>
@@ -8469,7 +8469,7 @@
         <v>55</v>
       </c>
       <c r="E235" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F235" t="n">
         <v>0</v>
@@ -8489,7 +8489,7 @@
     </row>
     <row r="236" spans="1:26">
       <c r="A236" t="n">
-        <v>3427</v>
+        <v>11806</v>
       </c>
       <c r="B236" t="s">
         <v>142</v>
@@ -8501,7 +8501,7 @@
         <v>56</v>
       </c>
       <c r="E236" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F236" t="n">
         <v>0</v>
@@ -8521,7 +8521,7 @@
     </row>
     <row r="237" spans="1:26">
       <c r="A237" t="n">
-        <v>3428</v>
+        <v>11807</v>
       </c>
       <c r="B237" t="s">
         <v>142</v>
@@ -8533,7 +8533,7 @@
         <v>70</v>
       </c>
       <c r="E237" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
     </row>
     <row r="238" spans="1:26">
       <c r="A238" t="n">
-        <v>3429</v>
+        <v>11808</v>
       </c>
       <c r="B238" t="s">
         <v>142</v>
@@ -8565,7 +8565,7 @@
         <v>71</v>
       </c>
       <c r="E238" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F238" t="n">
         <v>0</v>
@@ -8585,7 +8585,7 @@
     </row>
     <row r="239" spans="1:26">
       <c r="A239" t="n">
-        <v>3430</v>
+        <v>11809</v>
       </c>
       <c r="B239" t="s">
         <v>142</v>
@@ -8597,7 +8597,7 @@
         <v>72</v>
       </c>
       <c r="E239" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F239" t="n">
         <v>0</v>
@@ -8617,7 +8617,7 @@
     </row>
     <row r="240" spans="1:26">
       <c r="A240" t="n">
-        <v>3431</v>
+        <v>11810</v>
       </c>
       <c r="B240" t="s">
         <v>143</v>
@@ -8629,7 +8629,7 @@
         <v>55</v>
       </c>
       <c r="E240" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F240" t="n">
         <v>0</v>
@@ -8649,7 +8649,7 @@
     </row>
     <row r="241" spans="1:26">
       <c r="A241" t="n">
-        <v>3432</v>
+        <v>11811</v>
       </c>
       <c r="B241" t="s">
         <v>143</v>
@@ -8661,7 +8661,7 @@
         <v>68</v>
       </c>
       <c r="E241" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8681,7 +8681,7 @@
     </row>
     <row r="242" spans="1:26">
       <c r="A242" t="n">
-        <v>3433</v>
+        <v>11812</v>
       </c>
       <c r="B242" t="s">
         <v>144</v>
@@ -8693,7 +8693,7 @@
         <v>55</v>
       </c>
       <c r="E242" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F242" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
     </row>
     <row r="243" spans="1:26">
       <c r="A243" t="n">
-        <v>3434</v>
+        <v>11813</v>
       </c>
       <c r="B243" t="s">
         <v>144</v>
@@ -8725,7 +8725,7 @@
         <v>68</v>
       </c>
       <c r="E243" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F243" t="n">
         <v>0</v>
@@ -8745,7 +8745,7 @@
     </row>
     <row r="244" spans="1:26">
       <c r="A244" t="n">
-        <v>3435</v>
+        <v>11814</v>
       </c>
       <c r="B244" t="s">
         <v>145</v>
@@ -8757,7 +8757,7 @@
         <v>55</v>
       </c>
       <c r="E244" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F244" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
     </row>
     <row r="245" spans="1:26">
       <c r="A245" t="n">
-        <v>3436</v>
+        <v>11815</v>
       </c>
       <c r="B245" t="s">
         <v>145</v>
@@ -8789,7 +8789,7 @@
         <v>56</v>
       </c>
       <c r="E245" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F245" t="n">
         <v>0</v>
@@ -8809,7 +8809,7 @@
     </row>
     <row r="246" spans="1:26">
       <c r="A246" t="n">
-        <v>3437</v>
+        <v>11816</v>
       </c>
       <c r="B246" t="s">
         <v>145</v>
@@ -8821,7 +8821,7 @@
         <v>70</v>
       </c>
       <c r="E246" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F246" t="n">
         <v>0</v>
@@ -8841,7 +8841,7 @@
     </row>
     <row r="247" spans="1:26">
       <c r="A247" t="n">
-        <v>3438</v>
+        <v>11817</v>
       </c>
       <c r="B247" t="s">
         <v>145</v>
@@ -8853,7 +8853,7 @@
         <v>74</v>
       </c>
       <c r="E247" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F247" t="n">
         <v>0</v>
@@ -8873,7 +8873,7 @@
     </row>
     <row r="248" spans="1:26">
       <c r="A248" t="n">
-        <v>3439</v>
+        <v>11818</v>
       </c>
       <c r="B248" t="s">
         <v>146</v>
@@ -8885,7 +8885,7 @@
         <v>55</v>
       </c>
       <c r="E248" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F248" t="n">
         <v>0</v>
@@ -8905,7 +8905,7 @@
     </row>
     <row r="249" spans="1:26">
       <c r="A249" t="n">
-        <v>3440</v>
+        <v>11819</v>
       </c>
       <c r="B249" t="s">
         <v>146</v>
@@ -8917,7 +8917,7 @@
         <v>56</v>
       </c>
       <c r="E249" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F249" t="n">
         <v>0</v>
@@ -8937,7 +8937,7 @@
     </row>
     <row r="250" spans="1:26">
       <c r="A250" t="n">
-        <v>3441</v>
+        <v>11820</v>
       </c>
       <c r="B250" t="s">
         <v>146</v>
@@ -8949,7 +8949,7 @@
         <v>70</v>
       </c>
       <c r="E250" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F250" t="n">
         <v>0</v>
@@ -8969,7 +8969,7 @@
     </row>
     <row r="251" spans="1:26">
       <c r="A251" t="n">
-        <v>3442</v>
+        <v>11821</v>
       </c>
       <c r="B251" t="s">
         <v>146</v>
@@ -8981,7 +8981,7 @@
         <v>74</v>
       </c>
       <c r="E251" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F251" t="n">
         <v>0</v>
@@ -9001,7 +9001,7 @@
     </row>
     <row r="252" spans="1:26">
       <c r="A252" t="n">
-        <v>3443</v>
+        <v>11822</v>
       </c>
       <c r="B252" t="s">
         <v>147</v>
@@ -9013,7 +9013,7 @@
         <v>55</v>
       </c>
       <c r="E252" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -9033,7 +9033,7 @@
     </row>
     <row r="253" spans="1:26">
       <c r="A253" t="n">
-        <v>3444</v>
+        <v>11823</v>
       </c>
       <c r="B253" t="s">
         <v>147</v>
@@ -9045,7 +9045,7 @@
         <v>68</v>
       </c>
       <c r="E253" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F253" t="n">
         <v>0</v>
@@ -9065,7 +9065,7 @@
     </row>
     <row r="254" spans="1:26">
       <c r="A254" t="n">
-        <v>3445</v>
+        <v>11824</v>
       </c>
       <c r="B254" t="s">
         <v>148</v>
@@ -9077,7 +9077,7 @@
         <v>55</v>
       </c>
       <c r="E254" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
@@ -9097,7 +9097,7 @@
     </row>
     <row r="255" spans="1:26">
       <c r="A255" t="n">
-        <v>3446</v>
+        <v>11825</v>
       </c>
       <c r="B255" t="s">
         <v>148</v>
@@ -9109,7 +9109,7 @@
         <v>56</v>
       </c>
       <c r="E255" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F255" t="n">
         <v>0</v>
@@ -9129,7 +9129,7 @@
     </row>
     <row r="256" spans="1:26">
       <c r="A256" t="n">
-        <v>3447</v>
+        <v>11826</v>
       </c>
       <c r="B256" t="s">
         <v>148</v>
@@ -9141,7 +9141,7 @@
         <v>70</v>
       </c>
       <c r="E256" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
     </row>
     <row r="257" spans="1:26">
       <c r="A257" t="n">
-        <v>3448</v>
+        <v>11827</v>
       </c>
       <c r="B257" t="s">
         <v>148</v>
@@ -9173,7 +9173,7 @@
         <v>74</v>
       </c>
       <c r="E257" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F257" t="n">
         <v>0</v>
@@ -9193,7 +9193,7 @@
     </row>
     <row r="258" spans="1:26">
       <c r="A258" t="n">
-        <v>3449</v>
+        <v>11828</v>
       </c>
       <c r="B258" t="s">
         <v>149</v>
@@ -9205,7 +9205,7 @@
         <v>55</v>
       </c>
       <c r="E258" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9225,7 +9225,7 @@
     </row>
     <row r="259" spans="1:26">
       <c r="A259" t="n">
-        <v>3450</v>
+        <v>11829</v>
       </c>
       <c r="B259" t="s">
         <v>149</v>
@@ -9237,7 +9237,7 @@
         <v>70</v>
       </c>
       <c r="E259" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F259" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
     </row>
     <row r="260" spans="1:26">
       <c r="A260" t="n">
-        <v>3451</v>
+        <v>11830</v>
       </c>
       <c r="B260" t="s">
         <v>149</v>
@@ -9269,7 +9269,7 @@
         <v>71</v>
       </c>
       <c r="E260" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F260" t="n">
         <v>0</v>
@@ -9289,7 +9289,7 @@
     </row>
     <row r="261" spans="1:26">
       <c r="A261" t="n">
-        <v>3452</v>
+        <v>11831</v>
       </c>
       <c r="B261" t="s">
         <v>149</v>
@@ -9301,7 +9301,7 @@
         <v>57</v>
       </c>
       <c r="E261" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F261" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
     </row>
     <row r="262" spans="1:26">
       <c r="A262" t="n">
-        <v>3453</v>
+        <v>11832</v>
       </c>
       <c r="B262" t="s">
         <v>149</v>
@@ -9333,7 +9333,7 @@
         <v>62</v>
       </c>
       <c r="E262" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F262" t="n">
         <v>0</v>
@@ -9353,7 +9353,7 @@
     </row>
     <row r="263" spans="1:26">
       <c r="A263" t="n">
-        <v>3454</v>
+        <v>11833</v>
       </c>
       <c r="B263" t="s">
         <v>150</v>
@@ -9365,7 +9365,7 @@
         <v>55</v>
       </c>
       <c r="E263" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F263" t="n">
         <v>0</v>
@@ -9385,7 +9385,7 @@
     </row>
     <row r="264" spans="1:26">
       <c r="A264" t="n">
-        <v>3455</v>
+        <v>11834</v>
       </c>
       <c r="B264" t="s">
         <v>150</v>
@@ -9397,7 +9397,7 @@
         <v>56</v>
       </c>
       <c r="E264" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F264" t="n">
         <v>0</v>
@@ -9417,7 +9417,7 @@
     </row>
     <row r="265" spans="1:26">
       <c r="A265" t="n">
-        <v>3456</v>
+        <v>11835</v>
       </c>
       <c r="B265" t="s">
         <v>150</v>
@@ -9429,7 +9429,7 @@
         <v>70</v>
       </c>
       <c r="E265" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F265" t="n">
         <v>0</v>
@@ -9449,7 +9449,7 @@
     </row>
     <row r="266" spans="1:26">
       <c r="A266" t="n">
-        <v>3457</v>
+        <v>11836</v>
       </c>
       <c r="B266" t="s">
         <v>150</v>
@@ -9461,7 +9461,7 @@
         <v>74</v>
       </c>
       <c r="E266" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F266" t="n">
         <v>0</v>
@@ -9481,7 +9481,7 @@
     </row>
     <row r="267" spans="1:26">
       <c r="A267" t="n">
-        <v>3458</v>
+        <v>11837</v>
       </c>
       <c r="B267" t="s">
         <v>151</v>
@@ -9493,7 +9493,7 @@
         <v>55</v>
       </c>
       <c r="E267" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F267" t="n">
         <v>0</v>
@@ -9513,7 +9513,7 @@
     </row>
     <row r="268" spans="1:26">
       <c r="A268" t="n">
-        <v>3459</v>
+        <v>11838</v>
       </c>
       <c r="B268" t="s">
         <v>151</v>
@@ -9525,7 +9525,7 @@
         <v>56</v>
       </c>
       <c r="E268" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F268" t="n">
         <v>0</v>
@@ -9545,7 +9545,7 @@
     </row>
     <row r="269" spans="1:26">
       <c r="A269" t="n">
-        <v>3460</v>
+        <v>11839</v>
       </c>
       <c r="B269" t="s">
         <v>151</v>
@@ -9557,7 +9557,7 @@
         <v>70</v>
       </c>
       <c r="E269" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F269" t="n">
         <v>0</v>
@@ -9577,7 +9577,7 @@
     </row>
     <row r="270" spans="1:26">
       <c r="A270" t="n">
-        <v>3461</v>
+        <v>11840</v>
       </c>
       <c r="B270" t="s">
         <v>151</v>
@@ -9589,7 +9589,7 @@
         <v>74</v>
       </c>
       <c r="E270" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F270" t="n">
         <v>0</v>
@@ -9609,7 +9609,7 @@
     </row>
     <row r="271" spans="1:26">
       <c r="A271" t="n">
-        <v>3462</v>
+        <v>11841</v>
       </c>
       <c r="B271" t="s">
         <v>152</v>
@@ -9621,7 +9621,7 @@
         <v>55</v>
       </c>
       <c r="E271" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F271" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
     </row>
     <row r="272" spans="1:26">
       <c r="A272" t="n">
-        <v>3463</v>
+        <v>11842</v>
       </c>
       <c r="B272" t="s">
         <v>152</v>
@@ -9653,7 +9653,7 @@
         <v>56</v>
       </c>
       <c r="E272" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F272" t="n">
         <v>0</v>
@@ -9673,7 +9673,7 @@
     </row>
     <row r="273" spans="1:26">
       <c r="A273" t="n">
-        <v>3464</v>
+        <v>11843</v>
       </c>
       <c r="B273" t="s">
         <v>152</v>
@@ -9685,7 +9685,7 @@
         <v>70</v>
       </c>
       <c r="E273" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F273" t="n">
         <v>0</v>
@@ -9705,7 +9705,7 @@
     </row>
     <row r="274" spans="1:26">
       <c r="A274" t="n">
-        <v>3465</v>
+        <v>11844</v>
       </c>
       <c r="B274" t="s">
         <v>152</v>
@@ -9717,7 +9717,7 @@
         <v>74</v>
       </c>
       <c r="E274" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F274" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
     </row>
     <row r="275" spans="1:26">
       <c r="A275" t="n">
-        <v>3466</v>
+        <v>11845</v>
       </c>
       <c r="B275" t="s">
         <v>153</v>
@@ -9749,7 +9749,7 @@
         <v>55</v>
       </c>
       <c r="E275" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F275" t="n">
         <v>0</v>
@@ -9769,7 +9769,7 @@
     </row>
     <row r="276" spans="1:26">
       <c r="A276" t="n">
-        <v>3467</v>
+        <v>11846</v>
       </c>
       <c r="B276" t="s">
         <v>153</v>
@@ -9781,7 +9781,7 @@
         <v>56</v>
       </c>
       <c r="E276" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F276" t="n">
         <v>0</v>
@@ -9801,7 +9801,7 @@
     </row>
     <row r="277" spans="1:26">
       <c r="A277" t="n">
-        <v>3468</v>
+        <v>11847</v>
       </c>
       <c r="B277" t="s">
         <v>153</v>
@@ -9813,7 +9813,7 @@
         <v>70</v>
       </c>
       <c r="E277" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F277" t="n">
         <v>0</v>
@@ -9833,7 +9833,7 @@
     </row>
     <row r="278" spans="1:26">
       <c r="A278" t="n">
-        <v>3469</v>
+        <v>11848</v>
       </c>
       <c r="B278" t="s">
         <v>153</v>
@@ -9845,7 +9845,7 @@
         <v>74</v>
       </c>
       <c r="E278" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F278" t="n">
         <v>0</v>
@@ -9865,7 +9865,7 @@
     </row>
     <row r="279" spans="1:26">
       <c r="A279" t="n">
-        <v>3470</v>
+        <v>11849</v>
       </c>
       <c r="B279" t="s">
         <v>154</v>
@@ -9877,7 +9877,7 @@
         <v>55</v>
       </c>
       <c r="E279" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F279" t="n">
         <v>0</v>
@@ -9897,7 +9897,7 @@
     </row>
     <row r="280" spans="1:26">
       <c r="A280" t="n">
-        <v>3471</v>
+        <v>11850</v>
       </c>
       <c r="B280" t="s">
         <v>154</v>
@@ -9909,7 +9909,7 @@
         <v>70</v>
       </c>
       <c r="E280" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F280" t="n">
         <v>0</v>
@@ -9929,7 +9929,7 @@
     </row>
     <row r="281" spans="1:26">
       <c r="A281" t="n">
-        <v>3472</v>
+        <v>11851</v>
       </c>
       <c r="B281" t="s">
         <v>154</v>
@@ -9941,7 +9941,7 @@
         <v>74</v>
       </c>
       <c r="E281" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F281" t="n">
         <v>0</v>
@@ -9961,7 +9961,7 @@
     </row>
     <row r="282" spans="1:26">
       <c r="A282" t="n">
-        <v>3473</v>
+        <v>11852</v>
       </c>
       <c r="B282" t="s">
         <v>155</v>
@@ -9973,7 +9973,7 @@
         <v>55</v>
       </c>
       <c r="E282" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F282" t="n">
         <v>0</v>
@@ -9993,7 +9993,7 @@
     </row>
     <row r="283" spans="1:26">
       <c r="A283" t="n">
-        <v>3474</v>
+        <v>11853</v>
       </c>
       <c r="B283" t="s">
         <v>155</v>
@@ -10005,7 +10005,7 @@
         <v>56</v>
       </c>
       <c r="E283" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F283" t="n">
         <v>0</v>
@@ -10025,7 +10025,7 @@
     </row>
     <row r="284" spans="1:26">
       <c r="A284" t="n">
-        <v>3475</v>
+        <v>11854</v>
       </c>
       <c r="B284" t="s">
         <v>155</v>
@@ -10037,7 +10037,7 @@
         <v>70</v>
       </c>
       <c r="E284" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F284" t="n">
         <v>0</v>
@@ -10057,7 +10057,7 @@
     </row>
     <row r="285" spans="1:26">
       <c r="A285" t="n">
-        <v>3476</v>
+        <v>11855</v>
       </c>
       <c r="B285" t="s">
         <v>155</v>
@@ -10069,7 +10069,7 @@
         <v>71</v>
       </c>
       <c r="E285" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F285" t="n">
         <v>0</v>
@@ -10089,7 +10089,7 @@
     </row>
     <row r="286" spans="1:26">
       <c r="A286" t="n">
-        <v>3477</v>
+        <v>11856</v>
       </c>
       <c r="B286" t="s">
         <v>155</v>
@@ -10101,7 +10101,7 @@
         <v>72</v>
       </c>
       <c r="E286" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F286" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
     </row>
     <row r="287" spans="1:26">
       <c r="A287" t="n">
-        <v>3478</v>
+        <v>11857</v>
       </c>
       <c r="B287" t="s">
         <v>156</v>
@@ -10133,7 +10133,7 @@
         <v>55</v>
       </c>
       <c r="E287" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F287" t="n">
         <v>0</v>
@@ -10153,7 +10153,7 @@
     </row>
     <row r="288" spans="1:26">
       <c r="A288" t="n">
-        <v>3479</v>
+        <v>11858</v>
       </c>
       <c r="B288" t="s">
         <v>156</v>
@@ -10165,7 +10165,7 @@
         <v>56</v>
       </c>
       <c r="E288" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F288" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
     </row>
     <row r="289" spans="1:26">
       <c r="A289" t="n">
-        <v>3480</v>
+        <v>11859</v>
       </c>
       <c r="B289" t="s">
         <v>156</v>
@@ -10197,7 +10197,7 @@
         <v>70</v>
       </c>
       <c r="E289" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F289" t="n">
         <v>0</v>
@@ -10217,7 +10217,7 @@
     </row>
     <row r="290" spans="1:26">
       <c r="A290" t="n">
-        <v>3481</v>
+        <v>11860</v>
       </c>
       <c r="B290" t="s">
         <v>156</v>
@@ -10229,7 +10229,7 @@
         <v>74</v>
       </c>
       <c r="E290" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F290" t="n">
         <v>0</v>
@@ -10249,7 +10249,7 @@
     </row>
     <row r="291" spans="1:26">
       <c r="A291" t="n">
-        <v>3482</v>
+        <v>11861</v>
       </c>
       <c r="B291" t="s">
         <v>157</v>
@@ -10261,7 +10261,7 @@
         <v>55</v>
       </c>
       <c r="E291" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F291" t="n">
         <v>0</v>
@@ -10281,7 +10281,7 @@
     </row>
     <row r="292" spans="1:26">
       <c r="A292" t="n">
-        <v>3483</v>
+        <v>11862</v>
       </c>
       <c r="B292" t="s">
         <v>157</v>
@@ -10293,7 +10293,7 @@
         <v>70</v>
       </c>
       <c r="E292" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F292" t="n">
         <v>0</v>
@@ -10313,7 +10313,7 @@
     </row>
     <row r="293" spans="1:26">
       <c r="A293" t="n">
-        <v>3484</v>
+        <v>11863</v>
       </c>
       <c r="B293" t="s">
         <v>157</v>
@@ -10325,7 +10325,7 @@
         <v>74</v>
       </c>
       <c r="E293" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F293" t="n">
         <v>0</v>
@@ -10345,7 +10345,7 @@
     </row>
     <row r="294" spans="1:26">
       <c r="A294" t="n">
-        <v>3485</v>
+        <v>11864</v>
       </c>
       <c r="B294" t="s">
         <v>158</v>
@@ -10357,7 +10357,7 @@
         <v>55</v>
       </c>
       <c r="E294" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F294" t="n">
         <v>0</v>
@@ -10377,7 +10377,7 @@
     </row>
     <row r="295" spans="1:26">
       <c r="A295" t="n">
-        <v>3486</v>
+        <v>11865</v>
       </c>
       <c r="B295" t="s">
         <v>158</v>
@@ -10389,7 +10389,7 @@
         <v>68</v>
       </c>
       <c r="E295" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F295" t="n">
         <v>0</v>
@@ -10409,7 +10409,7 @@
     </row>
     <row r="296" spans="1:26">
       <c r="A296" t="n">
-        <v>3487</v>
+        <v>11866</v>
       </c>
       <c r="B296" t="s">
         <v>159</v>
@@ -10421,7 +10421,7 @@
         <v>55</v>
       </c>
       <c r="E296" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F296" t="n">
         <v>0</v>
@@ -10441,7 +10441,7 @@
     </row>
     <row r="297" spans="1:26">
       <c r="A297" t="n">
-        <v>3488</v>
+        <v>11867</v>
       </c>
       <c r="B297" t="s">
         <v>159</v>
@@ -10453,7 +10453,7 @@
         <v>56</v>
       </c>
       <c r="E297" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F297" t="n">
         <v>0</v>
@@ -10473,7 +10473,7 @@
     </row>
     <row r="298" spans="1:26">
       <c r="A298" t="n">
-        <v>3489</v>
+        <v>11868</v>
       </c>
       <c r="B298" t="s">
         <v>159</v>
@@ -10485,7 +10485,7 @@
         <v>70</v>
       </c>
       <c r="E298" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F298" t="n">
         <v>0</v>
@@ -10505,7 +10505,7 @@
     </row>
     <row r="299" spans="1:26">
       <c r="A299" t="n">
-        <v>3490</v>
+        <v>11869</v>
       </c>
       <c r="B299" t="s">
         <v>159</v>
@@ -10517,7 +10517,7 @@
         <v>74</v>
       </c>
       <c r="E299" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F299" t="n">
         <v>0</v>
@@ -10537,7 +10537,7 @@
     </row>
     <row r="300" spans="1:26">
       <c r="A300" t="n">
-        <v>3491</v>
+        <v>11870</v>
       </c>
       <c r="B300" t="s">
         <v>160</v>
@@ -10549,7 +10549,7 @@
         <v>55</v>
       </c>
       <c r="E300" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F300" t="n">
         <v>0</v>
@@ -10569,7 +10569,7 @@
     </row>
     <row r="301" spans="1:26">
       <c r="A301" t="n">
-        <v>3492</v>
+        <v>11871</v>
       </c>
       <c r="B301" t="s">
         <v>160</v>
@@ -10581,7 +10581,7 @@
         <v>56</v>
       </c>
       <c r="E301" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F301" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
     </row>
     <row r="302" spans="1:26">
       <c r="A302" t="n">
-        <v>3493</v>
+        <v>11872</v>
       </c>
       <c r="B302" t="s">
         <v>160</v>
@@ -10613,7 +10613,7 @@
         <v>70</v>
       </c>
       <c r="E302" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F302" t="n">
         <v>0</v>
@@ -10633,7 +10633,7 @@
     </row>
     <row r="303" spans="1:26">
       <c r="A303" t="n">
-        <v>3494</v>
+        <v>11873</v>
       </c>
       <c r="B303" t="s">
         <v>160</v>
@@ -10645,7 +10645,7 @@
         <v>74</v>
       </c>
       <c r="E303" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F303" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
     </row>
     <row r="304" spans="1:26">
       <c r="A304" t="n">
-        <v>3495</v>
+        <v>11874</v>
       </c>
       <c r="B304" t="s">
         <v>161</v>
@@ -10677,7 +10677,7 @@
         <v>55</v>
       </c>
       <c r="E304" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F304" t="n">
         <v>0</v>
@@ -10697,7 +10697,7 @@
     </row>
     <row r="305" spans="1:26">
       <c r="A305" t="n">
-        <v>3496</v>
+        <v>11875</v>
       </c>
       <c r="B305" t="s">
         <v>161</v>
@@ -10709,7 +10709,7 @@
         <v>56</v>
       </c>
       <c r="E305" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F305" t="n">
         <v>0</v>
@@ -10729,7 +10729,7 @@
     </row>
     <row r="306" spans="1:26">
       <c r="A306" t="n">
-        <v>3497</v>
+        <v>11876</v>
       </c>
       <c r="B306" t="s">
         <v>161</v>
@@ -10741,7 +10741,7 @@
         <v>70</v>
       </c>
       <c r="E306" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F306" t="n">
         <v>0</v>
@@ -10761,7 +10761,7 @@
     </row>
     <row r="307" spans="1:26">
       <c r="A307" t="n">
-        <v>3498</v>
+        <v>11877</v>
       </c>
       <c r="B307" t="s">
         <v>161</v>
@@ -10773,7 +10773,7 @@
         <v>71</v>
       </c>
       <c r="E307" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F307" t="n">
         <v>0</v>
@@ -10793,7 +10793,7 @@
     </row>
     <row r="308" spans="1:26">
       <c r="A308" t="n">
-        <v>3499</v>
+        <v>11878</v>
       </c>
       <c r="B308" t="s">
         <v>161</v>
@@ -10805,7 +10805,7 @@
         <v>72</v>
       </c>
       <c r="E308" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F308" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
     </row>
     <row r="309" spans="1:26">
       <c r="A309" t="n">
-        <v>3500</v>
+        <v>11879</v>
       </c>
       <c r="B309" t="s">
         <v>162</v>
@@ -10837,7 +10837,7 @@
         <v>55</v>
       </c>
       <c r="E309" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F309" t="n">
         <v>0</v>
@@ -10857,7 +10857,7 @@
     </row>
     <row r="310" spans="1:26">
       <c r="A310" t="n">
-        <v>3501</v>
+        <v>11880</v>
       </c>
       <c r="B310" t="s">
         <v>162</v>
@@ -10869,7 +10869,7 @@
         <v>68</v>
       </c>
       <c r="E310" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F310" t="n">
         <v>0</v>
@@ -10889,7 +10889,7 @@
     </row>
     <row r="311" spans="1:26">
       <c r="A311" t="n">
-        <v>3502</v>
+        <v>11881</v>
       </c>
       <c r="B311" t="s">
         <v>163</v>
@@ -10901,7 +10901,7 @@
         <v>55</v>
       </c>
       <c r="E311" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F311" t="n">
         <v>0</v>
@@ -10921,7 +10921,7 @@
     </row>
     <row r="312" spans="1:26">
       <c r="A312" t="n">
-        <v>3503</v>
+        <v>11882</v>
       </c>
       <c r="B312" t="s">
         <v>163</v>
@@ -10933,7 +10933,7 @@
         <v>56</v>
       </c>
       <c r="E312" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F312" t="n">
         <v>0</v>
@@ -10953,7 +10953,7 @@
     </row>
     <row r="313" spans="1:26">
       <c r="A313" t="n">
-        <v>3504</v>
+        <v>11883</v>
       </c>
       <c r="B313" t="s">
         <v>163</v>
@@ -10965,7 +10965,7 @@
         <v>70</v>
       </c>
       <c r="E313" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F313" t="n">
         <v>0</v>
@@ -10985,7 +10985,7 @@
     </row>
     <row r="314" spans="1:26">
       <c r="A314" t="n">
-        <v>3505</v>
+        <v>11884</v>
       </c>
       <c r="B314" t="s">
         <v>163</v>
@@ -10997,7 +10997,7 @@
         <v>74</v>
       </c>
       <c r="E314" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F314" t="n">
         <v>0</v>
@@ -11017,7 +11017,7 @@
     </row>
     <row r="315" spans="1:26">
       <c r="A315" t="n">
-        <v>3506</v>
+        <v>11885</v>
       </c>
       <c r="B315" t="s">
         <v>164</v>
@@ -11029,7 +11029,7 @@
         <v>55</v>
       </c>
       <c r="E315" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F315" t="n">
         <v>0</v>
@@ -11049,7 +11049,7 @@
     </row>
     <row r="316" spans="1:26">
       <c r="A316" t="n">
-        <v>3507</v>
+        <v>11886</v>
       </c>
       <c r="B316" t="s">
         <v>164</v>
@@ -11061,7 +11061,7 @@
         <v>56</v>
       </c>
       <c r="E316" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F316" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
     </row>
     <row r="317" spans="1:26">
       <c r="A317" t="n">
-        <v>3508</v>
+        <v>11887</v>
       </c>
       <c r="B317" t="s">
         <v>164</v>
@@ -11093,7 +11093,7 @@
         <v>70</v>
       </c>
       <c r="E317" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F317" t="n">
         <v>0</v>
@@ -11113,7 +11113,7 @@
     </row>
     <row r="318" spans="1:26">
       <c r="A318" t="n">
-        <v>3509</v>
+        <v>11888</v>
       </c>
       <c r="B318" t="s">
         <v>164</v>
@@ -11125,7 +11125,7 @@
         <v>74</v>
       </c>
       <c r="E318" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F318" t="n">
         <v>0</v>
@@ -11145,7 +11145,7 @@
     </row>
     <row r="319" spans="1:26">
       <c r="A319" t="n">
-        <v>3510</v>
+        <v>11889</v>
       </c>
       <c r="B319" t="s">
         <v>165</v>
@@ -11157,7 +11157,7 @@
         <v>55</v>
       </c>
       <c r="E319" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F319" t="n">
         <v>0</v>
@@ -11177,7 +11177,7 @@
     </row>
     <row r="320" spans="1:26">
       <c r="A320" t="n">
-        <v>3511</v>
+        <v>11890</v>
       </c>
       <c r="B320" t="s">
         <v>165</v>
@@ -11189,7 +11189,7 @@
         <v>70</v>
       </c>
       <c r="E320" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F320" t="n">
         <v>0</v>
@@ -11209,7 +11209,7 @@
     </row>
     <row r="321" spans="1:26">
       <c r="A321" t="n">
-        <v>3512</v>
+        <v>11891</v>
       </c>
       <c r="B321" t="s">
         <v>165</v>
@@ -11221,7 +11221,7 @@
         <v>74</v>
       </c>
       <c r="E321" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F321" t="n">
         <v>0</v>
@@ -11241,7 +11241,7 @@
     </row>
     <row r="322" spans="1:26">
       <c r="A322" t="n">
-        <v>3513</v>
+        <v>11892</v>
       </c>
       <c r="B322" t="s">
         <v>166</v>
@@ -11253,7 +11253,7 @@
         <v>55</v>
       </c>
       <c r="E322" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F322" t="n">
         <v>0</v>
@@ -11273,7 +11273,7 @@
     </row>
     <row r="323" spans="1:26">
       <c r="A323" t="n">
-        <v>3514</v>
+        <v>11893</v>
       </c>
       <c r="B323" t="s">
         <v>166</v>
@@ -11285,7 +11285,7 @@
         <v>56</v>
       </c>
       <c r="E323" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F323" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
     </row>
     <row r="324" spans="1:26">
       <c r="A324" t="n">
-        <v>3515</v>
+        <v>11894</v>
       </c>
       <c r="B324" t="s">
         <v>166</v>
@@ -11317,7 +11317,7 @@
         <v>70</v>
       </c>
       <c r="E324" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F324" t="n">
         <v>0</v>
@@ -11337,7 +11337,7 @@
     </row>
     <row r="325" spans="1:26">
       <c r="A325" t="n">
-        <v>3516</v>
+        <v>11895</v>
       </c>
       <c r="B325" t="s">
         <v>166</v>
@@ -11349,7 +11349,7 @@
         <v>74</v>
       </c>
       <c r="E325" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F325" t="n">
         <v>0</v>
@@ -11369,7 +11369,7 @@
     </row>
     <row r="326" spans="1:26">
       <c r="A326" t="n">
-        <v>3517</v>
+        <v>11896</v>
       </c>
       <c r="B326" t="s">
         <v>167</v>
@@ -11381,7 +11381,7 @@
         <v>55</v>
       </c>
       <c r="E326" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F326" t="n">
         <v>0</v>
@@ -11401,7 +11401,7 @@
     </row>
     <row r="327" spans="1:26">
       <c r="A327" t="n">
-        <v>3518</v>
+        <v>11897</v>
       </c>
       <c r="B327" t="s">
         <v>167</v>
@@ -11413,7 +11413,7 @@
         <v>56</v>
       </c>
       <c r="E327" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F327" t="n">
         <v>0</v>
@@ -11433,7 +11433,7 @@
     </row>
     <row r="328" spans="1:26">
       <c r="A328" t="n">
-        <v>3519</v>
+        <v>11898</v>
       </c>
       <c r="B328" t="s">
         <v>167</v>
@@ -11445,7 +11445,7 @@
         <v>70</v>
       </c>
       <c r="E328" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F328" t="n">
         <v>0</v>
@@ -11465,7 +11465,7 @@
     </row>
     <row r="329" spans="1:26">
       <c r="A329" t="n">
-        <v>3520</v>
+        <v>11899</v>
       </c>
       <c r="B329" t="s">
         <v>167</v>
@@ -11477,7 +11477,7 @@
         <v>71</v>
       </c>
       <c r="E329" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F329" t="n">
         <v>0</v>
@@ -11497,7 +11497,7 @@
     </row>
     <row r="330" spans="1:26">
       <c r="A330" t="n">
-        <v>3521</v>
+        <v>11900</v>
       </c>
       <c r="B330" t="s">
         <v>167</v>
@@ -11509,7 +11509,7 @@
         <v>72</v>
       </c>
       <c r="E330" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F330" t="n">
         <v>0</v>
@@ -11529,7 +11529,7 @@
     </row>
     <row r="331" spans="1:26">
       <c r="A331" t="n">
-        <v>3522</v>
+        <v>11901</v>
       </c>
       <c r="B331" t="s">
         <v>168</v>
@@ -11541,7 +11541,7 @@
         <v>55</v>
       </c>
       <c r="E331" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F331" t="n">
         <v>0</v>
@@ -11561,7 +11561,7 @@
     </row>
     <row r="332" spans="1:26">
       <c r="A332" t="n">
-        <v>3523</v>
+        <v>11902</v>
       </c>
       <c r="B332" t="s">
         <v>168</v>
@@ -11573,7 +11573,7 @@
         <v>70</v>
       </c>
       <c r="E332" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F332" t="n">
         <v>0</v>
@@ -11593,7 +11593,7 @@
     </row>
     <row r="333" spans="1:26">
       <c r="A333" t="n">
-        <v>3524</v>
+        <v>11903</v>
       </c>
       <c r="B333" t="s">
         <v>168</v>
@@ -11605,7 +11605,7 @@
         <v>74</v>
       </c>
       <c r="E333" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F333" t="n">
         <v>0</v>
@@ -11625,7 +11625,7 @@
     </row>
     <row r="334" spans="1:26">
       <c r="A334" t="n">
-        <v>3525</v>
+        <v>11904</v>
       </c>
       <c r="B334" t="s">
         <v>169</v>
@@ -11637,7 +11637,7 @@
         <v>55</v>
       </c>
       <c r="E334" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F334" t="n">
         <v>0</v>
@@ -11657,7 +11657,7 @@
     </row>
     <row r="335" spans="1:26">
       <c r="A335" t="n">
-        <v>3526</v>
+        <v>11905</v>
       </c>
       <c r="B335" t="s">
         <v>169</v>
@@ -11669,7 +11669,7 @@
         <v>70</v>
       </c>
       <c r="E335" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F335" t="n">
         <v>0</v>
@@ -11689,7 +11689,7 @@
     </row>
     <row r="336" spans="1:26">
       <c r="A336" t="n">
-        <v>3527</v>
+        <v>11906</v>
       </c>
       <c r="B336" t="s">
         <v>169</v>
@@ -11701,7 +11701,7 @@
         <v>74</v>
       </c>
       <c r="E336" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F336" t="n">
         <v>0</v>
@@ -11721,7 +11721,7 @@
     </row>
     <row r="337" spans="1:26">
       <c r="A337" t="n">
-        <v>3528</v>
+        <v>11907</v>
       </c>
       <c r="B337" t="s">
         <v>170</v>
@@ -11733,7 +11733,7 @@
         <v>55</v>
       </c>
       <c r="E337" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F337" t="n">
         <v>0</v>
@@ -11753,7 +11753,7 @@
     </row>
     <row r="338" spans="1:26">
       <c r="A338" t="n">
-        <v>3529</v>
+        <v>11908</v>
       </c>
       <c r="B338" t="s">
         <v>170</v>
@@ -11765,7 +11765,7 @@
         <v>56</v>
       </c>
       <c r="E338" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F338" t="n">
         <v>0</v>
@@ -11785,7 +11785,7 @@
     </row>
     <row r="339" spans="1:26">
       <c r="A339" t="n">
-        <v>3530</v>
+        <v>11909</v>
       </c>
       <c r="B339" t="s">
         <v>170</v>
@@ -11797,7 +11797,7 @@
         <v>70</v>
       </c>
       <c r="E339" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F339" t="n">
         <v>0</v>
@@ -11817,7 +11817,7 @@
     </row>
     <row r="340" spans="1:26">
       <c r="A340" t="n">
-        <v>3531</v>
+        <v>11910</v>
       </c>
       <c r="B340" t="s">
         <v>170</v>
@@ -11829,7 +11829,7 @@
         <v>71</v>
       </c>
       <c r="E340" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F340" t="n">
         <v>0</v>
@@ -11849,7 +11849,7 @@
     </row>
     <row r="341" spans="1:26">
       <c r="A341" t="n">
-        <v>3532</v>
+        <v>11911</v>
       </c>
       <c r="B341" t="s">
         <v>170</v>
@@ -11861,7 +11861,7 @@
         <v>72</v>
       </c>
       <c r="E341" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F341" t="n">
         <v>0</v>
@@ -11881,7 +11881,7 @@
     </row>
     <row r="342" spans="1:26">
       <c r="A342" t="n">
-        <v>3533</v>
+        <v>11912</v>
       </c>
       <c r="B342" t="s">
         <v>171</v>
@@ -11893,7 +11893,7 @@
         <v>55</v>
       </c>
       <c r="E342" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F342" t="n">
         <v>0</v>
@@ -11913,7 +11913,7 @@
     </row>
     <row r="343" spans="1:26">
       <c r="A343" t="n">
-        <v>3534</v>
+        <v>11913</v>
       </c>
       <c r="B343" t="s">
         <v>171</v>
@@ -11925,7 +11925,7 @@
         <v>68</v>
       </c>
       <c r="E343" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F343" t="n">
         <v>0</v>
@@ -11945,7 +11945,7 @@
     </row>
     <row r="344" spans="1:26">
       <c r="A344" t="n">
-        <v>3535</v>
+        <v>11914</v>
       </c>
       <c r="B344" t="s">
         <v>172</v>
@@ -11957,7 +11957,7 @@
         <v>55</v>
       </c>
       <c r="E344" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F344" t="n">
         <v>0</v>
@@ -11977,7 +11977,7 @@
     </row>
     <row r="345" spans="1:26">
       <c r="A345" t="n">
-        <v>3536</v>
+        <v>11915</v>
       </c>
       <c r="B345" t="s">
         <v>172</v>
@@ -11989,7 +11989,7 @@
         <v>56</v>
       </c>
       <c r="E345" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F345" t="n">
         <v>0</v>
@@ -12009,7 +12009,7 @@
     </row>
     <row r="346" spans="1:26">
       <c r="A346" t="n">
-        <v>3537</v>
+        <v>11916</v>
       </c>
       <c r="B346" t="s">
         <v>172</v>
@@ -12021,7 +12021,7 @@
         <v>70</v>
       </c>
       <c r="E346" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F346" t="n">
         <v>0</v>
@@ -12041,7 +12041,7 @@
     </row>
     <row r="347" spans="1:26">
       <c r="A347" t="n">
-        <v>3538</v>
+        <v>11917</v>
       </c>
       <c r="B347" t="s">
         <v>172</v>
@@ -12053,7 +12053,7 @@
         <v>74</v>
       </c>
       <c r="E347" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F347" t="n">
         <v>0</v>
@@ -12073,7 +12073,7 @@
     </row>
     <row r="348" spans="1:26">
       <c r="A348" t="n">
-        <v>3539</v>
+        <v>11918</v>
       </c>
       <c r="B348" t="s">
         <v>173</v>
@@ -12085,7 +12085,7 @@
         <v>55</v>
       </c>
       <c r="E348" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F348" t="n">
         <v>0</v>
@@ -12105,7 +12105,7 @@
     </row>
     <row r="349" spans="1:26">
       <c r="A349" t="n">
-        <v>3540</v>
+        <v>11919</v>
       </c>
       <c r="B349" t="s">
         <v>173</v>
@@ -12117,7 +12117,7 @@
         <v>56</v>
       </c>
       <c r="E349" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F349" t="n">
         <v>0</v>
@@ -12137,7 +12137,7 @@
     </row>
     <row r="350" spans="1:26">
       <c r="A350" t="n">
-        <v>3541</v>
+        <v>11920</v>
       </c>
       <c r="B350" t="s">
         <v>173</v>
@@ -12149,7 +12149,7 @@
         <v>70</v>
       </c>
       <c r="E350" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F350" t="n">
         <v>0</v>
@@ -12169,7 +12169,7 @@
     </row>
     <row r="351" spans="1:26">
       <c r="A351" t="n">
-        <v>3542</v>
+        <v>11921</v>
       </c>
       <c r="B351" t="s">
         <v>173</v>
@@ -12181,7 +12181,7 @@
         <v>71</v>
       </c>
       <c r="E351" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F351" t="n">
         <v>0</v>
@@ -12201,7 +12201,7 @@
     </row>
     <row r="352" spans="1:26">
       <c r="A352" t="n">
-        <v>3543</v>
+        <v>11922</v>
       </c>
       <c r="B352" t="s">
         <v>173</v>
@@ -12213,7 +12213,7 @@
         <v>72</v>
       </c>
       <c r="E352" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F352" t="n">
         <v>0</v>
@@ -12233,7 +12233,7 @@
     </row>
     <row r="353" spans="1:26">
       <c r="A353" t="n">
-        <v>3544</v>
+        <v>11923</v>
       </c>
       <c r="B353" t="s">
         <v>174</v>
@@ -12245,7 +12245,7 @@
         <v>55</v>
       </c>
       <c r="E353" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F353" t="n">
         <v>0</v>
@@ -12265,7 +12265,7 @@
     </row>
     <row r="354" spans="1:26">
       <c r="A354" t="n">
-        <v>3545</v>
+        <v>11924</v>
       </c>
       <c r="B354" t="s">
         <v>174</v>
@@ -12277,7 +12277,7 @@
         <v>70</v>
       </c>
       <c r="E354" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F354" t="n">
         <v>0</v>
@@ -12297,7 +12297,7 @@
     </row>
     <row r="355" spans="1:26">
       <c r="A355" t="n">
-        <v>3546</v>
+        <v>11925</v>
       </c>
       <c r="B355" t="s">
         <v>174</v>
@@ -12309,7 +12309,7 @@
         <v>74</v>
       </c>
       <c r="E355" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F355" t="n">
         <v>0</v>
@@ -12329,7 +12329,7 @@
     </row>
     <row r="356" spans="1:26">
       <c r="A356" t="n">
-        <v>3547</v>
+        <v>11926</v>
       </c>
       <c r="B356" t="s">
         <v>175</v>
@@ -12341,7 +12341,7 @@
         <v>55</v>
       </c>
       <c r="E356" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F356" t="n">
         <v>0</v>
@@ -12361,7 +12361,7 @@
     </row>
     <row r="357" spans="1:26">
       <c r="A357" t="n">
-        <v>3548</v>
+        <v>11927</v>
       </c>
       <c r="B357" t="s">
         <v>175</v>
@@ -12373,7 +12373,7 @@
         <v>56</v>
       </c>
       <c r="E357" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F357" t="n">
         <v>0</v>
@@ -12393,7 +12393,7 @@
     </row>
     <row r="358" spans="1:26">
       <c r="A358" t="n">
-        <v>3549</v>
+        <v>11928</v>
       </c>
       <c r="B358" t="s">
         <v>175</v>
@@ -12405,7 +12405,7 @@
         <v>70</v>
       </c>
       <c r="E358" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F358" t="n">
         <v>0</v>
@@ -12425,7 +12425,7 @@
     </row>
     <row r="359" spans="1:26">
       <c r="A359" t="n">
-        <v>3550</v>
+        <v>11929</v>
       </c>
       <c r="B359" t="s">
         <v>175</v>
@@ -12437,7 +12437,7 @@
         <v>74</v>
       </c>
       <c r="E359" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F359" t="n">
         <v>0</v>
@@ -12457,7 +12457,7 @@
     </row>
     <row r="360" spans="1:26">
       <c r="A360" t="n">
-        <v>3551</v>
+        <v>11930</v>
       </c>
       <c r="B360" t="s">
         <v>176</v>
@@ -12469,7 +12469,7 @@
         <v>55</v>
       </c>
       <c r="E360" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F360" t="n">
         <v>0</v>
@@ -12489,7 +12489,7 @@
     </row>
     <row r="361" spans="1:26">
       <c r="A361" t="n">
-        <v>3552</v>
+        <v>11931</v>
       </c>
       <c r="B361" t="s">
         <v>176</v>
@@ -12501,7 +12501,7 @@
         <v>56</v>
       </c>
       <c r="E361" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F361" t="n">
         <v>0</v>
@@ -12521,7 +12521,7 @@
     </row>
     <row r="362" spans="1:26">
       <c r="A362" t="n">
-        <v>3553</v>
+        <v>11932</v>
       </c>
       <c r="B362" t="s">
         <v>176</v>
@@ -12533,7 +12533,7 @@
         <v>70</v>
       </c>
       <c r="E362" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F362" t="n">
         <v>0</v>
@@ -12553,7 +12553,7 @@
     </row>
     <row r="363" spans="1:26">
       <c r="A363" t="n">
-        <v>3554</v>
+        <v>11933</v>
       </c>
       <c r="B363" t="s">
         <v>176</v>
@@ -12565,7 +12565,7 @@
         <v>71</v>
       </c>
       <c r="E363" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F363" t="n">
         <v>0</v>
@@ -12585,7 +12585,7 @@
     </row>
     <row r="364" spans="1:26">
       <c r="A364" t="n">
-        <v>3555</v>
+        <v>11934</v>
       </c>
       <c r="B364" t="s">
         <v>176</v>
@@ -12597,7 +12597,7 @@
         <v>72</v>
       </c>
       <c r="E364" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F364" t="n">
         <v>0</v>
@@ -12617,7 +12617,7 @@
     </row>
     <row r="365" spans="1:26">
       <c r="A365" t="n">
-        <v>3556</v>
+        <v>11935</v>
       </c>
       <c r="B365" t="s">
         <v>177</v>
@@ -12629,7 +12629,7 @@
         <v>55</v>
       </c>
       <c r="E365" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F365" t="n">
         <v>0</v>
@@ -12649,7 +12649,7 @@
     </row>
     <row r="366" spans="1:26">
       <c r="A366" t="n">
-        <v>3557</v>
+        <v>11936</v>
       </c>
       <c r="B366" t="s">
         <v>177</v>
@@ -12661,7 +12661,7 @@
         <v>68</v>
       </c>
       <c r="E366" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F366" t="n">
         <v>0</v>
@@ -12681,7 +12681,7 @@
     </row>
     <row r="367" spans="1:26">
       <c r="A367" t="n">
-        <v>3558</v>
+        <v>11937</v>
       </c>
       <c r="B367" t="s">
         <v>178</v>
@@ -12693,7 +12693,7 @@
         <v>55</v>
       </c>
       <c r="E367" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F367" t="n">
         <v>0</v>
@@ -12713,7 +12713,7 @@
     </row>
     <row r="368" spans="1:26">
       <c r="A368" t="n">
-        <v>3559</v>
+        <v>11938</v>
       </c>
       <c r="B368" t="s">
         <v>178</v>
@@ -12725,7 +12725,7 @@
         <v>56</v>
       </c>
       <c r="E368" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F368" t="n">
         <v>0</v>
@@ -12745,7 +12745,7 @@
     </row>
     <row r="369" spans="1:26">
       <c r="A369" t="n">
-        <v>3560</v>
+        <v>11939</v>
       </c>
       <c r="B369" t="s">
         <v>178</v>
@@ -12757,7 +12757,7 @@
         <v>70</v>
       </c>
       <c r="E369" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F369" t="n">
         <v>0</v>
@@ -12777,7 +12777,7 @@
     </row>
     <row r="370" spans="1:26">
       <c r="A370" t="n">
-        <v>3561</v>
+        <v>11940</v>
       </c>
       <c r="B370" t="s">
         <v>178</v>
@@ -12789,7 +12789,7 @@
         <v>74</v>
       </c>
       <c r="E370" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F370" t="n">
         <v>0</v>
@@ -12809,7 +12809,7 @@
     </row>
     <row r="371" spans="1:26">
       <c r="A371" t="n">
-        <v>3562</v>
+        <v>11941</v>
       </c>
       <c r="B371" t="s">
         <v>179</v>
@@ -12821,7 +12821,7 @@
         <v>55</v>
       </c>
       <c r="E371" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F371" t="n">
         <v>0</v>
@@ -12841,7 +12841,7 @@
     </row>
     <row r="372" spans="1:26">
       <c r="A372" t="n">
-        <v>3563</v>
+        <v>11942</v>
       </c>
       <c r="B372" t="s">
         <v>179</v>
@@ -12853,7 +12853,7 @@
         <v>56</v>
       </c>
       <c r="E372" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F372" t="n">
         <v>0</v>
@@ -12873,7 +12873,7 @@
     </row>
     <row r="373" spans="1:26">
       <c r="A373" t="n">
-        <v>3564</v>
+        <v>11943</v>
       </c>
       <c r="B373" t="s">
         <v>179</v>
@@ -12885,7 +12885,7 @@
         <v>70</v>
       </c>
       <c r="E373" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F373" t="n">
         <v>0</v>
@@ -12905,7 +12905,7 @@
     </row>
     <row r="374" spans="1:26">
       <c r="A374" t="n">
-        <v>3565</v>
+        <v>11944</v>
       </c>
       <c r="B374" t="s">
         <v>179</v>
@@ -12917,7 +12917,7 @@
         <v>71</v>
       </c>
       <c r="E374" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F374" t="n">
         <v>0</v>
@@ -12937,7 +12937,7 @@
     </row>
     <row r="375" spans="1:26">
       <c r="A375" t="n">
-        <v>3566</v>
+        <v>11945</v>
       </c>
       <c r="B375" t="s">
         <v>179</v>
@@ -12949,7 +12949,7 @@
         <v>72</v>
       </c>
       <c r="E375" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F375" t="n">
         <v>0</v>
@@ -12969,7 +12969,7 @@
     </row>
     <row r="376" spans="1:26">
       <c r="A376" t="n">
-        <v>3567</v>
+        <v>11946</v>
       </c>
       <c r="B376" t="s">
         <v>180</v>
@@ -12981,7 +12981,7 @@
         <v>55</v>
       </c>
       <c r="E376" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F376" t="n">
         <v>0</v>
@@ -13001,7 +13001,7 @@
     </row>
     <row r="377" spans="1:26">
       <c r="A377" t="n">
-        <v>3568</v>
+        <v>11947</v>
       </c>
       <c r="B377" t="s">
         <v>180</v>
@@ -13013,7 +13013,7 @@
         <v>70</v>
       </c>
       <c r="E377" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F377" t="n">
         <v>0</v>
@@ -13033,7 +13033,7 @@
     </row>
     <row r="378" spans="1:26">
       <c r="A378" t="n">
-        <v>3569</v>
+        <v>11948</v>
       </c>
       <c r="B378" t="s">
         <v>180</v>
@@ -13045,7 +13045,7 @@
         <v>74</v>
       </c>
       <c r="E378" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F378" t="n">
         <v>0</v>
@@ -13065,7 +13065,7 @@
     </row>
     <row r="379" spans="1:26">
       <c r="A379" t="n">
-        <v>3570</v>
+        <v>11949</v>
       </c>
       <c r="B379" t="s">
         <v>181</v>
@@ -13077,7 +13077,7 @@
         <v>55</v>
       </c>
       <c r="E379" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F379" t="n">
         <v>0</v>
@@ -13097,7 +13097,7 @@
     </row>
     <row r="380" spans="1:26">
       <c r="A380" t="n">
-        <v>3571</v>
+        <v>11950</v>
       </c>
       <c r="B380" t="s">
         <v>181</v>
@@ -13109,7 +13109,7 @@
         <v>56</v>
       </c>
       <c r="E380" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F380" t="n">
         <v>0</v>
@@ -13129,7 +13129,7 @@
     </row>
     <row r="381" spans="1:26">
       <c r="A381" t="n">
-        <v>3572</v>
+        <v>11951</v>
       </c>
       <c r="B381" t="s">
         <v>181</v>
@@ -13141,7 +13141,7 @@
         <v>70</v>
       </c>
       <c r="E381" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F381" t="n">
         <v>0</v>
@@ -13161,7 +13161,7 @@
     </row>
     <row r="382" spans="1:26">
       <c r="A382" t="n">
-        <v>3573</v>
+        <v>11952</v>
       </c>
       <c r="B382" t="s">
         <v>181</v>
@@ -13173,7 +13173,7 @@
         <v>71</v>
       </c>
       <c r="E382" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F382" t="n">
         <v>0</v>
@@ -13193,7 +13193,7 @@
     </row>
     <row r="383" spans="1:26">
       <c r="A383" t="n">
-        <v>3574</v>
+        <v>11953</v>
       </c>
       <c r="B383" t="s">
         <v>181</v>
@@ -13205,7 +13205,7 @@
         <v>72</v>
       </c>
       <c r="E383" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -13225,7 +13225,7 @@
     </row>
     <row r="384" spans="1:26">
       <c r="A384" t="n">
-        <v>3575</v>
+        <v>11954</v>
       </c>
       <c r="B384" t="s">
         <v>182</v>
@@ -13237,7 +13237,7 @@
         <v>55</v>
       </c>
       <c r="E384" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -13257,7 +13257,7 @@
     </row>
     <row r="385" spans="1:26">
       <c r="A385" t="n">
-        <v>3576</v>
+        <v>11955</v>
       </c>
       <c r="B385" t="s">
         <v>182</v>
@@ -13269,7 +13269,7 @@
         <v>56</v>
       </c>
       <c r="E385" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -13289,7 +13289,7 @@
     </row>
     <row r="386" spans="1:26">
       <c r="A386" t="n">
-        <v>3577</v>
+        <v>11956</v>
       </c>
       <c r="B386" t="s">
         <v>182</v>
@@ -13301,7 +13301,7 @@
         <v>70</v>
       </c>
       <c r="E386" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -13321,7 +13321,7 @@
     </row>
     <row r="387" spans="1:26">
       <c r="A387" t="n">
-        <v>3578</v>
+        <v>11957</v>
       </c>
       <c r="B387" t="s">
         <v>182</v>
@@ -13333,7 +13333,7 @@
         <v>74</v>
       </c>
       <c r="E387" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -13353,7 +13353,7 @@
     </row>
     <row r="388" spans="1:26">
       <c r="A388" t="n">
-        <v>3579</v>
+        <v>11958</v>
       </c>
       <c r="B388" t="s">
         <v>183</v>
@@ -13365,7 +13365,7 @@
         <v>55</v>
       </c>
       <c r="E388" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -13385,7 +13385,7 @@
     </row>
     <row r="389" spans="1:26">
       <c r="A389" t="n">
-        <v>3580</v>
+        <v>11959</v>
       </c>
       <c r="B389" t="s">
         <v>183</v>
@@ -13397,7 +13397,7 @@
         <v>56</v>
       </c>
       <c r="E389" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -13417,7 +13417,7 @@
     </row>
     <row r="390" spans="1:26">
       <c r="A390" t="n">
-        <v>3581</v>
+        <v>11960</v>
       </c>
       <c r="B390" t="s">
         <v>183</v>
@@ -13429,7 +13429,7 @@
         <v>70</v>
       </c>
       <c r="E390" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -13449,7 +13449,7 @@
     </row>
     <row r="391" spans="1:26">
       <c r="A391" t="n">
-        <v>3582</v>
+        <v>11961</v>
       </c>
       <c r="B391" t="s">
         <v>183</v>
@@ -13461,7 +13461,7 @@
         <v>74</v>
       </c>
       <c r="E391" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -13481,7 +13481,7 @@
     </row>
     <row r="392" spans="1:26">
       <c r="A392" t="n">
-        <v>3583</v>
+        <v>11962</v>
       </c>
       <c r="B392" t="s">
         <v>184</v>
@@ -13493,7 +13493,7 @@
         <v>55</v>
       </c>
       <c r="E392" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -13513,7 +13513,7 @@
     </row>
     <row r="393" spans="1:26">
       <c r="A393" t="n">
-        <v>3584</v>
+        <v>11963</v>
       </c>
       <c r="B393" t="s">
         <v>184</v>
@@ -13525,7 +13525,7 @@
         <v>70</v>
       </c>
       <c r="E393" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F393" t="n">
         <v>0</v>
@@ -13545,7 +13545,7 @@
     </row>
     <row r="394" spans="1:26">
       <c r="A394" t="n">
-        <v>3585</v>
+        <v>11964</v>
       </c>
       <c r="B394" t="s">
         <v>184</v>
@@ -13557,7 +13557,7 @@
         <v>74</v>
       </c>
       <c r="E394" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F394" t="n">
         <v>0</v>
@@ -13577,7 +13577,7 @@
     </row>
     <row r="395" spans="1:26">
       <c r="A395" t="n">
-        <v>3586</v>
+        <v>11965</v>
       </c>
       <c r="B395" t="s">
         <v>185</v>
@@ -13589,7 +13589,7 @@
         <v>55</v>
       </c>
       <c r="E395" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F395" t="n">
         <v>0</v>
@@ -13609,7 +13609,7 @@
     </row>
     <row r="396" spans="1:26">
       <c r="A396" t="n">
-        <v>3587</v>
+        <v>11966</v>
       </c>
       <c r="B396" t="s">
         <v>185</v>
@@ -13621,7 +13621,7 @@
         <v>56</v>
       </c>
       <c r="E396" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F396" t="n">
         <v>0</v>
@@ -13641,7 +13641,7 @@
     </row>
     <row r="397" spans="1:26">
       <c r="A397" t="n">
-        <v>3588</v>
+        <v>11967</v>
       </c>
       <c r="B397" t="s">
         <v>185</v>
@@ -13653,7 +13653,7 @@
         <v>70</v>
       </c>
       <c r="E397" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F397" t="n">
         <v>0</v>
@@ -13673,7 +13673,7 @@
     </row>
     <row r="398" spans="1:26">
       <c r="A398" t="n">
-        <v>3589</v>
+        <v>11968</v>
       </c>
       <c r="B398" t="s">
         <v>185</v>
@@ -13685,7 +13685,7 @@
         <v>74</v>
       </c>
       <c r="E398" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F398" t="n">
         <v>0</v>
@@ -13705,7 +13705,7 @@
     </row>
     <row r="399" spans="1:26">
       <c r="A399" t="n">
-        <v>3590</v>
+        <v>11969</v>
       </c>
       <c r="B399" t="s">
         <v>186</v>
@@ -13717,7 +13717,7 @@
         <v>55</v>
       </c>
       <c r="E399" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F399" t="n">
         <v>0</v>
@@ -13737,7 +13737,7 @@
     </row>
     <row r="400" spans="1:26">
       <c r="A400" t="n">
-        <v>3591</v>
+        <v>11970</v>
       </c>
       <c r="B400" t="s">
         <v>186</v>
@@ -13749,7 +13749,7 @@
         <v>68</v>
       </c>
       <c r="E400" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F400" t="n">
         <v>0</v>
